--- a/left_wrist_Data_Variable.xlsx
+++ b/left_wrist_Data_Variable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HU4"/>
+  <dimension ref="A1:NM4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1121,2072 +1121,3848 @@
       <c r="HU1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ML1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ND1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="NM1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>316.6383972167969</v>
+        <v>438.7735290527344</v>
       </c>
       <c r="B2" t="n">
-        <v>321.9263305664062</v>
+        <v>449.7319946289062</v>
       </c>
       <c r="C2" t="n">
-        <v>322.3473510742188</v>
+        <v>462.0956420898438</v>
       </c>
       <c r="D2" t="n">
-        <v>324.592529296875</v>
+        <v>469.4147338867188</v>
       </c>
       <c r="E2" t="n">
-        <v>330.7376708984375</v>
+        <v>482.7371826171875</v>
       </c>
       <c r="F2" t="n">
-        <v>333.3801879882812</v>
+        <v>502.0565490722656</v>
       </c>
       <c r="G2" t="n">
-        <v>338.7487487792969</v>
+        <v>511.8108520507812</v>
       </c>
       <c r="H2" t="n">
-        <v>340.4031982421875</v>
+        <v>522.8876953125</v>
       </c>
       <c r="I2" t="n">
-        <v>348.5960083007812</v>
+        <v>538.5636596679688</v>
       </c>
       <c r="J2" t="n">
-        <v>350.0815124511719</v>
+        <v>552.530517578125</v>
       </c>
       <c r="K2" t="n">
-        <v>359.7223510742188</v>
+        <v>567.4121704101562</v>
       </c>
       <c r="L2" t="n">
-        <v>357.9496765136719</v>
+        <v>578.9179077148438</v>
       </c>
       <c r="M2" t="n">
-        <v>366.4530944824219</v>
+        <v>559.4742431640625</v>
       </c>
       <c r="N2" t="n">
-        <v>362.4804992675781</v>
+        <v>555.9105834960938</v>
       </c>
       <c r="O2" t="n">
-        <v>375.3054504394531</v>
+        <v>543.77880859375</v>
       </c>
       <c r="P2" t="n">
-        <v>377.139404296875</v>
+        <v>540.6513061523438</v>
       </c>
       <c r="Q2" t="n">
-        <v>377.7270812988281</v>
+        <v>539.2058715820312</v>
       </c>
       <c r="R2" t="n">
-        <v>377.9035034179688</v>
+        <v>538.0117797851562</v>
       </c>
       <c r="S2" t="n">
-        <v>395.7193603515625</v>
+        <v>534.6683959960938</v>
       </c>
       <c r="T2" t="n">
-        <v>394.0599365234375</v>
+        <v>528.085205078125</v>
       </c>
       <c r="U2" t="n">
-        <v>392.7451171875</v>
+        <v>528.0220336914062</v>
       </c>
       <c r="V2" t="n">
-        <v>391.7971496582031</v>
+        <v>531.5946044921875</v>
       </c>
       <c r="W2" t="n">
-        <v>392.5545654296875</v>
+        <v>534.5203247070312</v>
       </c>
       <c r="X2" t="n">
-        <v>392.2957153320312</v>
+        <v>526.22314453125</v>
       </c>
       <c r="Y2" t="n">
-        <v>393.9013366699219</v>
+        <v>506.6700439453125</v>
       </c>
       <c r="Z2" t="n">
-        <v>394.2172241210938</v>
+        <v>490.3099060058594</v>
       </c>
       <c r="AA2" t="n">
-        <v>391.4269714355469</v>
+        <v>481.3186950683594</v>
       </c>
       <c r="AB2" t="n">
-        <v>387.1360778808594</v>
+        <v>476.3885803222656</v>
       </c>
       <c r="AC2" t="n">
-        <v>384.881103515625</v>
+        <v>475.7677612304688</v>
       </c>
       <c r="AD2" t="n">
-        <v>383.5227966308594</v>
+        <v>475.9671325683594</v>
       </c>
       <c r="AE2" t="n">
-        <v>382.7046508789062</v>
+        <v>478.427490234375</v>
       </c>
       <c r="AF2" t="n">
-        <v>382.9611206054688</v>
+        <v>475.3069458007812</v>
       </c>
       <c r="AG2" t="n">
-        <v>384.3095092773438</v>
+        <v>474.084716796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>385.0269775390625</v>
+        <v>473.2494812011719</v>
       </c>
       <c r="AI2" t="n">
-        <v>385.9701232910156</v>
+        <v>474.8230590820312</v>
       </c>
       <c r="AJ2" t="n">
-        <v>386.1739501953125</v>
+        <v>477.1975708007812</v>
       </c>
       <c r="AK2" t="n">
-        <v>385.6249389648438</v>
+        <v>475.2373046875</v>
       </c>
       <c r="AL2" t="n">
-        <v>385.4097900390625</v>
+        <v>473.6256103515625</v>
       </c>
       <c r="AM2" t="n">
-        <v>385.2229614257812</v>
+        <v>474.5584411621094</v>
       </c>
       <c r="AN2" t="n">
-        <v>384.8898620605469</v>
+        <v>473.8550109863281</v>
       </c>
       <c r="AO2" t="n">
-        <v>387.2583618164062</v>
+        <v>472.7198791503906</v>
       </c>
       <c r="AP2" t="n">
-        <v>385.5712280273438</v>
+        <v>472.660888671875</v>
       </c>
       <c r="AQ2" t="n">
-        <v>382.5389099121094</v>
+        <v>472.9804077148438</v>
       </c>
       <c r="AR2" t="n">
-        <v>379.6365966796875</v>
+        <v>476.215087890625</v>
       </c>
       <c r="AS2" t="n">
-        <v>379.4841918945312</v>
+        <v>480.3075561523438</v>
       </c>
       <c r="AT2" t="n">
-        <v>376.1856689453125</v>
+        <v>481.951171875</v>
       </c>
       <c r="AU2" t="n">
-        <v>375.51953125</v>
+        <v>483.3721618652344</v>
       </c>
       <c r="AV2" t="n">
-        <v>374.7604675292969</v>
+        <v>487.6439819335938</v>
       </c>
       <c r="AW2" t="n">
-        <v>373.5057983398438</v>
+        <v>492.400634765625</v>
       </c>
       <c r="AX2" t="n">
-        <v>371.8002014160156</v>
+        <v>495.695556640625</v>
       </c>
       <c r="AY2" t="n">
-        <v>370.0984497070312</v>
+        <v>500.0049438476562</v>
       </c>
       <c r="AZ2" t="n">
-        <v>369.6974182128906</v>
+        <v>509.084716796875</v>
       </c>
       <c r="BA2" t="n">
-        <v>369.7945556640625</v>
+        <v>534.0214233398438</v>
       </c>
       <c r="BB2" t="n">
-        <v>368.8351135253906</v>
+        <v>556.70849609375</v>
       </c>
       <c r="BC2" t="n">
-        <v>368.5684204101562</v>
+        <v>575.3267822265625</v>
       </c>
       <c r="BD2" t="n">
-        <v>367.7742004394531</v>
+        <v>586.773193359375</v>
       </c>
       <c r="BE2" t="n">
-        <v>367.0542602539062</v>
+        <v>595.32373046875</v>
       </c>
       <c r="BF2" t="n">
-        <v>365.7523193359375</v>
+        <v>599.5833740234375</v>
       </c>
       <c r="BG2" t="n">
-        <v>364.7456359863281</v>
+        <v>601.5274658203125</v>
       </c>
       <c r="BH2" t="n">
-        <v>361.9123840332031</v>
+        <v>603.98388671875</v>
       </c>
       <c r="BI2" t="n">
-        <v>359.1866455078125</v>
+        <v>602.3431396484375</v>
       </c>
       <c r="BJ2" t="n">
-        <v>357.3469848632812</v>
+        <v>601.069091796875</v>
       </c>
       <c r="BK2" t="n">
-        <v>356.5574951171875</v>
+        <v>597.699951171875</v>
       </c>
       <c r="BL2" t="n">
-        <v>354.3308715820312</v>
+        <v>593.6602172851562</v>
       </c>
       <c r="BM2" t="n">
-        <v>353.623291015625</v>
+        <v>586.2275390625</v>
       </c>
       <c r="BN2" t="n">
-        <v>352.2088317871094</v>
+        <v>581.5264892578125</v>
       </c>
       <c r="BO2" t="n">
-        <v>350.3995361328125</v>
+        <v>573.6138916015625</v>
       </c>
       <c r="BP2" t="n">
-        <v>348.4957580566406</v>
+        <v>570.267578125</v>
       </c>
       <c r="BQ2" t="n">
-        <v>344.2005004882812</v>
+        <v>569.7001953125</v>
       </c>
       <c r="BR2" t="n">
-        <v>346.5416870117188</v>
+        <v>568.4815673828125</v>
       </c>
       <c r="BS2" t="n">
-        <v>345.6173095703125</v>
+        <v>567.1996459960938</v>
       </c>
       <c r="BT2" t="n">
-        <v>344.6032409667969</v>
+        <v>566.6312866210938</v>
       </c>
       <c r="BU2" t="n">
-        <v>344.8451538085938</v>
+        <v>566.148681640625</v>
       </c>
       <c r="BV2" t="n">
-        <v>343.9319458007812</v>
+        <v>565.5834350585938</v>
       </c>
       <c r="BW2" t="n">
-        <v>342.6165161132812</v>
+        <v>565.4328002929688</v>
       </c>
       <c r="BX2" t="n">
-        <v>339.5153198242188</v>
+        <v>565.3428955078125</v>
       </c>
       <c r="BY2" t="n">
-        <v>335.5453491210938</v>
+        <v>565.958740234375</v>
       </c>
       <c r="BZ2" t="n">
-        <v>335.4419555664062</v>
+        <v>567.071044921875</v>
       </c>
       <c r="CA2" t="n">
-        <v>335.2500610351562</v>
+        <v>568.9136352539062</v>
       </c>
       <c r="CB2" t="n">
-        <v>336.5277404785156</v>
+        <v>571.1051025390625</v>
       </c>
       <c r="CC2" t="n">
-        <v>337.1100158691406</v>
+        <v>575.6448364257812</v>
       </c>
       <c r="CD2" t="n">
-        <v>334.7583618164062</v>
+        <v>581.454833984375</v>
       </c>
       <c r="CE2" t="n">
-        <v>338.4654541015625</v>
+        <v>592.6936645507812</v>
       </c>
       <c r="CF2" t="n">
-        <v>335.7933959960938</v>
+        <v>596.3895263671875</v>
       </c>
       <c r="CG2" t="n">
-        <v>337.697265625</v>
+        <v>599.734130859375</v>
       </c>
       <c r="CH2" t="n">
-        <v>337.3980407714844</v>
+        <v>604.9963989257812</v>
       </c>
       <c r="CI2" t="n">
-        <v>340.0574340820312</v>
+        <v>610.6463012695312</v>
       </c>
       <c r="CJ2" t="n">
-        <v>329.0495300292969</v>
+        <v>616.7323608398438</v>
       </c>
       <c r="CK2" t="n">
-        <v>331.0830078125</v>
+        <v>621.4107666015625</v>
       </c>
       <c r="CL2" t="n">
-        <v>337.0905151367188</v>
+        <v>627.064453125</v>
       </c>
       <c r="CM2" t="n">
-        <v>337.4093627929688</v>
+        <v>635.19287109375</v>
       </c>
       <c r="CN2" t="n">
-        <v>331.2220458984375</v>
+        <v>647.7239379882812</v>
       </c>
       <c r="CO2" t="n">
-        <v>340.8446044921875</v>
+        <v>646.6734619140625</v>
       </c>
       <c r="CP2" t="n">
-        <v>339.5721740722656</v>
+        <v>644.173828125</v>
       </c>
       <c r="CQ2" t="n">
-        <v>338.3988037109375</v>
+        <v>640.373046875</v>
       </c>
       <c r="CR2" t="n">
-        <v>338.0035400390625</v>
+        <v>634.476806640625</v>
       </c>
       <c r="CS2" t="n">
-        <v>337.402587890625</v>
+        <v>613.8155517578125</v>
       </c>
       <c r="CT2" t="n">
-        <v>339.0854187011719</v>
+        <v>567.5900268554688</v>
       </c>
       <c r="CU2" t="n">
-        <v>338.7752990722656</v>
+        <v>540.0950927734375</v>
       </c>
       <c r="CV2" t="n">
-        <v>337.470947265625</v>
+        <v>516.65869140625</v>
       </c>
       <c r="CW2" t="n">
-        <v>333.1989135742188</v>
+        <v>502.6007690429688</v>
       </c>
       <c r="CX2" t="n">
-        <v>330.8231811523438</v>
+        <v>475.2852172851562</v>
       </c>
       <c r="CY2" t="n">
-        <v>327.1802368164062</v>
+        <v>462.9366455078125</v>
       </c>
       <c r="CZ2" t="n">
-        <v>327.259765625</v>
+        <v>455.4638977050781</v>
       </c>
       <c r="DA2" t="n">
-        <v>324.4190063476562</v>
+        <v>452.7569580078125</v>
       </c>
       <c r="DB2" t="n">
-        <v>324.1818237304688</v>
+        <v>452.0256958007812</v>
       </c>
       <c r="DC2" t="n">
-        <v>325.2645263671875</v>
+        <v>452.3633117675781</v>
       </c>
       <c r="DD2" t="n">
-        <v>325.7066650390625</v>
+        <v>450.2393798828125</v>
       </c>
       <c r="DE2" t="n">
-        <v>326.0913696289062</v>
+        <v>441.3983764648438</v>
       </c>
       <c r="DF2" t="n">
-        <v>319.3246154785156</v>
+        <v>432.741455078125</v>
       </c>
       <c r="DG2" t="n">
-        <v>318.1553039550781</v>
+        <v>426.659912109375</v>
       </c>
       <c r="DH2" t="n">
-        <v>318.853515625</v>
+        <v>423.0487670898438</v>
       </c>
       <c r="DI2" t="n">
-        <v>320.8917541503906</v>
+        <v>420.2745971679688</v>
       </c>
       <c r="DJ2" t="n">
-        <v>332.6114501953125</v>
+        <v>420.06640625</v>
       </c>
       <c r="DK2" t="n">
-        <v>322.1206665039062</v>
+        <v>420.2734985351562</v>
       </c>
       <c r="DL2" t="n">
-        <v>329.8699951171875</v>
+        <v>420.1881408691406</v>
       </c>
       <c r="DM2" t="n">
-        <v>331.5917358398438</v>
+        <v>420.2022705078125</v>
       </c>
       <c r="DN2" t="n">
-        <v>329.2479858398438</v>
+        <v>423.8656616210938</v>
       </c>
       <c r="DO2" t="n">
-        <v>343.7409057617188</v>
+        <v>426.6971435546875</v>
       </c>
       <c r="DP2" t="n">
-        <v>335.3784484863281</v>
+        <v>427.8997192382812</v>
       </c>
       <c r="DQ2" t="n">
-        <v>339.75537109375</v>
+        <v>431.127685546875</v>
       </c>
       <c r="DR2" t="n">
-        <v>350.5013427734375</v>
+        <v>432.9476318359375</v>
       </c>
       <c r="DS2" t="n">
-        <v>356.9063720703125</v>
+        <v>434.8636474609375</v>
       </c>
       <c r="DT2" t="n">
-        <v>357.3800048828125</v>
+        <v>435.6445922851562</v>
       </c>
       <c r="DU2" t="n">
-        <v>364.0576171875</v>
+        <v>436.5176696777344</v>
       </c>
       <c r="DV2" t="n">
-        <v>347.3052368164062</v>
+        <v>435.515869140625</v>
       </c>
       <c r="DW2" t="n">
-        <v>371.8138427734375</v>
+        <v>434.08154296875</v>
       </c>
       <c r="DX2" t="n">
-        <v>371.059326171875</v>
+        <v>433.890380859375</v>
       </c>
       <c r="DY2" t="n">
-        <v>372.0955810546875</v>
+        <v>432.7429809570312</v>
       </c>
       <c r="DZ2" t="n">
-        <v>375.8297119140625</v>
+        <v>431.9219970703125</v>
       </c>
       <c r="EA2" t="n">
-        <v>374.1049499511719</v>
+        <v>432.5643920898438</v>
       </c>
       <c r="EB2" t="n">
-        <v>374.0481262207031</v>
+        <v>437.8179626464844</v>
       </c>
       <c r="EC2" t="n">
-        <v>374.6065063476562</v>
+        <v>447.330078125</v>
       </c>
       <c r="ED2" t="n">
-        <v>372.9534301757812</v>
+        <v>453.6584167480469</v>
       </c>
       <c r="EE2" t="n">
-        <v>373.8215942382812</v>
+        <v>467.8960571289062</v>
       </c>
       <c r="EF2" t="n">
-        <v>374.5230712890625</v>
+        <v>488.3594360351562</v>
       </c>
       <c r="EG2" t="n">
-        <v>369.991455078125</v>
+        <v>503.0689086914062</v>
       </c>
       <c r="EH2" t="n">
-        <v>365.2286987304688</v>
+        <v>509.997802734375</v>
       </c>
       <c r="EI2" t="n">
-        <v>340.23095703125</v>
+        <v>520.1627807617188</v>
       </c>
       <c r="EJ2" t="n">
-        <v>328.5577697753906</v>
+        <v>525.2326049804688</v>
       </c>
       <c r="EK2" t="n">
-        <v>333.4432678222656</v>
+        <v>529.951171875</v>
       </c>
       <c r="EL2" t="n">
-        <v>335.214599609375</v>
+        <v>530.0674438476562</v>
       </c>
       <c r="EM2" t="n">
-        <v>334.2851257324219</v>
+        <v>533.7001342773438</v>
       </c>
       <c r="EN2" t="n">
-        <v>328.0196838378906</v>
+        <v>535.7437744140625</v>
       </c>
       <c r="EO2" t="n">
-        <v>313.1878051757812</v>
+        <v>533.9344482421875</v>
       </c>
       <c r="EP2" t="n">
-        <v>313.1794128417969</v>
+        <v>534.069580078125</v>
       </c>
       <c r="EQ2" t="n">
-        <v>348.4331970214844</v>
+        <v>538.1832885742188</v>
       </c>
       <c r="ER2" t="n">
-        <v>346.318359375</v>
+        <v>539.7218627929688</v>
       </c>
       <c r="ES2" t="n">
-        <v>342.0559692382812</v>
+        <v>537.747802734375</v>
       </c>
       <c r="ET2" t="n">
-        <v>343.6027526855469</v>
+        <v>537.351318359375</v>
       </c>
       <c r="EU2" t="n">
-        <v>343.252197265625</v>
+        <v>537.7715454101562</v>
       </c>
       <c r="EV2" t="n">
-        <v>335.2060241699219</v>
+        <v>537.4879150390625</v>
       </c>
       <c r="EW2" t="n">
-        <v>330.2822875976562</v>
+        <v>534.740234375</v>
       </c>
       <c r="EX2" t="n">
-        <v>333.7389526367188</v>
+        <v>532.26708984375</v>
       </c>
       <c r="EY2" t="n">
-        <v>338.1747436523438</v>
+        <v>529.1985473632812</v>
       </c>
       <c r="EZ2" t="n">
-        <v>334.40673828125</v>
+        <v>529.232177734375</v>
       </c>
       <c r="FA2" t="n">
-        <v>324.7662658691406</v>
+        <v>530.5255737304688</v>
       </c>
       <c r="FB2" t="n">
-        <v>327.4620971679688</v>
+        <v>530.23876953125</v>
       </c>
       <c r="FC2" t="n">
-        <v>333.7396545410156</v>
+        <v>530.3238525390625</v>
       </c>
       <c r="FD2" t="n">
-        <v>334.9811401367188</v>
+        <v>528.761962890625</v>
       </c>
       <c r="FE2" t="n">
-        <v>336.1171875</v>
+        <v>528.5731811523438</v>
       </c>
       <c r="FF2" t="n">
-        <v>357.4977111816406</v>
+        <v>527.4610595703125</v>
       </c>
       <c r="FG2" t="n">
-        <v>353.697998046875</v>
+        <v>526.0836791992188</v>
       </c>
       <c r="FH2" t="n">
-        <v>349.4369201660156</v>
+        <v>525.4644165039062</v>
       </c>
       <c r="FI2" t="n">
-        <v>348.2158813476562</v>
+        <v>524.3310546875</v>
       </c>
       <c r="FJ2" t="n">
-        <v>347.3502197265625</v>
+        <v>526.96728515625</v>
       </c>
       <c r="FK2" t="n">
-        <v>349.9437255859375</v>
+        <v>538.7894897460938</v>
       </c>
       <c r="FL2" t="n">
-        <v>351.8517761230469</v>
+        <v>540.9793701171875</v>
       </c>
       <c r="FM2" t="n">
-        <v>340.3128662109375</v>
+        <v>535.86962890625</v>
       </c>
       <c r="FN2" t="n">
-        <v>321.5876770019531</v>
+        <v>529.38037109375</v>
       </c>
       <c r="FO2" t="n">
-        <v>317.9562683105469</v>
+        <v>537.6497802734375</v>
       </c>
       <c r="FP2" t="n">
-        <v>340.0369873046875</v>
+        <v>529.66162109375</v>
       </c>
       <c r="FQ2" t="n">
-        <v>339.2798461914062</v>
+        <v>504.6290893554688</v>
       </c>
       <c r="FR2" t="n">
-        <v>330.012451171875</v>
+        <v>491.143798828125</v>
       </c>
       <c r="FS2" t="n">
-        <v>320.7268676757812</v>
+        <v>484.9649047851562</v>
       </c>
       <c r="FT2" t="n">
-        <v>329.638427734375</v>
+        <v>474.2456665039062</v>
       </c>
       <c r="FU2" t="n">
-        <v>329.2489013671875</v>
+        <v>469.033935546875</v>
       </c>
       <c r="FV2" t="n">
-        <v>329.1275024414062</v>
+        <v>463.5020446777344</v>
       </c>
       <c r="FW2" t="n">
-        <v>328.9339904785156</v>
+        <v>456.4089660644531</v>
       </c>
       <c r="FX2" t="n">
-        <v>328.8977661132812</v>
+        <v>454.678955078125</v>
       </c>
       <c r="FY2" t="n">
-        <v>328.5228881835938</v>
+        <v>453.1050109863281</v>
       </c>
       <c r="FZ2" t="n">
-        <v>328.0008239746094</v>
+        <v>451.2005004882812</v>
       </c>
       <c r="GA2" t="n">
-        <v>325.3793640136719</v>
+        <v>451.2196350097656</v>
       </c>
       <c r="GB2" t="n">
-        <v>324.2284545898438</v>
+        <v>451.010986328125</v>
       </c>
       <c r="GC2" t="n">
-        <v>310.1558532714844</v>
+        <v>449.93017578125</v>
       </c>
       <c r="GD2" t="n">
-        <v>313.5020446777344</v>
+        <v>447.243408203125</v>
       </c>
       <c r="GE2" t="n">
-        <v>312.9561767578125</v>
+        <v>446.92822265625</v>
       </c>
       <c r="GF2" t="n">
-        <v>316.0869445800781</v>
+        <v>446.5949096679688</v>
       </c>
       <c r="GG2" t="n">
-        <v>317.4449157714844</v>
+        <v>446.0975341796875</v>
       </c>
       <c r="GH2" t="n">
-        <v>317.0587463378906</v>
+        <v>444.7730102539062</v>
       </c>
       <c r="GI2" t="n">
-        <v>318.0682067871094</v>
+        <v>443.9978637695312</v>
       </c>
       <c r="GJ2" t="n">
-        <v>317.1221618652344</v>
+        <v>444.0849304199219</v>
       </c>
       <c r="GK2" t="n">
-        <v>319.8916320800781</v>
+        <v>442.2662658691406</v>
       </c>
       <c r="GL2" t="n">
-        <v>326.2037963867188</v>
+        <v>437.4325866699219</v>
       </c>
       <c r="GM2" t="n">
-        <v>331.2222595214844</v>
+        <v>434.7483825683594</v>
       </c>
       <c r="GN2" t="n">
-        <v>334.6924133300781</v>
+        <v>431.971435546875</v>
       </c>
       <c r="GO2" t="n">
-        <v>334.5206298828125</v>
+        <v>425.6973571777344</v>
       </c>
       <c r="GP2" t="n">
-        <v>336.0081176757812</v>
+        <v>418.743408203125</v>
       </c>
       <c r="GQ2" t="n">
-        <v>335.4166259765625</v>
+        <v>411.96142578125</v>
       </c>
       <c r="GR2" t="n">
-        <v>336.0960388183594</v>
+        <v>401.4925842285156</v>
       </c>
       <c r="GS2" t="n">
-        <v>337.5033874511719</v>
+        <v>395.3808288574219</v>
       </c>
       <c r="GT2" t="n">
-        <v>338.432861328125</v>
+        <v>394.3800048828125</v>
       </c>
       <c r="GU2" t="n">
-        <v>338.5641479492188</v>
+        <v>385.5875244140625</v>
       </c>
       <c r="GV2" t="n">
-        <v>338.0658264160156</v>
+        <v>380.6683349609375</v>
       </c>
       <c r="GW2" t="n">
-        <v>337.2204895019531</v>
+        <v>379.1754150390625</v>
       </c>
       <c r="GX2" t="n">
-        <v>333.6309509277344</v>
+        <v>379.1222534179688</v>
       </c>
       <c r="GY2" t="n">
-        <v>331.9968872070312</v>
+        <v>379.0780029296875</v>
       </c>
       <c r="GZ2" t="n">
-        <v>397.6485900878906</v>
+        <v>378.3284301757812</v>
       </c>
       <c r="HA2" t="n">
-        <v>393.1209106445312</v>
+        <v>378.1434326171875</v>
       </c>
       <c r="HB2" t="n">
-        <v>349.2434997558594</v>
+        <v>377.2789306640625</v>
       </c>
       <c r="HC2" t="n">
-        <v>321.1789245605469</v>
+        <v>375.6401062011719</v>
       </c>
       <c r="HD2" t="n">
-        <v>294.9066162109375</v>
+        <v>374.7766723632812</v>
       </c>
       <c r="HE2" t="n">
-        <v>292.5137634277344</v>
+        <v>374.2022094726562</v>
       </c>
       <c r="HF2" t="n">
-        <v>289.6438598632812</v>
+        <v>373.865966796875</v>
       </c>
       <c r="HG2" t="n">
-        <v>286.7082824707031</v>
+        <v>381.2084655761719</v>
       </c>
       <c r="HH2" t="n">
-        <v>290.2091064453125</v>
+        <v>361.0751037597656</v>
       </c>
       <c r="HI2" t="n">
-        <v>286.304443359375</v>
+        <v>381.4149475097656</v>
       </c>
       <c r="HJ2" t="n">
-        <v>285.7779235839844</v>
+        <v>385.78466796875</v>
       </c>
       <c r="HK2" t="n">
-        <v>289.3623352050781</v>
+        <v>399.8555908203125</v>
       </c>
       <c r="HL2" t="n">
-        <v>291.6841430664062</v>
+        <v>410.0749206542969</v>
       </c>
       <c r="HM2" t="n">
-        <v>302.8387145996094</v>
+        <v>408.8294067382812</v>
       </c>
       <c r="HN2" t="n">
-        <v>315.2146911621094</v>
+        <v>414.0291748046875</v>
       </c>
       <c r="HO2" t="n">
-        <v>314.6752014160156</v>
+        <v>434.4210205078125</v>
       </c>
       <c r="HP2" t="n">
-        <v>305.9091796875</v>
+        <v>443.2891845703125</v>
       </c>
       <c r="HQ2" t="n">
-        <v>279.8092346191406</v>
+        <v>446.5875549316406</v>
       </c>
       <c r="HR2" t="n">
-        <v>234.8220520019531</v>
+        <v>460.7703857421875</v>
       </c>
       <c r="HS2" t="n">
-        <v>207.5142669677734</v>
+        <v>469.8141479492188</v>
       </c>
       <c r="HT2" t="n">
-        <v>206.6044006347656</v>
+        <v>475.1979370117188</v>
       </c>
       <c r="HU2" t="n">
-        <v>200.5341491699219</v>
+        <v>474.9278564453125</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>476.78564453125</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>480.566650390625</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>479.7636108398438</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>480.327392578125</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>479.7859191894531</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>478.8617248535156</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>477.3948669433594</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>474.3824768066406</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>471.9660949707031</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>468.1443786621094</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>464.9029846191406</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>464.9556884765625</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>464.053955078125</v>
+      </c>
+      <c r="II2" t="n">
+        <v>454.5514526367188</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>450.9237976074219</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>439.8424987792969</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>437.7759399414062</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>425.0043029785156</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>412.5498046875</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>413.8582763671875</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>409.79736328125</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>397.8334350585938</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>399.5675048828125</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>396.521240234375</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>385.2195739746094</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>383.5232238769531</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>386.0403442382812</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>387.0416564941406</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>389.2035522460938</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>389.0197143554688</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>389.21484375</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>389.801513671875</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>390.7508850097656</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>391.7876586914062</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>393.9432067871094</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>405.656982421875</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>408.4320373535156</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>417.1487121582031</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>423.6884155273438</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>435.5936279296875</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>438.0770568847656</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>448.5737915039062</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>453.1039428710938</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>462.9124145507812</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>468.7396850585938</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>469.5125732421875</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>469.1054077148438</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>469.3846435546875</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>469.5975341796875</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>469.2601318359375</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>469.6306762695312</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>470.3483581542969</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>470.8798828125</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>471.9367065429688</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>473.3465576171875</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>475.832763671875</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>477.5660400390625</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>481.5433959960938</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>492.6163940429688</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>518.2820434570312</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>551.50634765625</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>551.0941772460938</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>559.1887817382812</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>555.5510864257812</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>552.981201171875</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>552.7465209960938</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>559.1304321289062</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>557.7073364257812</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>556.4222412109375</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>552.980712890625</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>548.8943481445312</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>540.1341552734375</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>525.9906005859375</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>501.5599365234375</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>486.1719360351562</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>471.8603820800781</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>468.7215881347656</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>466.3508911132812</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>467.5087890625</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>469.1160583496094</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>471.4867553710938</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>476.0829162597656</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>485.6220092773438</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>489.1889953613281</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>489.5669555664062</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>489.2203369140625</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>486.4042663574219</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>481.7354736328125</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>481.1714172363281</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>482.6482543945312</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>484.8302917480469</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>490.7747802734375</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>502.1813354492188</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>516.6552124023438</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>528.7066650390625</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>543.2122802734375</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>563.4837036132812</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>574.4134521484375</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>591.481201171875</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>604.7971801757812</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>623.7836303710938</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>642.8005981445312</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>578.765625</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>579.3479614257812</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>613.212646484375</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>632.7579345703125</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>658.744140625</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>636.9954833984375</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>621.6438598632812</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>619.7692260742188</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>596.7155151367188</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>564.7984619140625</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>530.3176879882812</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>524.29833984375</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>524.2462158203125</v>
+      </c>
+      <c r="MG2" t="n">
+        <v>528.5806884765625</v>
+      </c>
+      <c r="MH2" t="n">
+        <v>531.108154296875</v>
+      </c>
+      <c r="MI2" t="n">
+        <v>530.37890625</v>
+      </c>
+      <c r="MJ2" t="n">
+        <v>525.2593994140625</v>
+      </c>
+      <c r="MK2" t="n">
+        <v>527.0858154296875</v>
+      </c>
+      <c r="ML2" t="n">
+        <v>508.4940185546875</v>
+      </c>
+      <c r="MM2" t="n">
+        <v>503.728271484375</v>
+      </c>
+      <c r="MN2" t="n">
+        <v>522.9893188476562</v>
+      </c>
+      <c r="MO2" t="n">
+        <v>513.6917724609375</v>
+      </c>
+      <c r="MP2" t="n">
+        <v>539.4310913085938</v>
+      </c>
+      <c r="MQ2" t="n">
+        <v>556.7899780273438</v>
+      </c>
+      <c r="MR2" t="n">
+        <v>530.7836303710938</v>
+      </c>
+      <c r="MS2" t="n">
+        <v>444.38818359375</v>
+      </c>
+      <c r="MT2" t="n">
+        <v>530.8135375976562</v>
+      </c>
+      <c r="MU2" t="n">
+        <v>457.3128051757812</v>
+      </c>
+      <c r="MV2" t="n">
+        <v>521.1346435546875</v>
+      </c>
+      <c r="MW2" t="n">
+        <v>427.2041625976562</v>
+      </c>
+      <c r="MX2" t="n">
+        <v>421.8434448242188</v>
+      </c>
+      <c r="MY2" t="n">
+        <v>424.072998046875</v>
+      </c>
+      <c r="MZ2" t="n">
+        <v>453.4167785644531</v>
+      </c>
+      <c r="NA2" t="n">
+        <v>463.2521362304688</v>
+      </c>
+      <c r="NB2" t="n">
+        <v>506.4270324707031</v>
+      </c>
+      <c r="NC2" t="n">
+        <v>576.9822998046875</v>
+      </c>
+      <c r="ND2" t="n">
+        <v>599.0546264648438</v>
+      </c>
+      <c r="NE2" t="n">
+        <v>596.5462036132812</v>
+      </c>
+      <c r="NF2" t="n">
+        <v>598.3701171875</v>
+      </c>
+      <c r="NG2" t="n">
+        <v>593.1279296875</v>
+      </c>
+      <c r="NH2" t="n">
+        <v>567.8927001953125</v>
+      </c>
+      <c r="NI2" t="n">
+        <v>512.5101928710938</v>
+      </c>
+      <c r="NJ2" t="n">
+        <v>468.6265869140625</v>
+      </c>
+      <c r="NK2" t="n">
+        <v>487.8729858398438</v>
+      </c>
+      <c r="NL2" t="n">
+        <v>461.445068359375</v>
+      </c>
+      <c r="NM2" t="n">
+        <v>506.4403991699219</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>432.5703430175781</v>
+        <v>364.9517822265625</v>
       </c>
       <c r="B3" t="n">
-        <v>417.0207824707031</v>
+        <v>356.1579284667969</v>
       </c>
       <c r="C3" t="n">
-        <v>411.5674438476562</v>
+        <v>352.5925903320312</v>
       </c>
       <c r="D3" t="n">
-        <v>403.4299621582031</v>
+        <v>350.5534057617188</v>
       </c>
       <c r="E3" t="n">
-        <v>400.2998352050781</v>
+        <v>351.1758728027344</v>
       </c>
       <c r="F3" t="n">
-        <v>396.7425231933594</v>
+        <v>349.2298583984375</v>
       </c>
       <c r="G3" t="n">
-        <v>398.5781555175781</v>
+        <v>350.4407958984375</v>
       </c>
       <c r="H3" t="n">
-        <v>400.8392944335938</v>
+        <v>352.3736267089844</v>
       </c>
       <c r="I3" t="n">
-        <v>397.1707458496094</v>
+        <v>352.7742309570312</v>
       </c>
       <c r="J3" t="n">
-        <v>401.48095703125</v>
+        <v>353.7806091308594</v>
       </c>
       <c r="K3" t="n">
-        <v>399.6057434082031</v>
+        <v>358.3218994140625</v>
       </c>
       <c r="L3" t="n">
-        <v>403.9259643554688</v>
+        <v>361.4941101074219</v>
       </c>
       <c r="M3" t="n">
-        <v>400.3356628417969</v>
+        <v>349.4080505371094</v>
       </c>
       <c r="N3" t="n">
-        <v>398.4534606933594</v>
+        <v>344.4695739746094</v>
       </c>
       <c r="O3" t="n">
-        <v>367.8958129882812</v>
+        <v>342.2073974609375</v>
       </c>
       <c r="P3" t="n">
-        <v>357.4828796386719</v>
+        <v>342.9299621582031</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.058837890625</v>
+        <v>343.9978942871094</v>
       </c>
       <c r="R3" t="n">
-        <v>346.906982421875</v>
+        <v>350.7303161621094</v>
       </c>
       <c r="S3" t="n">
-        <v>314.2316284179688</v>
+        <v>354.188720703125</v>
       </c>
       <c r="T3" t="n">
-        <v>312.2080993652344</v>
+        <v>356.16845703125</v>
       </c>
       <c r="U3" t="n">
-        <v>310.2625122070312</v>
+        <v>357.9555969238281</v>
       </c>
       <c r="V3" t="n">
-        <v>308.1848449707031</v>
+        <v>362.4378662109375</v>
       </c>
       <c r="W3" t="n">
-        <v>309.121337890625</v>
+        <v>364.6654357910156</v>
       </c>
       <c r="X3" t="n">
-        <v>310.2857055664062</v>
+        <v>363.8008422851562</v>
       </c>
       <c r="Y3" t="n">
-        <v>310.2372131347656</v>
+        <v>360.6390686035156</v>
       </c>
       <c r="Z3" t="n">
-        <v>309.5052795410156</v>
+        <v>360.5761413574219</v>
       </c>
       <c r="AA3" t="n">
-        <v>310.0689697265625</v>
+        <v>369.7706604003906</v>
       </c>
       <c r="AB3" t="n">
-        <v>308.05224609375</v>
+        <v>375.8403625488281</v>
       </c>
       <c r="AC3" t="n">
-        <v>304.4551086425781</v>
+        <v>378.5503234863281</v>
       </c>
       <c r="AD3" t="n">
-        <v>302.7902526855469</v>
+        <v>379.9706726074219</v>
       </c>
       <c r="AE3" t="n">
-        <v>301.7372741699219</v>
+        <v>377.9806823730469</v>
       </c>
       <c r="AF3" t="n">
-        <v>298.5796813964844</v>
+        <v>376.3499450683594</v>
       </c>
       <c r="AG3" t="n">
-        <v>295.7050170898438</v>
+        <v>375.4369201660156</v>
       </c>
       <c r="AH3" t="n">
-        <v>289.4220581054688</v>
+        <v>371.3003540039062</v>
       </c>
       <c r="AI3" t="n">
-        <v>288.2521362304688</v>
+        <v>364.1439208984375</v>
       </c>
       <c r="AJ3" t="n">
-        <v>287.8531188964844</v>
+        <v>356.953125</v>
       </c>
       <c r="AK3" t="n">
-        <v>285.6343383789062</v>
+        <v>356.4215393066406</v>
       </c>
       <c r="AL3" t="n">
-        <v>285.2298583984375</v>
+        <v>355.5372314453125</v>
       </c>
       <c r="AM3" t="n">
-        <v>286.444091796875</v>
+        <v>355.0715026855469</v>
       </c>
       <c r="AN3" t="n">
-        <v>284.7985229492188</v>
+        <v>355.7884826660156</v>
       </c>
       <c r="AO3" t="n">
-        <v>284.2057800292969</v>
+        <v>357.6798095703125</v>
       </c>
       <c r="AP3" t="n">
-        <v>284.2444152832031</v>
+        <v>357.9392395019531</v>
       </c>
       <c r="AQ3" t="n">
-        <v>286.5797119140625</v>
+        <v>358.4059448242188</v>
       </c>
       <c r="AR3" t="n">
-        <v>289.7536010742188</v>
+        <v>358.3211669921875</v>
       </c>
       <c r="AS3" t="n">
-        <v>288.18505859375</v>
+        <v>357.6250305175781</v>
       </c>
       <c r="AT3" t="n">
-        <v>289.0103454589844</v>
+        <v>358.0288391113281</v>
       </c>
       <c r="AU3" t="n">
-        <v>288.4806823730469</v>
+        <v>360.1214294433594</v>
       </c>
       <c r="AV3" t="n">
-        <v>284.7240600585938</v>
+        <v>363.4793090820312</v>
       </c>
       <c r="AW3" t="n">
-        <v>284.9091796875</v>
+        <v>364.9714050292969</v>
       </c>
       <c r="AX3" t="n">
-        <v>284.8703308105469</v>
+        <v>363.8963317871094</v>
       </c>
       <c r="AY3" t="n">
-        <v>286.800048828125</v>
+        <v>364.9964904785156</v>
       </c>
       <c r="AZ3" t="n">
-        <v>283.5570983886719</v>
+        <v>360.3628845214844</v>
       </c>
       <c r="BA3" t="n">
-        <v>278.6922912597656</v>
+        <v>345.7684936523438</v>
       </c>
       <c r="BB3" t="n">
-        <v>281.8387451171875</v>
+        <v>324.9963989257812</v>
       </c>
       <c r="BC3" t="n">
-        <v>279.8817749023438</v>
+        <v>306.6512756347656</v>
       </c>
       <c r="BD3" t="n">
-        <v>282.4914245605469</v>
+        <v>288.3009643554688</v>
       </c>
       <c r="BE3" t="n">
-        <v>278.3423156738281</v>
+        <v>266.4041442871094</v>
       </c>
       <c r="BF3" t="n">
-        <v>278.3911437988281</v>
+        <v>243.5753326416016</v>
       </c>
       <c r="BG3" t="n">
-        <v>279.8302917480469</v>
+        <v>226.2248687744141</v>
       </c>
       <c r="BH3" t="n">
-        <v>283.5097045898438</v>
+        <v>214.9921264648438</v>
       </c>
       <c r="BI3" t="n">
-        <v>282.5563659667969</v>
+        <v>207.1273956298828</v>
       </c>
       <c r="BJ3" t="n">
-        <v>285.2838745117188</v>
+        <v>203.0993804931641</v>
       </c>
       <c r="BK3" t="n">
-        <v>288.1326904296875</v>
+        <v>198.2088928222656</v>
       </c>
       <c r="BL3" t="n">
-        <v>289.5335693359375</v>
+        <v>196.1415100097656</v>
       </c>
       <c r="BM3" t="n">
-        <v>283.8222045898438</v>
+        <v>194.8009033203125</v>
       </c>
       <c r="BN3" t="n">
-        <v>280.9129638671875</v>
+        <v>192.6244201660156</v>
       </c>
       <c r="BO3" t="n">
-        <v>278.5810241699219</v>
+        <v>186.7250823974609</v>
       </c>
       <c r="BP3" t="n">
-        <v>277.6057434082031</v>
+        <v>184.313232421875</v>
       </c>
       <c r="BQ3" t="n">
-        <v>277.6218566894531</v>
+        <v>182.6347503662109</v>
       </c>
       <c r="BR3" t="n">
-        <v>277.2567749023438</v>
+        <v>182.8581085205078</v>
       </c>
       <c r="BS3" t="n">
-        <v>274.0751647949219</v>
+        <v>182.353759765625</v>
       </c>
       <c r="BT3" t="n">
-        <v>272.8796997070312</v>
+        <v>182.5661468505859</v>
       </c>
       <c r="BU3" t="n">
-        <v>274.6413879394531</v>
+        <v>182.2897491455078</v>
       </c>
       <c r="BV3" t="n">
-        <v>271.9043579101562</v>
+        <v>181.6048431396484</v>
       </c>
       <c r="BW3" t="n">
-        <v>275.675048828125</v>
+        <v>180.0860137939453</v>
       </c>
       <c r="BX3" t="n">
-        <v>271.2816467285156</v>
+        <v>177.064208984375</v>
       </c>
       <c r="BY3" t="n">
-        <v>272.4982604980469</v>
+        <v>170.2879333496094</v>
       </c>
       <c r="BZ3" t="n">
-        <v>272.3355407714844</v>
+        <v>168.9093780517578</v>
       </c>
       <c r="CA3" t="n">
-        <v>272.8457641601562</v>
+        <v>167.1248474121094</v>
       </c>
       <c r="CB3" t="n">
-        <v>269.1867980957031</v>
+        <v>165.0625610351562</v>
       </c>
       <c r="CC3" t="n">
-        <v>268.3148498535156</v>
+        <v>164.2672271728516</v>
       </c>
       <c r="CD3" t="n">
-        <v>271.4793395996094</v>
+        <v>164.6365966796875</v>
       </c>
       <c r="CE3" t="n">
-        <v>267.6737670898438</v>
+        <v>162.946044921875</v>
       </c>
       <c r="CF3" t="n">
-        <v>270.9917907714844</v>
+        <v>161.1452026367188</v>
       </c>
       <c r="CG3" t="n">
-        <v>270.532958984375</v>
+        <v>160.0944671630859</v>
       </c>
       <c r="CH3" t="n">
-        <v>270.7192077636719</v>
+        <v>158.4612121582031</v>
       </c>
       <c r="CI3" t="n">
-        <v>266.6239013671875</v>
+        <v>158.6262817382812</v>
       </c>
       <c r="CJ3" t="n">
-        <v>280.6762390136719</v>
+        <v>157.9241027832031</v>
       </c>
       <c r="CK3" t="n">
-        <v>280.7284545898438</v>
+        <v>159.5289764404297</v>
       </c>
       <c r="CL3" t="n">
-        <v>272.5498352050781</v>
+        <v>163.3618011474609</v>
       </c>
       <c r="CM3" t="n">
-        <v>268.0591430664062</v>
+        <v>174.7832641601562</v>
       </c>
       <c r="CN3" t="n">
-        <v>273.8500366210938</v>
+        <v>193.9939270019531</v>
       </c>
       <c r="CO3" t="n">
-        <v>286.3366394042969</v>
+        <v>196.927001953125</v>
       </c>
       <c r="CP3" t="n">
-        <v>287.0009155273438</v>
+        <v>201.9364471435547</v>
       </c>
       <c r="CQ3" t="n">
-        <v>285.9388427734375</v>
+        <v>215.5138244628906</v>
       </c>
       <c r="CR3" t="n">
-        <v>285.7428588867188</v>
+        <v>233.3415222167969</v>
       </c>
       <c r="CS3" t="n">
-        <v>286.2351684570312</v>
+        <v>294.0701599121094</v>
       </c>
       <c r="CT3" t="n">
-        <v>286.415283203125</v>
+        <v>335.3366088867188</v>
       </c>
       <c r="CU3" t="n">
-        <v>284.4282836914062</v>
+        <v>355.4457397460938</v>
       </c>
       <c r="CV3" t="n">
-        <v>282.0484008789062</v>
+        <v>367.1460266113281</v>
       </c>
       <c r="CW3" t="n">
-        <v>285.2203674316406</v>
+        <v>370.6508178710938</v>
       </c>
       <c r="CX3" t="n">
-        <v>280.8536987304688</v>
+        <v>377.0903930664062</v>
       </c>
       <c r="CY3" t="n">
-        <v>279.1444396972656</v>
+        <v>378.0170288085938</v>
       </c>
       <c r="CZ3" t="n">
-        <v>286.0143737792969</v>
+        <v>373.8285522460938</v>
       </c>
       <c r="DA3" t="n">
-        <v>284.8668518066406</v>
+        <v>371.765625</v>
       </c>
       <c r="DB3" t="n">
-        <v>286.57373046875</v>
+        <v>368.6840515136719</v>
       </c>
       <c r="DC3" t="n">
-        <v>284.0108032226562</v>
+        <v>367.5959167480469</v>
       </c>
       <c r="DD3" t="n">
-        <v>282.9254150390625</v>
+        <v>365.3297729492188</v>
       </c>
       <c r="DE3" t="n">
-        <v>282.5336608886719</v>
+        <v>364.4067077636719</v>
       </c>
       <c r="DF3" t="n">
-        <v>277.4478149414062</v>
+        <v>366.2234497070312</v>
       </c>
       <c r="DG3" t="n">
-        <v>281.4968566894531</v>
+        <v>366.6288452148438</v>
       </c>
       <c r="DH3" t="n">
-        <v>283.320068359375</v>
+        <v>364.64794921875</v>
       </c>
       <c r="DI3" t="n">
-        <v>286.8992004394531</v>
+        <v>362.308837890625</v>
       </c>
       <c r="DJ3" t="n">
-        <v>283.0243530273438</v>
+        <v>359.9674072265625</v>
       </c>
       <c r="DK3" t="n">
-        <v>284.1348266601562</v>
+        <v>360.3935852050781</v>
       </c>
       <c r="DL3" t="n">
-        <v>284.1755065917969</v>
+        <v>360.5249938964844</v>
       </c>
       <c r="DM3" t="n">
-        <v>283.7889099121094</v>
+        <v>360.4255981445312</v>
       </c>
       <c r="DN3" t="n">
-        <v>282.2754821777344</v>
+        <v>359.1536865234375</v>
       </c>
       <c r="DO3" t="n">
-        <v>278.862548828125</v>
+        <v>358.7691040039062</v>
       </c>
       <c r="DP3" t="n">
-        <v>285.9100646972656</v>
+        <v>357.6709289550781</v>
       </c>
       <c r="DQ3" t="n">
-        <v>288.5180358886719</v>
+        <v>356.7957763671875</v>
       </c>
       <c r="DR3" t="n">
-        <v>285.8487243652344</v>
+        <v>355.9640808105469</v>
       </c>
       <c r="DS3" t="n">
-        <v>283.3658142089844</v>
+        <v>353.9117126464844</v>
       </c>
       <c r="DT3" t="n">
-        <v>283.9222717285156</v>
+        <v>351.472900390625</v>
       </c>
       <c r="DU3" t="n">
-        <v>281.2470092773438</v>
+        <v>350.569091796875</v>
       </c>
       <c r="DV3" t="n">
-        <v>281.4117126464844</v>
+        <v>350.13037109375</v>
       </c>
       <c r="DW3" t="n">
-        <v>281.5710754394531</v>
+        <v>351.8070068359375</v>
       </c>
       <c r="DX3" t="n">
-        <v>282.3165893554688</v>
+        <v>353.9024353027344</v>
       </c>
       <c r="DY3" t="n">
-        <v>282.6163940429688</v>
+        <v>358.2293090820312</v>
       </c>
       <c r="DZ3" t="n">
-        <v>282.0462341308594</v>
+        <v>366.3047485351562</v>
       </c>
       <c r="EA3" t="n">
-        <v>283.0811462402344</v>
+        <v>366.5531921386719</v>
       </c>
       <c r="EB3" t="n">
-        <v>283.6167602539062</v>
+        <v>370.2506408691406</v>
       </c>
       <c r="EC3" t="n">
-        <v>282.810302734375</v>
+        <v>373.771484375</v>
       </c>
       <c r="ED3" t="n">
-        <v>283.8588562011719</v>
+        <v>374.8339538574219</v>
       </c>
       <c r="EE3" t="n">
-        <v>283.1889038085938</v>
+        <v>373.0898742675781</v>
       </c>
       <c r="EF3" t="n">
-        <v>283.3153381347656</v>
+        <v>379.5497131347656</v>
       </c>
       <c r="EG3" t="n">
-        <v>286.2748413085938</v>
+        <v>380.9724426269531</v>
       </c>
       <c r="EH3" t="n">
-        <v>286.8417358398438</v>
+        <v>381.4532165527344</v>
       </c>
       <c r="EI3" t="n">
-        <v>250.4209289550781</v>
+        <v>379.0974731445312</v>
       </c>
       <c r="EJ3" t="n">
-        <v>246.4002532958984</v>
+        <v>379.75927734375</v>
       </c>
       <c r="EK3" t="n">
-        <v>247.5236663818359</v>
+        <v>378.6922607421875</v>
       </c>
       <c r="EL3" t="n">
-        <v>251.6818695068359</v>
+        <v>375.7765197753906</v>
       </c>
       <c r="EM3" t="n">
-        <v>247.4832305908203</v>
+        <v>371.2169494628906</v>
       </c>
       <c r="EN3" t="n">
-        <v>245.1655426025391</v>
+        <v>369.0669860839844</v>
       </c>
       <c r="EO3" t="n">
-        <v>245.3270568847656</v>
+        <v>366.2369384765625</v>
       </c>
       <c r="EP3" t="n">
-        <v>242.5118865966797</v>
+        <v>365.2691955566406</v>
       </c>
       <c r="EQ3" t="n">
-        <v>271.0823669433594</v>
+        <v>369.5726623535156</v>
       </c>
       <c r="ER3" t="n">
-        <v>268.2164611816406</v>
+        <v>369.0313110351562</v>
       </c>
       <c r="ES3" t="n">
-        <v>270.3514404296875</v>
+        <v>367.9827880859375</v>
       </c>
       <c r="ET3" t="n">
-        <v>272.9528198242188</v>
+        <v>373.9069213867188</v>
       </c>
       <c r="EU3" t="n">
-        <v>275.9311828613281</v>
+        <v>375.6383056640625</v>
       </c>
       <c r="EV3" t="n">
-        <v>272.2235412597656</v>
+        <v>371.9090576171875</v>
       </c>
       <c r="EW3" t="n">
-        <v>268.723876953125</v>
+        <v>365.263916015625</v>
       </c>
       <c r="EX3" t="n">
-        <v>276.2687377929688</v>
+        <v>363.0778503417969</v>
       </c>
       <c r="EY3" t="n">
-        <v>282.3880920410156</v>
+        <v>361.2332763671875</v>
       </c>
       <c r="EZ3" t="n">
-        <v>282.341796875</v>
+        <v>360.9363403320312</v>
       </c>
       <c r="FA3" t="n">
-        <v>279.94384765625</v>
+        <v>362.2020874023438</v>
       </c>
       <c r="FB3" t="n">
-        <v>278.4529418945312</v>
+        <v>364.6249084472656</v>
       </c>
       <c r="FC3" t="n">
-        <v>283.3813781738281</v>
+        <v>364.6736450195312</v>
       </c>
       <c r="FD3" t="n">
-        <v>282.6483764648438</v>
+        <v>365.3389587402344</v>
       </c>
       <c r="FE3" t="n">
-        <v>281.0279541015625</v>
+        <v>365.9966735839844</v>
       </c>
       <c r="FF3" t="n">
-        <v>282.0306396484375</v>
+        <v>362.6321411132812</v>
       </c>
       <c r="FG3" t="n">
-        <v>281.9945068359375</v>
+        <v>356.0339660644531</v>
       </c>
       <c r="FH3" t="n">
-        <v>284.5623779296875</v>
+        <v>354.0527954101562</v>
       </c>
       <c r="FI3" t="n">
-        <v>284.5022888183594</v>
+        <v>347.7089538574219</v>
       </c>
       <c r="FJ3" t="n">
-        <v>287.1505126953125</v>
+        <v>345.3402404785156</v>
       </c>
       <c r="FK3" t="n">
-        <v>286.34326171875</v>
+        <v>348.0383605957031</v>
       </c>
       <c r="FL3" t="n">
-        <v>284.9185180664062</v>
+        <v>348.8880310058594</v>
       </c>
       <c r="FM3" t="n">
-        <v>286.7981262207031</v>
+        <v>338.9075317382812</v>
       </c>
       <c r="FN3" t="n">
-        <v>280.7001953125</v>
+        <v>345.9085388183594</v>
       </c>
       <c r="FO3" t="n">
-        <v>280.746337890625</v>
+        <v>346.7991333007812</v>
       </c>
       <c r="FP3" t="n">
-        <v>290.3856201171875</v>
+        <v>349.5097351074219</v>
       </c>
       <c r="FQ3" t="n">
-        <v>294.4378662109375</v>
+        <v>357.2248840332031</v>
       </c>
       <c r="FR3" t="n">
-        <v>293.3402099609375</v>
+        <v>359.1714782714844</v>
       </c>
       <c r="FS3" t="n">
-        <v>281.89453125</v>
+        <v>363.1028747558594</v>
       </c>
       <c r="FT3" t="n">
-        <v>287.24951171875</v>
+        <v>362.9637145996094</v>
       </c>
       <c r="FU3" t="n">
-        <v>283.558837890625</v>
+        <v>363.1058044433594</v>
       </c>
       <c r="FV3" t="n">
-        <v>286.7942810058594</v>
+        <v>362.5220947265625</v>
       </c>
       <c r="FW3" t="n">
-        <v>283.7911376953125</v>
+        <v>361.220458984375</v>
       </c>
       <c r="FX3" t="n">
-        <v>285.623779296875</v>
+        <v>360.5496215820312</v>
       </c>
       <c r="FY3" t="n">
-        <v>285.0326843261719</v>
+        <v>359.094482421875</v>
       </c>
       <c r="FZ3" t="n">
-        <v>286.6699829101562</v>
+        <v>356.0967712402344</v>
       </c>
       <c r="GA3" t="n">
-        <v>286.5895080566406</v>
+        <v>353.7284851074219</v>
       </c>
       <c r="GB3" t="n">
-        <v>286.3472290039062</v>
+        <v>356.4621887207031</v>
       </c>
       <c r="GC3" t="n">
-        <v>264.985107421875</v>
+        <v>356.8994750976562</v>
       </c>
       <c r="GD3" t="n">
-        <v>265.6679077148438</v>
+        <v>358.3605041503906</v>
       </c>
       <c r="GE3" t="n">
-        <v>267.3402709960938</v>
+        <v>358.4986877441406</v>
       </c>
       <c r="GF3" t="n">
-        <v>267.5550231933594</v>
+        <v>358.6261901855469</v>
       </c>
       <c r="GG3" t="n">
-        <v>262.7248840332031</v>
+        <v>360.7643737792969</v>
       </c>
       <c r="GH3" t="n">
-        <v>263.3200073242188</v>
+        <v>361.5135192871094</v>
       </c>
       <c r="GI3" t="n">
-        <v>267.5662536621094</v>
+        <v>361.7455749511719</v>
       </c>
       <c r="GJ3" t="n">
-        <v>254.6589965820312</v>
+        <v>364.5049438476562</v>
       </c>
       <c r="GK3" t="n">
-        <v>247.9500427246094</v>
+        <v>361.9464721679688</v>
       </c>
       <c r="GL3" t="n">
-        <v>228.0668487548828</v>
+        <v>358.5965576171875</v>
       </c>
       <c r="GM3" t="n">
-        <v>220.4736328125</v>
+        <v>358.355712890625</v>
       </c>
       <c r="GN3" t="n">
-        <v>219.06640625</v>
+        <v>358.6174926757812</v>
       </c>
       <c r="GO3" t="n">
-        <v>214.4591217041016</v>
+        <v>358.2796325683594</v>
       </c>
       <c r="GP3" t="n">
-        <v>212.7105407714844</v>
+        <v>359.2737121582031</v>
       </c>
       <c r="GQ3" t="n">
-        <v>212.0155792236328</v>
+        <v>356.9555969238281</v>
       </c>
       <c r="GR3" t="n">
-        <v>210.9979400634766</v>
+        <v>356.7442932128906</v>
       </c>
       <c r="GS3" t="n">
-        <v>209.1048431396484</v>
+        <v>353.9075622558594</v>
       </c>
       <c r="GT3" t="n">
-        <v>208.4767761230469</v>
+        <v>352.5104370117188</v>
       </c>
       <c r="GU3" t="n">
-        <v>205.6143646240234</v>
+        <v>346.0327758789062</v>
       </c>
       <c r="GV3" t="n">
-        <v>204.9613800048828</v>
+        <v>349.6239624023438</v>
       </c>
       <c r="GW3" t="n">
-        <v>204.2940521240234</v>
+        <v>351.4128723144531</v>
       </c>
       <c r="GX3" t="n">
-        <v>211.0102844238281</v>
+        <v>348.1758728027344</v>
       </c>
       <c r="GY3" t="n">
-        <v>213.9663391113281</v>
+        <v>347.2144165039062</v>
       </c>
       <c r="GZ3" t="n">
-        <v>217.5831451416016</v>
+        <v>346.8243408203125</v>
       </c>
       <c r="HA3" t="n">
-        <v>235.0447082519531</v>
+        <v>346.5928039550781</v>
       </c>
       <c r="HB3" t="n">
-        <v>270.4877014160156</v>
+        <v>347.12109375</v>
       </c>
       <c r="HC3" t="n">
-        <v>271.871337890625</v>
+        <v>342.0972900390625</v>
       </c>
       <c r="HD3" t="n">
-        <v>254.8570556640625</v>
+        <v>335.8314819335938</v>
       </c>
       <c r="HE3" t="n">
-        <v>255.18212890625</v>
+        <v>338.5852355957031</v>
       </c>
       <c r="HF3" t="n">
-        <v>254.4725646972656</v>
+        <v>339.4243469238281</v>
       </c>
       <c r="HG3" t="n">
-        <v>250.0036773681641</v>
+        <v>255.1201019287109</v>
       </c>
       <c r="HH3" t="n">
-        <v>227.9690704345703</v>
+        <v>336.6107177734375</v>
       </c>
       <c r="HI3" t="n">
-        <v>231.3965148925781</v>
+        <v>348.0801086425781</v>
       </c>
       <c r="HJ3" t="n">
-        <v>237.4590606689453</v>
+        <v>349.45849609375</v>
       </c>
       <c r="HK3" t="n">
-        <v>238.7941436767578</v>
+        <v>349.3466186523438</v>
       </c>
       <c r="HL3" t="n">
-        <v>237.2431335449219</v>
+        <v>348.24560546875</v>
       </c>
       <c r="HM3" t="n">
-        <v>236.0401458740234</v>
+        <v>349.5411071777344</v>
       </c>
       <c r="HN3" t="n">
-        <v>239.1009521484375</v>
+        <v>356.9788513183594</v>
       </c>
       <c r="HO3" t="n">
-        <v>246.2434387207031</v>
+        <v>358.0945434570312</v>
       </c>
       <c r="HP3" t="n">
-        <v>255.6506042480469</v>
+        <v>359.3387145996094</v>
       </c>
       <c r="HQ3" t="n">
-        <v>255.4229125976562</v>
+        <v>358.6828308105469</v>
       </c>
       <c r="HR3" t="n">
-        <v>256.3904418945312</v>
+        <v>359.1165771484375</v>
       </c>
       <c r="HS3" t="n">
-        <v>256.5990600585938</v>
+        <v>358.4644775390625</v>
       </c>
       <c r="HT3" t="n">
-        <v>252.4377746582031</v>
+        <v>357.7117614746094</v>
       </c>
       <c r="HU3" t="n">
-        <v>249.0654296875</v>
+        <v>358.4116821289062</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>356.6926879882812</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>358.5253601074219</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>362.1804504394531</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>364.9714965820312</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>369.5596313476562</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>368.8806762695312</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>369.31640625</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>369.7247314453125</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>371.5053100585938</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>370.7034301757812</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>369.4942016601562</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>370.3929748535156</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>369.3516235351562</v>
+      </c>
+      <c r="II3" t="n">
+        <v>369.7254943847656</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>368.8447570800781</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>368.3656311035156</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>366.8683776855469</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>366.376708984375</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>367.7882385253906</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>365.9602966308594</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>365.4551391601562</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>362.7516479492188</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>358.3792419433594</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>357.7489929199219</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>354.1210327148438</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>354.2868347167969</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>353.0391540527344</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>352.4305725097656</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>349.9009704589844</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>347.0569152832031</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>346.0350341796875</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>345.5787353515625</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>347.3976135253906</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>351.7313537597656</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>352.0240783691406</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>351.0530700683594</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>349.8003234863281</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>354.9971923828125</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>359.3991088867188</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>356.1785278320312</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>357.5592346191406</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>356.3485717773438</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>350.632568359375</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>356.3030395507812</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>357.1372985839844</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>358.0018615722656</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>358.2283935546875</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>357.670166015625</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>359.140380859375</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>360.1569519042969</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>360.4176330566406</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>360.9194946289062</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>361.4847717285156</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>362.5857849121094</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>363.6310729980469</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>364.1909484863281</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>364.0108947753906</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>361.0874328613281</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>352.6120910644531</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>332.6201171875</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>309.0349426269531</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>269.2727661132812</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>255.3951873779297</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>239.2039947509766</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>233.1513366699219</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>234.3516540527344</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>247.3842163085938</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>257.9190063476562</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>270.2536926269531</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>284.3200378417969</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>300.6094665527344</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>314.5357971191406</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>336.6064758300781</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>355.2319641113281</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>359.3706359863281</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>361.9925537109375</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>363.0494384765625</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>362.0753479003906</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>362.7115478515625</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>362.5566711425781</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>361.5306701660156</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>362.7754211425781</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>360.0810241699219</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>361.0801086425781</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>360.6067504882812</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>361.1666564941406</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>362.1095581054688</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>362.0409851074219</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>365.4274597167969</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>367.9004821777344</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>368.6450805664062</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>368.9951171875</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>370.2693176269531</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>369.5445556640625</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>369.5425720214844</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>368.8350524902344</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>367.4998474121094</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>369.9034423828125</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>374.0366821289062</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>383.1828308105469</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>398.5277709960938</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>407.99609375</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>394.4841003417969</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>397.2386169433594</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>428.4511413574219</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>411.2490234375</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>442.7401123046875</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>453.7603454589844</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>444.5311279296875</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>444.3988342285156</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>443.4739074707031</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>445.1842651367188</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>433.7827453613281</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>422.1691589355469</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>417.0494995117188</v>
+      </c>
+      <c r="MG3" t="n">
+        <v>437.04541015625</v>
+      </c>
+      <c r="MH3" t="n">
+        <v>454.83740234375</v>
+      </c>
+      <c r="MI3" t="n">
+        <v>460.9823913574219</v>
+      </c>
+      <c r="MJ3" t="n">
+        <v>474.2619934082031</v>
+      </c>
+      <c r="MK3" t="n">
+        <v>463.0042419433594</v>
+      </c>
+      <c r="ML3" t="n">
+        <v>439.9802551269531</v>
+      </c>
+      <c r="MM3" t="n">
+        <v>363.8619079589844</v>
+      </c>
+      <c r="MN3" t="n">
+        <v>381.8605041503906</v>
+      </c>
+      <c r="MO3" t="n">
+        <v>401.5109252929688</v>
+      </c>
+      <c r="MP3" t="n">
+        <v>486.2822265625</v>
+      </c>
+      <c r="MQ3" t="n">
+        <v>492.2218933105469</v>
+      </c>
+      <c r="MR3" t="n">
+        <v>374.2441101074219</v>
+      </c>
+      <c r="MS3" t="n">
+        <v>279.0672912597656</v>
+      </c>
+      <c r="MT3" t="n">
+        <v>698.3303833007812</v>
+      </c>
+      <c r="MU3" t="n">
+        <v>375.7589721679688</v>
+      </c>
+      <c r="MV3" t="n">
+        <v>327.8240661621094</v>
+      </c>
+      <c r="MW3" t="n">
+        <v>285.9134521484375</v>
+      </c>
+      <c r="MX3" t="n">
+        <v>225.1432647705078</v>
+      </c>
+      <c r="MY3" t="n">
+        <v>276.0995483398438</v>
+      </c>
+      <c r="MZ3" t="n">
+        <v>332.6570739746094</v>
+      </c>
+      <c r="NA3" t="n">
+        <v>352.4579467773438</v>
+      </c>
+      <c r="NB3" t="n">
+        <v>421.7674865722656</v>
+      </c>
+      <c r="NC3" t="n">
+        <v>562.6409301757812</v>
+      </c>
+      <c r="ND3" t="n">
+        <v>619.474365234375</v>
+      </c>
+      <c r="NE3" t="n">
+        <v>626.4850463867188</v>
+      </c>
+      <c r="NF3" t="n">
+        <v>623.0558471679688</v>
+      </c>
+      <c r="NG3" t="n">
+        <v>623.0634765625</v>
+      </c>
+      <c r="NH3" t="n">
+        <v>585.8621826171875</v>
+      </c>
+      <c r="NI3" t="n">
+        <v>526.4439697265625</v>
+      </c>
+      <c r="NJ3" t="n">
+        <v>461.7834167480469</v>
+      </c>
+      <c r="NK3" t="n">
+        <v>457.2069702148438</v>
+      </c>
+      <c r="NL3" t="n">
+        <v>438.2623291015625</v>
+      </c>
+      <c r="NM3" t="n">
+        <v>471.8317260742188</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>954.2735595703125</v>
+        <v>997.808837890625</v>
       </c>
       <c r="B4" t="n">
-        <v>969.1890258789062</v>
+        <v>1020.5283203125</v>
       </c>
       <c r="C4" t="n">
-        <v>985.8704223632812</v>
+        <v>1031.765869140625</v>
       </c>
       <c r="D4" t="n">
-        <v>1010.965881347656</v>
+        <v>1032.4267578125</v>
       </c>
       <c r="E4" t="n">
-        <v>1021.399963378906</v>
+        <v>1025.263916015625</v>
       </c>
       <c r="F4" t="n">
-        <v>1054.7529296875</v>
+        <v>1010.829345703125</v>
       </c>
       <c r="G4" t="n">
-        <v>1063.512573242188</v>
+        <v>1005.67041015625</v>
       </c>
       <c r="H4" t="n">
-        <v>1099.898315429688</v>
+        <v>1008.569580078125</v>
       </c>
       <c r="I4" t="n">
-        <v>1124.745361328125</v>
+        <v>1010.093566894531</v>
       </c>
       <c r="J4" t="n">
-        <v>1164.328369140625</v>
+        <v>1007.075622558594</v>
       </c>
       <c r="K4" t="n">
-        <v>1178.4052734375</v>
+        <v>999.0570068359375</v>
       </c>
       <c r="L4" t="n">
-        <v>1224.52001953125</v>
+        <v>992.1766967773438</v>
       </c>
       <c r="M4" t="n">
-        <v>1236.489868164062</v>
+        <v>996.3233642578125</v>
       </c>
       <c r="N4" t="n">
-        <v>1292.8525390625</v>
+        <v>1001.32861328125</v>
       </c>
       <c r="O4" t="n">
-        <v>1333.629638671875</v>
+        <v>1033.472412109375</v>
       </c>
       <c r="P4" t="n">
-        <v>1367.5087890625</v>
+        <v>1049.936401367188</v>
       </c>
       <c r="Q4" t="n">
-        <v>1407.606201171875</v>
+        <v>1067.138793945312</v>
       </c>
       <c r="R4" t="n">
-        <v>1443.559814453125</v>
+        <v>1084.883544921875</v>
       </c>
       <c r="S4" t="n">
-        <v>1377.735961914062</v>
+        <v>1101.820434570312</v>
       </c>
       <c r="T4" t="n">
-        <v>1401.754150390625</v>
+        <v>1123.9296875</v>
       </c>
       <c r="U4" t="n">
-        <v>1442.572265625</v>
+        <v>1132.163452148438</v>
       </c>
       <c r="V4" t="n">
-        <v>1486.063842773438</v>
+        <v>1118.528564453125</v>
       </c>
       <c r="W4" t="n">
-        <v>1526.8671875</v>
+        <v>1102.857055664062</v>
       </c>
       <c r="X4" t="n">
-        <v>1567.834350585938</v>
+        <v>1092.563110351562</v>
       </c>
       <c r="Y4" t="n">
-        <v>1602.493774414062</v>
+        <v>1079.8125</v>
       </c>
       <c r="Z4" t="n">
-        <v>1645.915283203125</v>
+        <v>1080.741455078125</v>
       </c>
       <c r="AA4" t="n">
-        <v>1683.339477539062</v>
+        <v>1085.8974609375</v>
       </c>
       <c r="AB4" t="n">
-        <v>1726.02734375</v>
+        <v>1104.196044921875</v>
       </c>
       <c r="AC4" t="n">
-        <v>1777.589721679688</v>
+        <v>1121.681640625</v>
       </c>
       <c r="AD4" t="n">
-        <v>1822.30419921875</v>
+        <v>1145.416748046875</v>
       </c>
       <c r="AE4" t="n">
-        <v>1871.569213867188</v>
+        <v>1172.961181640625</v>
       </c>
       <c r="AF4" t="n">
-        <v>1914.312866210938</v>
+        <v>1199.837768554688</v>
       </c>
       <c r="AG4" t="n">
-        <v>1931.096557617188</v>
+        <v>1219.862915039062</v>
       </c>
       <c r="AH4" t="n">
-        <v>1964.60302734375</v>
+        <v>1252.963134765625</v>
       </c>
       <c r="AI4" t="n">
-        <v>1986.437133789062</v>
+        <v>1276.219360351562</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2002.822631835938</v>
+        <v>1283.592529296875</v>
       </c>
       <c r="AK4" t="n">
-        <v>2015.097900390625</v>
+        <v>1293.167846679688</v>
       </c>
       <c r="AL4" t="n">
-        <v>2035.619140625</v>
+        <v>1304.757446289062</v>
       </c>
       <c r="AM4" t="n">
-        <v>2048.36962890625</v>
+        <v>1302.195190429688</v>
       </c>
       <c r="AN4" t="n">
-        <v>2091.885986328125</v>
+        <v>1312.236206054688</v>
       </c>
       <c r="AO4" t="n">
-        <v>2140.4521484375</v>
+        <v>1331.159301757812</v>
       </c>
       <c r="AP4" t="n">
-        <v>2177.16357421875</v>
+        <v>1338.621337890625</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2210.13671875</v>
+        <v>1349.841552734375</v>
       </c>
       <c r="AR4" t="n">
-        <v>2256.5380859375</v>
+        <v>1361.340087890625</v>
       </c>
       <c r="AS4" t="n">
-        <v>2280.58544921875</v>
+        <v>1366.359375</v>
       </c>
       <c r="AT4" t="n">
-        <v>2314.125732421875</v>
+        <v>1363.2666015625</v>
       </c>
       <c r="AU4" t="n">
-        <v>2337.13427734375</v>
+        <v>1353.578735351562</v>
       </c>
       <c r="AV4" t="n">
-        <v>2403.53564453125</v>
+        <v>1316.85498046875</v>
       </c>
       <c r="AW4" t="n">
-        <v>2443.745849609375</v>
+        <v>1277.630737304688</v>
       </c>
       <c r="AX4" t="n">
-        <v>2510.232177734375</v>
+        <v>1246.074340820312</v>
       </c>
       <c r="AY4" t="n">
-        <v>2557.822265625</v>
+        <v>1219.453002929688</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2612.607666015625</v>
+        <v>1177.397338867188</v>
       </c>
       <c r="BA4" t="n">
-        <v>2661.134033203125</v>
+        <v>1141.293090820312</v>
       </c>
       <c r="BB4" t="n">
-        <v>2697.950927734375</v>
+        <v>1117.2783203125</v>
       </c>
       <c r="BC4" t="n">
-        <v>2736.670654296875</v>
+        <v>1104.549072265625</v>
       </c>
       <c r="BD4" t="n">
-        <v>2760.1923828125</v>
+        <v>1095.80908203125</v>
       </c>
       <c r="BE4" t="n">
-        <v>2805.544677734375</v>
+        <v>1087.756713867188</v>
       </c>
       <c r="BF4" t="n">
-        <v>2836.501953125</v>
+        <v>1077.70458984375</v>
       </c>
       <c r="BG4" t="n">
-        <v>2861.404296875</v>
+        <v>1078.3857421875</v>
       </c>
       <c r="BH4" t="n">
-        <v>2877.35693359375</v>
+        <v>1078.57470703125</v>
       </c>
       <c r="BI4" t="n">
-        <v>2917.748291015625</v>
+        <v>1071.49169921875</v>
       </c>
       <c r="BJ4" t="n">
-        <v>2982.7080078125</v>
+        <v>1065.563720703125</v>
       </c>
       <c r="BK4" t="n">
-        <v>3010.770263671875</v>
+        <v>1067.538330078125</v>
       </c>
       <c r="BL4" t="n">
-        <v>3044.12451171875</v>
+        <v>1073.85986328125</v>
       </c>
       <c r="BM4" t="n">
-        <v>3066.931884765625</v>
+        <v>1083.50634765625</v>
       </c>
       <c r="BN4" t="n">
-        <v>3090.932861328125</v>
+        <v>1085.043701171875</v>
       </c>
       <c r="BO4" t="n">
-        <v>3109.385009765625</v>
+        <v>1076.29833984375</v>
       </c>
       <c r="BP4" t="n">
-        <v>3140.168212890625</v>
+        <v>1071.0234375</v>
       </c>
       <c r="BQ4" t="n">
-        <v>3119.5986328125</v>
+        <v>1069.74365234375</v>
       </c>
       <c r="BR4" t="n">
-        <v>3153.1611328125</v>
+        <v>1069.673828125</v>
       </c>
       <c r="BS4" t="n">
-        <v>3139.20556640625</v>
+        <v>1067.8154296875</v>
       </c>
       <c r="BT4" t="n">
-        <v>3140.977294921875</v>
+        <v>1069.310791015625</v>
       </c>
       <c r="BU4" t="n">
-        <v>3164.202392578125</v>
+        <v>1070.386962890625</v>
       </c>
       <c r="BV4" t="n">
-        <v>3183.162841796875</v>
+        <v>1071.405517578125</v>
       </c>
       <c r="BW4" t="n">
-        <v>3192.474365234375</v>
+        <v>1071.763916015625</v>
       </c>
       <c r="BX4" t="n">
-        <v>3194.531494140625</v>
+        <v>1072.223022460938</v>
       </c>
       <c r="BY4" t="n">
-        <v>3169.47021484375</v>
+        <v>1072.4248046875</v>
       </c>
       <c r="BZ4" t="n">
-        <v>3184.55078125</v>
+        <v>1070.704711914062</v>
       </c>
       <c r="CA4" t="n">
-        <v>3202.4873046875</v>
+        <v>1068.093994140625</v>
       </c>
       <c r="CB4" t="n">
-        <v>3283.51123046875</v>
+        <v>1065.630981445312</v>
       </c>
       <c r="CC4" t="n">
-        <v>3336.5634765625</v>
+        <v>1062.869995117188</v>
       </c>
       <c r="CD4" t="n">
-        <v>3351.72900390625</v>
+        <v>1065.095825195312</v>
       </c>
       <c r="CE4" t="n">
-        <v>3410.129150390625</v>
+        <v>1060.902587890625</v>
       </c>
       <c r="CF4" t="n">
-        <v>3413.716064453125</v>
+        <v>1054.891845703125</v>
       </c>
       <c r="CG4" t="n">
-        <v>3437.7109375</v>
+        <v>1051.729614257812</v>
       </c>
       <c r="CH4" t="n">
-        <v>3440.19140625</v>
+        <v>1048.06396484375</v>
       </c>
       <c r="CI4" t="n">
-        <v>3510.25830078125</v>
+        <v>1047.781005859375</v>
       </c>
       <c r="CJ4" t="n">
-        <v>3421.58154296875</v>
+        <v>1044.421630859375</v>
       </c>
       <c r="CK4" t="n">
-        <v>3469.64453125</v>
+        <v>1043.894287109375</v>
       </c>
       <c r="CL4" t="n">
-        <v>3538.7314453125</v>
+        <v>1037.793701171875</v>
       </c>
       <c r="CM4" t="n">
-        <v>3551.680908203125</v>
+        <v>1029.522216796875</v>
       </c>
       <c r="CN4" t="n">
-        <v>3486.24560546875</v>
+        <v>1021.237060546875</v>
       </c>
       <c r="CO4" t="n">
-        <v>3637.701904296875</v>
+        <v>1010.683471679688</v>
       </c>
       <c r="CP4" t="n">
-        <v>3640.732177734375</v>
+        <v>983.402099609375</v>
       </c>
       <c r="CQ4" t="n">
-        <v>3671.3310546875</v>
+        <v>961.10693359375</v>
       </c>
       <c r="CR4" t="n">
-        <v>3675.56201171875</v>
+        <v>949.7673950195312</v>
       </c>
       <c r="CS4" t="n">
-        <v>3682.769287109375</v>
+        <v>932.4855346679688</v>
       </c>
       <c r="CT4" t="n">
-        <v>3713.80908203125</v>
+        <v>925.8244018554688</v>
       </c>
       <c r="CU4" t="n">
-        <v>3759.731689453125</v>
+        <v>940.07568359375</v>
       </c>
       <c r="CV4" t="n">
-        <v>3795.861328125</v>
+        <v>950.3599853515625</v>
       </c>
       <c r="CW4" t="n">
-        <v>3767.96630859375</v>
+        <v>970.3463745117188</v>
       </c>
       <c r="CX4" t="n">
-        <v>3788.073974609375</v>
+        <v>1020.405029296875</v>
       </c>
       <c r="CY4" t="n">
-        <v>3807.329345703125</v>
+        <v>1035.059936523438</v>
       </c>
       <c r="CZ4" t="n">
-        <v>3719.103759765625</v>
+        <v>1075.421142578125</v>
       </c>
       <c r="DA4" t="n">
-        <v>3690.65478515625</v>
+        <v>1093.83984375</v>
       </c>
       <c r="DB4" t="n">
-        <v>3680.5185546875</v>
+        <v>1108.744384765625</v>
       </c>
       <c r="DC4" t="n">
-        <v>3723.16552734375</v>
+        <v>1117.655883789062</v>
       </c>
       <c r="DD4" t="n">
-        <v>3757.925537109375</v>
+        <v>1133.852905273438</v>
       </c>
       <c r="DE4" t="n">
-        <v>3744.18603515625</v>
+        <v>1144.328125</v>
       </c>
       <c r="DF4" t="n">
-        <v>3586.942626953125</v>
+        <v>1142.284545898438</v>
       </c>
       <c r="DG4" t="n">
-        <v>3593.0361328125</v>
+        <v>1138.489624023438</v>
       </c>
       <c r="DH4" t="n">
-        <v>3604.568115234375</v>
+        <v>1114.632446289062</v>
       </c>
       <c r="DI4" t="n">
-        <v>3615.795654296875</v>
+        <v>1108.537353515625</v>
       </c>
       <c r="DJ4" t="n">
-        <v>3738.09912109375</v>
+        <v>1101.583251953125</v>
       </c>
       <c r="DK4" t="n">
-        <v>3593.857666015625</v>
+        <v>1098.726440429688</v>
       </c>
       <c r="DL4" t="n">
-        <v>3666.29638671875</v>
+        <v>1098.8310546875</v>
       </c>
       <c r="DM4" t="n">
-        <v>3656.252685546875</v>
+        <v>1102.252319335938</v>
       </c>
       <c r="DN4" t="n">
-        <v>3569.9921875</v>
+        <v>1101.799194335938</v>
       </c>
       <c r="DO4" t="n">
-        <v>3766.504150390625</v>
+        <v>1096.912841796875</v>
       </c>
       <c r="DP4" t="n">
-        <v>3522.669677734375</v>
+        <v>1091.695556640625</v>
       </c>
       <c r="DQ4" t="n">
-        <v>3580.9765625</v>
+        <v>1082.724487304688</v>
       </c>
       <c r="DR4" t="n">
-        <v>3650.48681640625</v>
+        <v>1078.417358398438</v>
       </c>
       <c r="DS4" t="n">
-        <v>3652.22314453125</v>
+        <v>1077.145874023438</v>
       </c>
       <c r="DT4" t="n">
-        <v>3575.105224609375</v>
+        <v>1067.273559570312</v>
       </c>
       <c r="DU4" t="n">
-        <v>3611.77587890625</v>
+        <v>1056.30615234375</v>
       </c>
       <c r="DV4" t="n">
-        <v>3473.64404296875</v>
+        <v>1056.125610351562</v>
       </c>
       <c r="DW4" t="n">
-        <v>3612.3642578125</v>
+        <v>1054.289672851562</v>
       </c>
       <c r="DX4" t="n">
-        <v>3591.871337890625</v>
+        <v>1054.765502929688</v>
       </c>
       <c r="DY4" t="n">
-        <v>3567.74609375</v>
+        <v>1058.826293945312</v>
       </c>
       <c r="DZ4" t="n">
-        <v>3582.298828125</v>
+        <v>1072.489379882812</v>
       </c>
       <c r="EA4" t="n">
-        <v>3578.726318359375</v>
+        <v>1077.250732421875</v>
       </c>
       <c r="EB4" t="n">
-        <v>3583.63623046875</v>
+        <v>1080.029296875</v>
       </c>
       <c r="EC4" t="n">
-        <v>3612.195556640625</v>
+        <v>1078.571533203125</v>
       </c>
       <c r="ED4" t="n">
-        <v>3556.580078125</v>
+        <v>1082.771606445312</v>
       </c>
       <c r="EE4" t="n">
-        <v>3577.3564453125</v>
+        <v>1107.348388671875</v>
       </c>
       <c r="EF4" t="n">
-        <v>3531.02490234375</v>
+        <v>1115.966430664062</v>
       </c>
       <c r="EG4" t="n">
-        <v>3501.8017578125</v>
+        <v>1141.008911132812</v>
       </c>
       <c r="EH4" t="n">
-        <v>3486.0439453125</v>
+        <v>1161.33251953125</v>
       </c>
       <c r="EI4" t="n">
-        <v>3300.631591796875</v>
+        <v>1185.408813476562</v>
       </c>
       <c r="EJ4" t="n">
-        <v>3270.662841796875</v>
+        <v>1198.6474609375</v>
       </c>
       <c r="EK4" t="n">
-        <v>3254.3173828125</v>
+        <v>1220.832275390625</v>
       </c>
       <c r="EL4" t="n">
-        <v>3269.79736328125</v>
+        <v>1237.861328125</v>
       </c>
       <c r="EM4" t="n">
-        <v>3286.34326171875</v>
+        <v>1263.1357421875</v>
       </c>
       <c r="EN4" t="n">
-        <v>3245.396728515625</v>
+        <v>1274.59521484375</v>
       </c>
       <c r="EO4" t="n">
-        <v>3184.873291015625</v>
+        <v>1296.009765625</v>
       </c>
       <c r="EP4" t="n">
-        <v>3174.261474609375</v>
+        <v>1308.969604492188</v>
       </c>
       <c r="EQ4" t="n">
-        <v>3162.13134765625</v>
+        <v>1349.5263671875</v>
       </c>
       <c r="ER4" t="n">
-        <v>3166.284423828125</v>
+        <v>1376.65283203125</v>
       </c>
       <c r="ES4" t="n">
-        <v>3165.705810546875</v>
+        <v>1424.389038085938</v>
       </c>
       <c r="ET4" t="n">
-        <v>3130.542236328125</v>
+        <v>1454.796264648438</v>
       </c>
       <c r="EU4" t="n">
-        <v>3153.844482421875</v>
+        <v>1470.474487304688</v>
       </c>
       <c r="EV4" t="n">
-        <v>3209.65185546875</v>
+        <v>1516.816162109375</v>
       </c>
       <c r="EW4" t="n">
-        <v>3246.870849609375</v>
+        <v>1604.20166015625</v>
       </c>
       <c r="EX4" t="n">
-        <v>3245.59814453125</v>
+        <v>1651.399780273438</v>
       </c>
       <c r="EY4" t="n">
-        <v>3285.68896484375</v>
+        <v>1684.415649414062</v>
       </c>
       <c r="EZ4" t="n">
-        <v>3289.648681640625</v>
+        <v>1696.236083984375</v>
       </c>
       <c r="FA4" t="n">
-        <v>3238.83447265625</v>
+        <v>1720.505615234375</v>
       </c>
       <c r="FB4" t="n">
-        <v>3301.96533203125</v>
+        <v>1726.997924804688</v>
       </c>
       <c r="FC4" t="n">
-        <v>3368.02294921875</v>
+        <v>1729.824951171875</v>
       </c>
       <c r="FD4" t="n">
-        <v>3326.041748046875</v>
+        <v>1746.13623046875</v>
       </c>
       <c r="FE4" t="n">
-        <v>3310.93310546875</v>
+        <v>1751.282470703125</v>
       </c>
       <c r="FF4" t="n">
-        <v>3515.224609375</v>
+        <v>1761.011474609375</v>
       </c>
       <c r="FG4" t="n">
-        <v>3530.48095703125</v>
+        <v>1772.022827148438</v>
       </c>
       <c r="FH4" t="n">
-        <v>3475.696044921875</v>
+        <v>1779.35009765625</v>
       </c>
       <c r="FI4" t="n">
-        <v>3406.478271484375</v>
+        <v>1789.948486328125</v>
       </c>
       <c r="FJ4" t="n">
-        <v>3434.005615234375</v>
+        <v>1793.581787109375</v>
       </c>
       <c r="FK4" t="n">
-        <v>3489.150634765625</v>
+        <v>1833.361328125</v>
       </c>
       <c r="FL4" t="n">
-        <v>3532.8662109375</v>
+        <v>1863.429077148438</v>
       </c>
       <c r="FM4" t="n">
-        <v>3410.04638671875</v>
+        <v>1925.416015625</v>
       </c>
       <c r="FN4" t="n">
-        <v>3293.810546875</v>
+        <v>1960.986450195312</v>
       </c>
       <c r="FO4" t="n">
-        <v>3277.64404296875</v>
+        <v>1981.565185546875</v>
       </c>
       <c r="FP4" t="n">
-        <v>3472.98974609375</v>
+        <v>2069.723876953125</v>
       </c>
       <c r="FQ4" t="n">
-        <v>3499.74072265625</v>
+        <v>2074.48828125</v>
       </c>
       <c r="FR4" t="n">
-        <v>3422.205810546875</v>
+        <v>2114.931396484375</v>
       </c>
       <c r="FS4" t="n">
-        <v>3328.0712890625</v>
+        <v>2148.90478515625</v>
       </c>
       <c r="FT4" t="n">
-        <v>3473.6748046875</v>
+        <v>2163.235595703125</v>
       </c>
       <c r="FU4" t="n">
-        <v>3531.77294921875</v>
+        <v>2153.40478515625</v>
       </c>
       <c r="FV4" t="n">
-        <v>3497.101318359375</v>
+        <v>2151.092041015625</v>
       </c>
       <c r="FW4" t="n">
-        <v>3493.65380859375</v>
+        <v>2132.51708984375</v>
       </c>
       <c r="FX4" t="n">
-        <v>3465.07421875</v>
+        <v>2132.54638671875</v>
       </c>
       <c r="FY4" t="n">
-        <v>3446.2373046875</v>
+        <v>2127.5634765625</v>
       </c>
       <c r="FZ4" t="n">
-        <v>3428.6171875</v>
+        <v>2126.296142578125</v>
       </c>
       <c r="GA4" t="n">
-        <v>3381.614501953125</v>
+        <v>2127.106689453125</v>
       </c>
       <c r="GB4" t="n">
-        <v>3328.41845703125</v>
+        <v>2118.9296875</v>
       </c>
       <c r="GC4" t="n">
-        <v>3092.344970703125</v>
+        <v>2124.25439453125</v>
       </c>
       <c r="GD4" t="n">
-        <v>3110.320556640625</v>
+        <v>2132.06103515625</v>
       </c>
       <c r="GE4" t="n">
-        <v>3024.059814453125</v>
+        <v>2135.020263671875</v>
       </c>
       <c r="GF4" t="n">
-        <v>3026.23388671875</v>
+        <v>2136.438232421875</v>
       </c>
       <c r="GG4" t="n">
-        <v>3008.22900390625</v>
+        <v>2133.3740234375</v>
       </c>
       <c r="GH4" t="n">
-        <v>2975.50244140625</v>
+        <v>2156.49951171875</v>
       </c>
       <c r="GI4" t="n">
-        <v>2833.8779296875</v>
+        <v>2169.96630859375</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2768.017333984375</v>
+        <v>2167.197998046875</v>
       </c>
       <c r="GK4" t="n">
-        <v>2754.04931640625</v>
+        <v>2177.350830078125</v>
       </c>
       <c r="GL4" t="n">
-        <v>2684.604248046875</v>
+        <v>2186.616455078125</v>
       </c>
       <c r="GM4" t="n">
-        <v>2713.1201171875</v>
+        <v>2189.360107421875</v>
       </c>
       <c r="GN4" t="n">
-        <v>2714.3525390625</v>
+        <v>2190.1953125</v>
       </c>
       <c r="GO4" t="n">
-        <v>2662.59716796875</v>
+        <v>2189.484619140625</v>
       </c>
       <c r="GP4" t="n">
-        <v>2596.150634765625</v>
+        <v>2187.356201171875</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2590.279541015625</v>
+        <v>2195.65966796875</v>
       </c>
       <c r="GR4" t="n">
-        <v>2547.0537109375</v>
+        <v>2196.017822265625</v>
       </c>
       <c r="GS4" t="n">
-        <v>2427.299560546875</v>
+        <v>2198.26806640625</v>
       </c>
       <c r="GT4" t="n">
-        <v>2403.281005859375</v>
+        <v>2195.085693359375</v>
       </c>
       <c r="GU4" t="n">
-        <v>2344.87890625</v>
+        <v>2191.528564453125</v>
       </c>
       <c r="GV4" t="n">
-        <v>2298.724853515625</v>
+        <v>2177.629150390625</v>
       </c>
       <c r="GW4" t="n">
-        <v>2230.323974609375</v>
+        <v>2188.60400390625</v>
       </c>
       <c r="GX4" t="n">
-        <v>2148.1025390625</v>
+        <v>2179.218017578125</v>
       </c>
       <c r="GY4" t="n">
-        <v>2102.502685546875</v>
+        <v>2153.564208984375</v>
       </c>
       <c r="GZ4" t="n">
-        <v>1941.040405273438</v>
+        <v>2159.886962890625</v>
       </c>
       <c r="HA4" t="n">
-        <v>1874.302978515625</v>
+        <v>2168.303466796875</v>
       </c>
       <c r="HB4" t="n">
-        <v>1758.889526367188</v>
+        <v>2174.63134765625</v>
       </c>
       <c r="HC4" t="n">
-        <v>1728.727661132812</v>
+        <v>2181.48828125</v>
       </c>
       <c r="HD4" t="n">
-        <v>1681.953369140625</v>
+        <v>2181.351806640625</v>
       </c>
       <c r="HE4" t="n">
-        <v>1661.075927734375</v>
+        <v>2190.213134765625</v>
       </c>
       <c r="HF4" t="n">
-        <v>1524.0654296875</v>
+        <v>2219.23291015625</v>
       </c>
       <c r="HG4" t="n">
-        <v>1465.803833007812</v>
+        <v>2352.77099609375</v>
       </c>
       <c r="HH4" t="n">
-        <v>1399.684692382812</v>
+        <v>2513.7138671875</v>
       </c>
       <c r="HI4" t="n">
-        <v>1339.123413085938</v>
+        <v>2381.4248046875</v>
       </c>
       <c r="HJ4" t="n">
-        <v>1263.956176757812</v>
+        <v>2358.708251953125</v>
       </c>
       <c r="HK4" t="n">
-        <v>1165.741821289062</v>
+        <v>2159.825927734375</v>
       </c>
       <c r="HL4" t="n">
-        <v>1071.624389648438</v>
+        <v>2123.269775390625</v>
       </c>
       <c r="HM4" t="n">
-        <v>982.8067016601562</v>
+        <v>2100.09130859375</v>
       </c>
       <c r="HN4" t="n">
-        <v>848.6342163085938</v>
+        <v>2051.3916015625</v>
       </c>
       <c r="HO4" t="n">
-        <v>762.076904296875</v>
+        <v>2041.496459960938</v>
       </c>
       <c r="HP4" t="n">
-        <v>688.0455322265625</v>
+        <v>2039.290771484375</v>
       </c>
       <c r="HQ4" t="n">
-        <v>585.7584838867188</v>
+        <v>2006.167358398438</v>
       </c>
       <c r="HR4" t="n">
-        <v>499.525390625</v>
+        <v>2000.850463867188</v>
       </c>
       <c r="HS4" t="n">
-        <v>440.2782897949219</v>
+        <v>2008.404174804688</v>
       </c>
       <c r="HT4" t="n">
-        <v>424.1637268066406</v>
+        <v>2006.08056640625</v>
       </c>
       <c r="HU4" t="n">
-        <v>408.4652709960938</v>
+        <v>2004.224487304688</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>2008.372680664062</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>2008.62255859375</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>2030.813842773438</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>2051.77587890625</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>2078.572509765625</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>2069.610107421875</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>2069.73193359375</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>2070.18359375</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>2067.276611328125</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>2066.935302734375</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>2048.933837890625</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>2034.307373046875</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>2040.60498046875</v>
+      </c>
+      <c r="II4" t="n">
+        <v>2039.793212890625</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>2049.02880859375</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>2053.06396484375</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>2066.35498046875</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>2068.200927734375</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>2073.36328125</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>2135.953369140625</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>2113.411865234375</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>2144.647705078125</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>2153.393798828125</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>2145.39599609375</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>2096.554931640625</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>2072.82958984375</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>2062.377197265625</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>2065.54931640625</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>2059.620849609375</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>2054.7119140625</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>2059.6083984375</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>2056.169677734375</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>2045.673950195312</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>2029.594848632812</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>2029.085571289062</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>2032.622192382812</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>2037.171875</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>2020.06689453125</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>2010.763427734375</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>2029.834228515625</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>2016.809448242188</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>2009.39404296875</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>2010.720947265625</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>2007.045776367188</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>2006.572021484375</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>2010.643676757812</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>2011.156005859375</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>2004.391357421875</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>1999.904541015625</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>2002.765625</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>2002.720458984375</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>2001.1943359375</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>1998.981689453125</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>1993.6259765625</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>1988.5693359375</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>1983.629638671875</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>1974.868774414062</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>1950.885131835938</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>1914.285278320312</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>1893.43115234375</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>1998.768310546875</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>1924.830810546875</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>1982.881591796875</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>1981.7724609375</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>1989.378173828125</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>1991.8662109375</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>1956.0869140625</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>1935.194091796875</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>1955.89697265625</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>1947.99755859375</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>1940.193725585938</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>1926.269287109375</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>1964.11474609375</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>1997.431762695312</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>2014.828125</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>2060.004150390625</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>2061.505615234375</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>2059.572998046875</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>2056.732666015625</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>2056.6015625</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>2048.70458984375</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>2031.667114257812</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>1999.444580078125</v>
+      </c>
+      <c r="LA4" t="n">
+        <v>1995.849975585938</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>1999.395629882812</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>1999.134399414062</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>2001.213745117188</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>2015.517578125</v>
+      </c>
+      <c r="LF4" t="n">
+        <v>2028.810180664062</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>2016.705444335938</v>
+      </c>
+      <c r="LH4" t="n">
+        <v>1983.570434570312</v>
+      </c>
+      <c r="LI4" t="n">
+        <v>1913.588623046875</v>
+      </c>
+      <c r="LJ4" t="n">
+        <v>1792.625244140625</v>
+      </c>
+      <c r="LK4" t="n">
+        <v>1656.230590820312</v>
+      </c>
+      <c r="LL4" t="n">
+        <v>1572.841796875</v>
+      </c>
+      <c r="LM4" t="n">
+        <v>1472.971801757812</v>
+      </c>
+      <c r="LN4" t="n">
+        <v>1354.941162109375</v>
+      </c>
+      <c r="LO4" t="n">
+        <v>1293.118408203125</v>
+      </c>
+      <c r="LP4" t="n">
+        <v>1196.6728515625</v>
+      </c>
+      <c r="LQ4" t="n">
+        <v>1093.441650390625</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>1013.018188476562</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>936.3843994140625</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>816.6790161132812</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>750.0968627929688</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>670.6449584960938</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>627.4959716796875</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>571.185302734375</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>544.4472045898438</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>545.5059814453125</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>598.4932250976562</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>641.333740234375</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>673.2305297851562</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>703.5023803710938</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>715.1060791015625</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>719.0108032226562</v>
+      </c>
+      <c r="MG4" t="n">
+        <v>720.111328125</v>
+      </c>
+      <c r="MH4" t="n">
+        <v>728.3674926757812</v>
+      </c>
+      <c r="MI4" t="n">
+        <v>740.118408203125</v>
+      </c>
+      <c r="MJ4" t="n">
+        <v>761.7464599609375</v>
+      </c>
+      <c r="MK4" t="n">
+        <v>772.8993530273438</v>
+      </c>
+      <c r="ML4" t="n">
+        <v>777.6201171875</v>
+      </c>
+      <c r="MM4" t="n">
+        <v>748.3036499023438</v>
+      </c>
+      <c r="MN4" t="n">
+        <v>762.6118774414062</v>
+      </c>
+      <c r="MO4" t="n">
+        <v>786.2528076171875</v>
+      </c>
+      <c r="MP4" t="n">
+        <v>764.55859375</v>
+      </c>
+      <c r="MQ4" t="n">
+        <v>700.9107666015625</v>
+      </c>
+      <c r="MR4" t="n">
+        <v>631.1360473632812</v>
+      </c>
+      <c r="MS4" t="n">
+        <v>748.71337890625</v>
+      </c>
+      <c r="MT4" t="n">
+        <v>586.6493530273438</v>
+      </c>
+      <c r="MU4" t="n">
+        <v>653.5296020507812</v>
+      </c>
+      <c r="MV4" t="n">
+        <v>1186.6826171875</v>
+      </c>
+      <c r="MW4" t="n">
+        <v>820.5664672851562</v>
+      </c>
+      <c r="MX4" t="n">
+        <v>412.5943603515625</v>
+      </c>
+      <c r="MY4" t="n">
+        <v>339.1699829101562</v>
+      </c>
+      <c r="MZ4" t="n">
+        <v>296.9896850585938</v>
+      </c>
+      <c r="NA4" t="n">
+        <v>292.6205749511719</v>
+      </c>
+      <c r="NB4" t="n">
+        <v>264.5665893554688</v>
+      </c>
+      <c r="NC4" t="n">
+        <v>234.9856567382812</v>
+      </c>
+      <c r="ND4" t="n">
+        <v>227.2273559570312</v>
+      </c>
+      <c r="NE4" t="n">
+        <v>223.0671081542969</v>
+      </c>
+      <c r="NF4" t="n">
+        <v>220.4787902832031</v>
+      </c>
+      <c r="NG4" t="n">
+        <v>220.1548156738281</v>
+      </c>
+      <c r="NH4" t="n">
+        <v>234.07275390625</v>
+      </c>
+      <c r="NI4" t="n">
+        <v>258.7862854003906</v>
+      </c>
+      <c r="NJ4" t="n">
+        <v>281.1494140625</v>
+      </c>
+      <c r="NK4" t="n">
+        <v>279.6122436523438</v>
+      </c>
+      <c r="NL4" t="n">
+        <v>245.8640747070312</v>
+      </c>
+      <c r="NM4" t="n">
+        <v>235.0391845703125</v>
       </c>
     </row>
   </sheetData>

--- a/left_wrist_Data_Variable.xlsx
+++ b/left_wrist_Data_Variable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:NM4"/>
+  <dimension ref="A1:IX4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1208,3761 +1208,2333 @@
       <c r="IX1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="KZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="LZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ME1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ML1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="MZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ND1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="NM1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>438.7735290527344</v>
+        <v>398.3379516601562</v>
       </c>
       <c r="B2" t="n">
-        <v>449.7319946289062</v>
+        <v>399.748291015625</v>
       </c>
       <c r="C2" t="n">
-        <v>462.0956420898438</v>
+        <v>397.7853393554688</v>
       </c>
       <c r="D2" t="n">
-        <v>469.4147338867188</v>
+        <v>394.7236633300781</v>
       </c>
       <c r="E2" t="n">
-        <v>482.7371826171875</v>
+        <v>397.7205200195312</v>
       </c>
       <c r="F2" t="n">
-        <v>502.0565490722656</v>
+        <v>403.8699951171875</v>
       </c>
       <c r="G2" t="n">
-        <v>511.8108520507812</v>
+        <v>411.4590148925781</v>
       </c>
       <c r="H2" t="n">
-        <v>522.8876953125</v>
+        <v>416.69140625</v>
       </c>
       <c r="I2" t="n">
-        <v>538.5636596679688</v>
+        <v>421.5081176757812</v>
       </c>
       <c r="J2" t="n">
-        <v>552.530517578125</v>
+        <v>424.7105102539062</v>
       </c>
       <c r="K2" t="n">
-        <v>567.4121704101562</v>
+        <v>427.7293395996094</v>
       </c>
       <c r="L2" t="n">
-        <v>578.9179077148438</v>
+        <v>430.9229125976562</v>
       </c>
       <c r="M2" t="n">
-        <v>559.4742431640625</v>
+        <v>433.375732421875</v>
       </c>
       <c r="N2" t="n">
-        <v>555.9105834960938</v>
+        <v>438.2181091308594</v>
       </c>
       <c r="O2" t="n">
-        <v>543.77880859375</v>
+        <v>448.2201538085938</v>
       </c>
       <c r="P2" t="n">
-        <v>540.6513061523438</v>
+        <v>448.3748779296875</v>
       </c>
       <c r="Q2" t="n">
-        <v>539.2058715820312</v>
+        <v>447.3754577636719</v>
       </c>
       <c r="R2" t="n">
-        <v>538.0117797851562</v>
+        <v>446.5068359375</v>
       </c>
       <c r="S2" t="n">
-        <v>534.6683959960938</v>
+        <v>445.7488403320312</v>
       </c>
       <c r="T2" t="n">
-        <v>528.085205078125</v>
+        <v>443.8349914550781</v>
       </c>
       <c r="U2" t="n">
-        <v>528.0220336914062</v>
+        <v>441.1217041015625</v>
       </c>
       <c r="V2" t="n">
-        <v>531.5946044921875</v>
+        <v>439.9916076660156</v>
       </c>
       <c r="W2" t="n">
-        <v>534.5203247070312</v>
+        <v>437.6858825683594</v>
       </c>
       <c r="X2" t="n">
-        <v>526.22314453125</v>
+        <v>432.3040161132812</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.6700439453125</v>
+        <v>425.9509582519531</v>
       </c>
       <c r="Z2" t="n">
-        <v>490.3099060058594</v>
+        <v>419.6582336425781</v>
       </c>
       <c r="AA2" t="n">
-        <v>481.3186950683594</v>
+        <v>417.42333984375</v>
       </c>
       <c r="AB2" t="n">
-        <v>476.3885803222656</v>
+        <v>415.0219116210938</v>
       </c>
       <c r="AC2" t="n">
-        <v>475.7677612304688</v>
+        <v>412.4901123046875</v>
       </c>
       <c r="AD2" t="n">
-        <v>475.9671325683594</v>
+        <v>410.7635803222656</v>
       </c>
       <c r="AE2" t="n">
-        <v>478.427490234375</v>
+        <v>408.362548828125</v>
       </c>
       <c r="AF2" t="n">
-        <v>475.3069458007812</v>
+        <v>406.398681640625</v>
       </c>
       <c r="AG2" t="n">
-        <v>474.084716796875</v>
+        <v>404.7546691894531</v>
       </c>
       <c r="AH2" t="n">
-        <v>473.2494812011719</v>
+        <v>402.9376831054688</v>
       </c>
       <c r="AI2" t="n">
-        <v>474.8230590820312</v>
+        <v>402.1680297851562</v>
       </c>
       <c r="AJ2" t="n">
-        <v>477.1975708007812</v>
+        <v>401.6837768554688</v>
       </c>
       <c r="AK2" t="n">
-        <v>475.2373046875</v>
+        <v>401.1578369140625</v>
       </c>
       <c r="AL2" t="n">
-        <v>473.6256103515625</v>
+        <v>401.68212890625</v>
       </c>
       <c r="AM2" t="n">
-        <v>474.5584411621094</v>
+        <v>402.16943359375</v>
       </c>
       <c r="AN2" t="n">
-        <v>473.8550109863281</v>
+        <v>402.7376098632812</v>
       </c>
       <c r="AO2" t="n">
-        <v>472.7198791503906</v>
+        <v>403.1586303710938</v>
       </c>
       <c r="AP2" t="n">
-        <v>472.660888671875</v>
+        <v>403.2691040039062</v>
       </c>
       <c r="AQ2" t="n">
-        <v>472.9804077148438</v>
+        <v>402.2511596679688</v>
       </c>
       <c r="AR2" t="n">
-        <v>476.215087890625</v>
+        <v>401.9307861328125</v>
       </c>
       <c r="AS2" t="n">
-        <v>480.3075561523438</v>
+        <v>401.7593078613281</v>
       </c>
       <c r="AT2" t="n">
-        <v>481.951171875</v>
+        <v>401.5863647460938</v>
       </c>
       <c r="AU2" t="n">
-        <v>483.3721618652344</v>
+        <v>401.4718017578125</v>
       </c>
       <c r="AV2" t="n">
-        <v>487.6439819335938</v>
+        <v>401.8831787109375</v>
       </c>
       <c r="AW2" t="n">
-        <v>492.400634765625</v>
+        <v>403.4291381835938</v>
       </c>
       <c r="AX2" t="n">
-        <v>495.695556640625</v>
+        <v>405.2803955078125</v>
       </c>
       <c r="AY2" t="n">
-        <v>500.0049438476562</v>
+        <v>412.9334716796875</v>
       </c>
       <c r="AZ2" t="n">
-        <v>509.084716796875</v>
+        <v>429.4745178222656</v>
       </c>
       <c r="BA2" t="n">
-        <v>534.0214233398438</v>
+        <v>445.1952819824219</v>
       </c>
       <c r="BB2" t="n">
-        <v>556.70849609375</v>
+        <v>456.1406860351562</v>
       </c>
       <c r="BC2" t="n">
-        <v>575.3267822265625</v>
+        <v>467.7170104980469</v>
       </c>
       <c r="BD2" t="n">
-        <v>586.773193359375</v>
+        <v>476.4696044921875</v>
       </c>
       <c r="BE2" t="n">
-        <v>595.32373046875</v>
+        <v>480.5023498535156</v>
       </c>
       <c r="BF2" t="n">
-        <v>599.5833740234375</v>
+        <v>482.9401245117188</v>
       </c>
       <c r="BG2" t="n">
-        <v>601.5274658203125</v>
+        <v>483.2071533203125</v>
       </c>
       <c r="BH2" t="n">
-        <v>603.98388671875</v>
+        <v>482.3006896972656</v>
       </c>
       <c r="BI2" t="n">
-        <v>602.3431396484375</v>
+        <v>479.4998779296875</v>
       </c>
       <c r="BJ2" t="n">
-        <v>601.069091796875</v>
+        <v>476.9607849121094</v>
       </c>
       <c r="BK2" t="n">
-        <v>597.699951171875</v>
+        <v>476.2188110351562</v>
       </c>
       <c r="BL2" t="n">
-        <v>593.6602172851562</v>
+        <v>476.7741088867188</v>
       </c>
       <c r="BM2" t="n">
-        <v>586.2275390625</v>
+        <v>476.4810485839844</v>
       </c>
       <c r="BN2" t="n">
-        <v>581.5264892578125</v>
+        <v>476.4489440917969</v>
       </c>
       <c r="BO2" t="n">
-        <v>573.6138916015625</v>
+        <v>478.3140869140625</v>
       </c>
       <c r="BP2" t="n">
-        <v>570.267578125</v>
+        <v>480.709228515625</v>
       </c>
       <c r="BQ2" t="n">
-        <v>569.7001953125</v>
+        <v>481.264892578125</v>
       </c>
       <c r="BR2" t="n">
-        <v>568.4815673828125</v>
+        <v>481.200439453125</v>
       </c>
       <c r="BS2" t="n">
-        <v>567.1996459960938</v>
+        <v>480.590576171875</v>
       </c>
       <c r="BT2" t="n">
-        <v>566.6312866210938</v>
+        <v>480.8617858886719</v>
       </c>
       <c r="BU2" t="n">
-        <v>566.148681640625</v>
+        <v>482.1614990234375</v>
       </c>
       <c r="BV2" t="n">
-        <v>565.5834350585938</v>
+        <v>482.9150695800781</v>
       </c>
       <c r="BW2" t="n">
-        <v>565.4328002929688</v>
+        <v>483.0405883789062</v>
       </c>
       <c r="BX2" t="n">
-        <v>565.3428955078125</v>
+        <v>483.2612915039062</v>
       </c>
       <c r="BY2" t="n">
-        <v>565.958740234375</v>
+        <v>484.7785034179688</v>
       </c>
       <c r="BZ2" t="n">
-        <v>567.071044921875</v>
+        <v>484.643310546875</v>
       </c>
       <c r="CA2" t="n">
-        <v>568.9136352539062</v>
+        <v>485.0079040527344</v>
       </c>
       <c r="CB2" t="n">
-        <v>571.1051025390625</v>
+        <v>484.892822265625</v>
       </c>
       <c r="CC2" t="n">
-        <v>575.6448364257812</v>
+        <v>485.7276000976562</v>
       </c>
       <c r="CD2" t="n">
-        <v>581.454833984375</v>
+        <v>486.7510681152344</v>
       </c>
       <c r="CE2" t="n">
-        <v>592.6936645507812</v>
+        <v>486.9392700195312</v>
       </c>
       <c r="CF2" t="n">
-        <v>596.3895263671875</v>
+        <v>486.7695617675781</v>
       </c>
       <c r="CG2" t="n">
-        <v>599.734130859375</v>
+        <v>486.82275390625</v>
       </c>
       <c r="CH2" t="n">
-        <v>604.9963989257812</v>
+        <v>486.6256713867188</v>
       </c>
       <c r="CI2" t="n">
-        <v>610.6463012695312</v>
+        <v>486.7113952636719</v>
       </c>
       <c r="CJ2" t="n">
-        <v>616.7323608398438</v>
+        <v>487.0975341796875</v>
       </c>
       <c r="CK2" t="n">
-        <v>621.4107666015625</v>
+        <v>487.1490173339844</v>
       </c>
       <c r="CL2" t="n">
-        <v>627.064453125</v>
+        <v>487.1394348144531</v>
       </c>
       <c r="CM2" t="n">
-        <v>635.19287109375</v>
+        <v>486.965087890625</v>
       </c>
       <c r="CN2" t="n">
-        <v>647.7239379882812</v>
+        <v>487.0479736328125</v>
       </c>
       <c r="CO2" t="n">
-        <v>646.6734619140625</v>
+        <v>487.0706787109375</v>
       </c>
       <c r="CP2" t="n">
-        <v>644.173828125</v>
+        <v>487.02978515625</v>
       </c>
       <c r="CQ2" t="n">
-        <v>640.373046875</v>
+        <v>487.039794921875</v>
       </c>
       <c r="CR2" t="n">
-        <v>634.476806640625</v>
+        <v>487.2457580566406</v>
       </c>
       <c r="CS2" t="n">
-        <v>613.8155517578125</v>
+        <v>487.3636169433594</v>
       </c>
       <c r="CT2" t="n">
-        <v>567.5900268554688</v>
+        <v>487.5948486328125</v>
       </c>
       <c r="CU2" t="n">
-        <v>540.0950927734375</v>
+        <v>488.1536865234375</v>
       </c>
       <c r="CV2" t="n">
-        <v>516.65869140625</v>
+        <v>488.2746887207031</v>
       </c>
       <c r="CW2" t="n">
-        <v>502.6007690429688</v>
+        <v>487.650634765625</v>
       </c>
       <c r="CX2" t="n">
-        <v>475.2852172851562</v>
+        <v>486.6215515136719</v>
       </c>
       <c r="CY2" t="n">
-        <v>462.9366455078125</v>
+        <v>483.7998046875</v>
       </c>
       <c r="CZ2" t="n">
-        <v>455.4638977050781</v>
+        <v>481.3433227539062</v>
       </c>
       <c r="DA2" t="n">
-        <v>452.7569580078125</v>
+        <v>479.2732238769531</v>
       </c>
       <c r="DB2" t="n">
-        <v>452.0256958007812</v>
+        <v>478.2531127929688</v>
       </c>
       <c r="DC2" t="n">
-        <v>452.3633117675781</v>
+        <v>475.6046752929688</v>
       </c>
       <c r="DD2" t="n">
-        <v>450.2393798828125</v>
+        <v>473.8223571777344</v>
       </c>
       <c r="DE2" t="n">
-        <v>441.3983764648438</v>
+        <v>469.3172912597656</v>
       </c>
       <c r="DF2" t="n">
-        <v>432.741455078125</v>
+        <v>465.9188232421875</v>
       </c>
       <c r="DG2" t="n">
-        <v>426.659912109375</v>
+        <v>462.2469787597656</v>
       </c>
       <c r="DH2" t="n">
-        <v>423.0487670898438</v>
+        <v>455.8602905273438</v>
       </c>
       <c r="DI2" t="n">
-        <v>420.2745971679688</v>
+        <v>453.3239440917969</v>
       </c>
       <c r="DJ2" t="n">
-        <v>420.06640625</v>
+        <v>449.853759765625</v>
       </c>
       <c r="DK2" t="n">
-        <v>420.2734985351562</v>
+        <v>441.8497009277344</v>
       </c>
       <c r="DL2" t="n">
-        <v>420.1881408691406</v>
+        <v>438.3234252929688</v>
       </c>
       <c r="DM2" t="n">
-        <v>420.2022705078125</v>
+        <v>432.4469604492188</v>
       </c>
       <c r="DN2" t="n">
-        <v>423.8656616210938</v>
+        <v>420.9658203125</v>
       </c>
       <c r="DO2" t="n">
-        <v>426.6971435546875</v>
+        <v>397.3553771972656</v>
       </c>
       <c r="DP2" t="n">
-        <v>427.8997192382812</v>
+        <v>395.5142517089844</v>
       </c>
       <c r="DQ2" t="n">
-        <v>431.127685546875</v>
+        <v>385.9261779785156</v>
       </c>
       <c r="DR2" t="n">
-        <v>432.9476318359375</v>
+        <v>379.0022583007812</v>
       </c>
       <c r="DS2" t="n">
-        <v>434.8636474609375</v>
+        <v>369.8817443847656</v>
       </c>
       <c r="DT2" t="n">
-        <v>435.6445922851562</v>
+        <v>366.0002136230469</v>
       </c>
       <c r="DU2" t="n">
-        <v>436.5176696777344</v>
+        <v>365.8804931640625</v>
       </c>
       <c r="DV2" t="n">
-        <v>435.515869140625</v>
+        <v>366.5700988769531</v>
       </c>
       <c r="DW2" t="n">
-        <v>434.08154296875</v>
+        <v>366.8353576660156</v>
       </c>
       <c r="DX2" t="n">
-        <v>433.890380859375</v>
+        <v>367.5809326171875</v>
       </c>
       <c r="DY2" t="n">
-        <v>432.7429809570312</v>
+        <v>382.9731750488281</v>
       </c>
       <c r="DZ2" t="n">
-        <v>431.9219970703125</v>
+        <v>394.8023986816406</v>
       </c>
       <c r="EA2" t="n">
-        <v>432.5643920898438</v>
+        <v>398.3244323730469</v>
       </c>
       <c r="EB2" t="n">
-        <v>437.8179626464844</v>
+        <v>409.1665954589844</v>
       </c>
       <c r="EC2" t="n">
-        <v>447.330078125</v>
+        <v>415.4317016601562</v>
       </c>
       <c r="ED2" t="n">
-        <v>453.6584167480469</v>
+        <v>427.8732299804688</v>
       </c>
       <c r="EE2" t="n">
-        <v>467.8960571289062</v>
+        <v>434.2913208007812</v>
       </c>
       <c r="EF2" t="n">
-        <v>488.3594360351562</v>
+        <v>447.2253112792969</v>
       </c>
       <c r="EG2" t="n">
-        <v>503.0689086914062</v>
+        <v>452.4783935546875</v>
       </c>
       <c r="EH2" t="n">
-        <v>509.997802734375</v>
+        <v>457.4264526367188</v>
       </c>
       <c r="EI2" t="n">
-        <v>520.1627807617188</v>
+        <v>459.5174560546875</v>
       </c>
       <c r="EJ2" t="n">
-        <v>525.2326049804688</v>
+        <v>462.8189697265625</v>
       </c>
       <c r="EK2" t="n">
-        <v>529.951171875</v>
+        <v>465.2291870117188</v>
       </c>
       <c r="EL2" t="n">
-        <v>530.0674438476562</v>
+        <v>461.5054016113281</v>
       </c>
       <c r="EM2" t="n">
-        <v>533.7001342773438</v>
+        <v>456.6838989257812</v>
       </c>
       <c r="EN2" t="n">
-        <v>535.7437744140625</v>
+        <v>449.8551025390625</v>
       </c>
       <c r="EO2" t="n">
-        <v>533.9344482421875</v>
+        <v>436.5905151367188</v>
       </c>
       <c r="EP2" t="n">
-        <v>534.069580078125</v>
+        <v>430.1590576171875</v>
       </c>
       <c r="EQ2" t="n">
-        <v>538.1832885742188</v>
+        <v>415.7965698242188</v>
       </c>
       <c r="ER2" t="n">
-        <v>539.7218627929688</v>
+        <v>399.6919250488281</v>
       </c>
       <c r="ES2" t="n">
-        <v>537.747802734375</v>
+        <v>398.4798583984375</v>
       </c>
       <c r="ET2" t="n">
-        <v>537.351318359375</v>
+        <v>397.5342102050781</v>
       </c>
       <c r="EU2" t="n">
-        <v>537.7715454101562</v>
+        <v>398.2861022949219</v>
       </c>
       <c r="EV2" t="n">
-        <v>537.4879150390625</v>
+        <v>402.2558898925781</v>
       </c>
       <c r="EW2" t="n">
-        <v>534.740234375</v>
+        <v>404.1357116699219</v>
       </c>
       <c r="EX2" t="n">
-        <v>532.26708984375</v>
+        <v>405.7742004394531</v>
       </c>
       <c r="EY2" t="n">
-        <v>529.1985473632812</v>
+        <v>407.3231506347656</v>
       </c>
       <c r="EZ2" t="n">
-        <v>529.232177734375</v>
+        <v>409.570556640625</v>
       </c>
       <c r="FA2" t="n">
-        <v>530.5255737304688</v>
+        <v>410.2814331054688</v>
       </c>
       <c r="FB2" t="n">
-        <v>530.23876953125</v>
+        <v>411.4437255859375</v>
       </c>
       <c r="FC2" t="n">
-        <v>530.3238525390625</v>
+        <v>413.3953247070312</v>
       </c>
       <c r="FD2" t="n">
-        <v>528.761962890625</v>
+        <v>413.5880737304688</v>
       </c>
       <c r="FE2" t="n">
-        <v>528.5731811523438</v>
+        <v>412.250732421875</v>
       </c>
       <c r="FF2" t="n">
-        <v>527.4610595703125</v>
+        <v>413.9955139160156</v>
       </c>
       <c r="FG2" t="n">
-        <v>526.0836791992188</v>
+        <v>414.7377319335938</v>
       </c>
       <c r="FH2" t="n">
-        <v>525.4644165039062</v>
+        <v>414.7752380371094</v>
       </c>
       <c r="FI2" t="n">
-        <v>524.3310546875</v>
+        <v>415.8764953613281</v>
       </c>
       <c r="FJ2" t="n">
-        <v>526.96728515625</v>
+        <v>416.2381591796875</v>
       </c>
       <c r="FK2" t="n">
-        <v>538.7894897460938</v>
+        <v>418.2527465820312</v>
       </c>
       <c r="FL2" t="n">
-        <v>540.9793701171875</v>
+        <v>419.1324462890625</v>
       </c>
       <c r="FM2" t="n">
-        <v>535.86962890625</v>
+        <v>422.0184936523438</v>
       </c>
       <c r="FN2" t="n">
-        <v>529.38037109375</v>
+        <v>424.0997314453125</v>
       </c>
       <c r="FO2" t="n">
-        <v>537.6497802734375</v>
+        <v>434.5348510742188</v>
       </c>
       <c r="FP2" t="n">
-        <v>529.66162109375</v>
+        <v>446.8799438476562</v>
       </c>
       <c r="FQ2" t="n">
-        <v>504.6290893554688</v>
+        <v>456.072021484375</v>
       </c>
       <c r="FR2" t="n">
-        <v>491.143798828125</v>
+        <v>477.3992309570312</v>
       </c>
       <c r="FS2" t="n">
-        <v>484.9649047851562</v>
+        <v>487.5239562988281</v>
       </c>
       <c r="FT2" t="n">
-        <v>474.2456665039062</v>
+        <v>509.4506225585938</v>
       </c>
       <c r="FU2" t="n">
-        <v>469.033935546875</v>
+        <v>525.33935546875</v>
       </c>
       <c r="FV2" t="n">
-        <v>463.5020446777344</v>
+        <v>536.0665893554688</v>
       </c>
       <c r="FW2" t="n">
-        <v>456.4089660644531</v>
+        <v>544.996337890625</v>
       </c>
       <c r="FX2" t="n">
-        <v>454.678955078125</v>
+        <v>544.418212890625</v>
       </c>
       <c r="FY2" t="n">
-        <v>453.1050109863281</v>
+        <v>546.917724609375</v>
       </c>
       <c r="FZ2" t="n">
-        <v>451.2005004882812</v>
+        <v>546.5963745117188</v>
       </c>
       <c r="GA2" t="n">
-        <v>451.2196350097656</v>
+        <v>543.0513305664062</v>
       </c>
       <c r="GB2" t="n">
-        <v>451.010986328125</v>
+        <v>541.0132446289062</v>
       </c>
       <c r="GC2" t="n">
-        <v>449.93017578125</v>
+        <v>530.9863891601562</v>
       </c>
       <c r="GD2" t="n">
-        <v>447.243408203125</v>
+        <v>523.2848510742188</v>
       </c>
       <c r="GE2" t="n">
-        <v>446.92822265625</v>
+        <v>501.7415771484375</v>
       </c>
       <c r="GF2" t="n">
-        <v>446.5949096679688</v>
+        <v>488.9730224609375</v>
       </c>
       <c r="GG2" t="n">
-        <v>446.0975341796875</v>
+        <v>483.8062744140625</v>
       </c>
       <c r="GH2" t="n">
-        <v>444.7730102539062</v>
+        <v>482.0581665039062</v>
       </c>
       <c r="GI2" t="n">
-        <v>443.9978637695312</v>
+        <v>482.1257934570312</v>
       </c>
       <c r="GJ2" t="n">
-        <v>444.0849304199219</v>
+        <v>480.2642822265625</v>
       </c>
       <c r="GK2" t="n">
-        <v>442.2662658691406</v>
+        <v>475.8315734863281</v>
       </c>
       <c r="GL2" t="n">
-        <v>437.4325866699219</v>
+        <v>475.6166076660156</v>
       </c>
       <c r="GM2" t="n">
-        <v>434.7483825683594</v>
+        <v>473.2575073242188</v>
       </c>
       <c r="GN2" t="n">
-        <v>431.971435546875</v>
+        <v>469.8423767089844</v>
       </c>
       <c r="GO2" t="n">
-        <v>425.6973571777344</v>
+        <v>439.7794799804688</v>
       </c>
       <c r="GP2" t="n">
-        <v>418.743408203125</v>
+        <v>425.2493896484375</v>
       </c>
       <c r="GQ2" t="n">
-        <v>411.96142578125</v>
+        <v>420.3079223632812</v>
       </c>
       <c r="GR2" t="n">
-        <v>401.4925842285156</v>
+        <v>418.8712768554688</v>
       </c>
       <c r="GS2" t="n">
-        <v>395.3808288574219</v>
+        <v>418.5241088867188</v>
       </c>
       <c r="GT2" t="n">
-        <v>394.3800048828125</v>
+        <v>417.5790100097656</v>
       </c>
       <c r="GU2" t="n">
-        <v>385.5875244140625</v>
+        <v>415.0062866210938</v>
       </c>
       <c r="GV2" t="n">
-        <v>380.6683349609375</v>
+        <v>411.4691467285156</v>
       </c>
       <c r="GW2" t="n">
-        <v>379.1754150390625</v>
+        <v>404.7811279296875</v>
       </c>
       <c r="GX2" t="n">
-        <v>379.1222534179688</v>
+        <v>382.6899719238281</v>
       </c>
       <c r="GY2" t="n">
-        <v>379.0780029296875</v>
+        <v>352.9570922851562</v>
       </c>
       <c r="GZ2" t="n">
-        <v>378.3284301757812</v>
+        <v>333.1061096191406</v>
       </c>
       <c r="HA2" t="n">
-        <v>378.1434326171875</v>
+        <v>311.4896545410156</v>
       </c>
       <c r="HB2" t="n">
-        <v>377.2789306640625</v>
+        <v>272.9657592773438</v>
       </c>
       <c r="HC2" t="n">
-        <v>375.6401062011719</v>
+        <v>291.3093566894531</v>
       </c>
       <c r="HD2" t="n">
-        <v>374.7766723632812</v>
+        <v>260.1581115722656</v>
       </c>
       <c r="HE2" t="n">
-        <v>374.2022094726562</v>
+        <v>259.3186340332031</v>
       </c>
       <c r="HF2" t="n">
-        <v>373.865966796875</v>
+        <v>242.8709716796875</v>
       </c>
       <c r="HG2" t="n">
-        <v>381.2084655761719</v>
+        <v>241.1461791992188</v>
       </c>
       <c r="HH2" t="n">
-        <v>361.0751037597656</v>
+        <v>244.4577026367188</v>
       </c>
       <c r="HI2" t="n">
-        <v>381.4149475097656</v>
+        <v>240.7519836425781</v>
       </c>
       <c r="HJ2" t="n">
-        <v>385.78466796875</v>
+        <v>244.9059906005859</v>
       </c>
       <c r="HK2" t="n">
-        <v>399.8555908203125</v>
+        <v>256.3910217285156</v>
       </c>
       <c r="HL2" t="n">
-        <v>410.0749206542969</v>
+        <v>279.639892578125</v>
       </c>
       <c r="HM2" t="n">
-        <v>408.8294067382812</v>
+        <v>288.8925476074219</v>
       </c>
       <c r="HN2" t="n">
-        <v>414.0291748046875</v>
+        <v>306.7043762207031</v>
       </c>
       <c r="HO2" t="n">
-        <v>434.4210205078125</v>
+        <v>325.53076171875</v>
       </c>
       <c r="HP2" t="n">
-        <v>443.2891845703125</v>
+        <v>341.2771301269531</v>
       </c>
       <c r="HQ2" t="n">
-        <v>446.5875549316406</v>
+        <v>360.0538330078125</v>
       </c>
       <c r="HR2" t="n">
-        <v>460.7703857421875</v>
+        <v>376.1218872070312</v>
       </c>
       <c r="HS2" t="n">
-        <v>469.8141479492188</v>
+        <v>395.717041015625</v>
       </c>
       <c r="HT2" t="n">
-        <v>475.1979370117188</v>
+        <v>417.0303039550781</v>
       </c>
       <c r="HU2" t="n">
-        <v>474.9278564453125</v>
+        <v>442.8681030273438</v>
       </c>
       <c r="HV2" t="n">
-        <v>476.78564453125</v>
+        <v>453.3171997070312</v>
       </c>
       <c r="HW2" t="n">
-        <v>480.566650390625</v>
+        <v>476.89208984375</v>
       </c>
       <c r="HX2" t="n">
-        <v>479.7636108398438</v>
+        <v>513.2904052734375</v>
       </c>
       <c r="HY2" t="n">
-        <v>480.327392578125</v>
+        <v>500.0547485351562</v>
       </c>
       <c r="HZ2" t="n">
-        <v>479.7859191894531</v>
+        <v>506.9232482910156</v>
       </c>
       <c r="IA2" t="n">
-        <v>478.8617248535156</v>
+        <v>481.8555908203125</v>
       </c>
       <c r="IB2" t="n">
-        <v>477.3948669433594</v>
+        <v>487.0431518554688</v>
       </c>
       <c r="IC2" t="n">
-        <v>474.3824768066406</v>
+        <v>494.2117919921875</v>
       </c>
       <c r="ID2" t="n">
-        <v>471.9660949707031</v>
+        <v>483.535400390625</v>
       </c>
       <c r="IE2" t="n">
-        <v>468.1443786621094</v>
+        <v>470.4947204589844</v>
       </c>
       <c r="IF2" t="n">
-        <v>464.9029846191406</v>
+        <v>431.9069213867188</v>
       </c>
       <c r="IG2" t="n">
-        <v>464.9556884765625</v>
+        <v>418.7075805664062</v>
       </c>
       <c r="IH2" t="n">
-        <v>464.053955078125</v>
+        <v>411.2455749511719</v>
       </c>
       <c r="II2" t="n">
-        <v>454.5514526367188</v>
+        <v>411.0637817382812</v>
       </c>
       <c r="IJ2" t="n">
-        <v>450.9237976074219</v>
+        <v>425.676513671875</v>
       </c>
       <c r="IK2" t="n">
-        <v>439.8424987792969</v>
+        <v>441.2776184082031</v>
       </c>
       <c r="IL2" t="n">
-        <v>437.7759399414062</v>
+        <v>454.4409790039062</v>
       </c>
       <c r="IM2" t="n">
-        <v>425.0043029785156</v>
+        <v>447.3214111328125</v>
       </c>
       <c r="IN2" t="n">
-        <v>412.5498046875</v>
+        <v>506.4758911132812</v>
       </c>
       <c r="IO2" t="n">
-        <v>413.8582763671875</v>
+        <v>511.007568359375</v>
       </c>
       <c r="IP2" t="n">
-        <v>409.79736328125</v>
+        <v>472.1697387695312</v>
       </c>
       <c r="IQ2" t="n">
-        <v>397.8334350585938</v>
+        <v>463.44287109375</v>
       </c>
       <c r="IR2" t="n">
-        <v>399.5675048828125</v>
+        <v>465.1318359375</v>
       </c>
       <c r="IS2" t="n">
-        <v>396.521240234375</v>
+        <v>452.1817321777344</v>
       </c>
       <c r="IT2" t="n">
-        <v>385.2195739746094</v>
+        <v>442.2059936523438</v>
       </c>
       <c r="IU2" t="n">
-        <v>383.5232238769531</v>
+        <v>396.0112915039062</v>
       </c>
       <c r="IV2" t="n">
-        <v>386.0403442382812</v>
+        <v>364.1605224609375</v>
       </c>
       <c r="IW2" t="n">
-        <v>387.0416564941406</v>
+        <v>381.109375</v>
       </c>
       <c r="IX2" t="n">
-        <v>389.2035522460938</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>389.0197143554688</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>389.21484375</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>389.801513671875</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>390.7508850097656</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>391.7876586914062</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>393.9432067871094</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>405.656982421875</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>408.4320373535156</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>417.1487121582031</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>423.6884155273438</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>435.5936279296875</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>438.0770568847656</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>448.5737915039062</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>453.1039428710938</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>462.9124145507812</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>468.7396850585938</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>469.5125732421875</v>
-      </c>
-      <c r="JP2" t="n">
-        <v>469.1054077148438</v>
-      </c>
-      <c r="JQ2" t="n">
-        <v>469.3846435546875</v>
-      </c>
-      <c r="JR2" t="n">
-        <v>469.5975341796875</v>
-      </c>
-      <c r="JS2" t="n">
-        <v>469.2601318359375</v>
-      </c>
-      <c r="JT2" t="n">
-        <v>469.6306762695312</v>
-      </c>
-      <c r="JU2" t="n">
-        <v>470.3483581542969</v>
-      </c>
-      <c r="JV2" t="n">
-        <v>470.8798828125</v>
-      </c>
-      <c r="JW2" t="n">
-        <v>471.9367065429688</v>
-      </c>
-      <c r="JX2" t="n">
-        <v>473.3465576171875</v>
-      </c>
-      <c r="JY2" t="n">
-        <v>475.832763671875</v>
-      </c>
-      <c r="JZ2" t="n">
-        <v>477.5660400390625</v>
-      </c>
-      <c r="KA2" t="n">
-        <v>481.5433959960938</v>
-      </c>
-      <c r="KB2" t="n">
-        <v>492.6163940429688</v>
-      </c>
-      <c r="KC2" t="n">
-        <v>518.2820434570312</v>
-      </c>
-      <c r="KD2" t="n">
-        <v>551.50634765625</v>
-      </c>
-      <c r="KE2" t="n">
-        <v>551.0941772460938</v>
-      </c>
-      <c r="KF2" t="n">
-        <v>559.1887817382812</v>
-      </c>
-      <c r="KG2" t="n">
-        <v>555.5510864257812</v>
-      </c>
-      <c r="KH2" t="n">
-        <v>552.981201171875</v>
-      </c>
-      <c r="KI2" t="n">
-        <v>552.7465209960938</v>
-      </c>
-      <c r="KJ2" t="n">
-        <v>559.1304321289062</v>
-      </c>
-      <c r="KK2" t="n">
-        <v>557.7073364257812</v>
-      </c>
-      <c r="KL2" t="n">
-        <v>556.4222412109375</v>
-      </c>
-      <c r="KM2" t="n">
-        <v>552.980712890625</v>
-      </c>
-      <c r="KN2" t="n">
-        <v>548.8943481445312</v>
-      </c>
-      <c r="KO2" t="n">
-        <v>540.1341552734375</v>
-      </c>
-      <c r="KP2" t="n">
-        <v>525.9906005859375</v>
-      </c>
-      <c r="KQ2" t="n">
-        <v>501.5599365234375</v>
-      </c>
-      <c r="KR2" t="n">
-        <v>486.1719360351562</v>
-      </c>
-      <c r="KS2" t="n">
-        <v>471.8603820800781</v>
-      </c>
-      <c r="KT2" t="n">
-        <v>468.7215881347656</v>
-      </c>
-      <c r="KU2" t="n">
-        <v>466.3508911132812</v>
-      </c>
-      <c r="KV2" t="n">
-        <v>467.5087890625</v>
-      </c>
-      <c r="KW2" t="n">
-        <v>469.1160583496094</v>
-      </c>
-      <c r="KX2" t="n">
-        <v>471.4867553710938</v>
-      </c>
-      <c r="KY2" t="n">
-        <v>476.0829162597656</v>
-      </c>
-      <c r="KZ2" t="n">
-        <v>485.6220092773438</v>
-      </c>
-      <c r="LA2" t="n">
-        <v>489.1889953613281</v>
-      </c>
-      <c r="LB2" t="n">
-        <v>489.5669555664062</v>
-      </c>
-      <c r="LC2" t="n">
-        <v>489.2203369140625</v>
-      </c>
-      <c r="LD2" t="n">
-        <v>486.4042663574219</v>
-      </c>
-      <c r="LE2" t="n">
-        <v>481.7354736328125</v>
-      </c>
-      <c r="LF2" t="n">
-        <v>481.1714172363281</v>
-      </c>
-      <c r="LG2" t="n">
-        <v>482.6482543945312</v>
-      </c>
-      <c r="LH2" t="n">
-        <v>484.8302917480469</v>
-      </c>
-      <c r="LI2" t="n">
-        <v>490.7747802734375</v>
-      </c>
-      <c r="LJ2" t="n">
-        <v>502.1813354492188</v>
-      </c>
-      <c r="LK2" t="n">
-        <v>516.6552124023438</v>
-      </c>
-      <c r="LL2" t="n">
-        <v>528.7066650390625</v>
-      </c>
-      <c r="LM2" t="n">
-        <v>543.2122802734375</v>
-      </c>
-      <c r="LN2" t="n">
-        <v>563.4837036132812</v>
-      </c>
-      <c r="LO2" t="n">
-        <v>574.4134521484375</v>
-      </c>
-      <c r="LP2" t="n">
-        <v>591.481201171875</v>
-      </c>
-      <c r="LQ2" t="n">
-        <v>604.7971801757812</v>
-      </c>
-      <c r="LR2" t="n">
-        <v>623.7836303710938</v>
-      </c>
-      <c r="LS2" t="n">
-        <v>642.8005981445312</v>
-      </c>
-      <c r="LT2" t="n">
-        <v>578.765625</v>
-      </c>
-      <c r="LU2" t="n">
-        <v>579.3479614257812</v>
-      </c>
-      <c r="LV2" t="n">
-        <v>613.212646484375</v>
-      </c>
-      <c r="LW2" t="n">
-        <v>632.7579345703125</v>
-      </c>
-      <c r="LX2" t="n">
-        <v>658.744140625</v>
-      </c>
-      <c r="LY2" t="n">
-        <v>636.9954833984375</v>
-      </c>
-      <c r="LZ2" t="n">
-        <v>621.6438598632812</v>
-      </c>
-      <c r="MA2" t="n">
-        <v>619.7692260742188</v>
-      </c>
-      <c r="MB2" t="n">
-        <v>596.7155151367188</v>
-      </c>
-      <c r="MC2" t="n">
-        <v>564.7984619140625</v>
-      </c>
-      <c r="MD2" t="n">
-        <v>530.3176879882812</v>
-      </c>
-      <c r="ME2" t="n">
-        <v>524.29833984375</v>
-      </c>
-      <c r="MF2" t="n">
-        <v>524.2462158203125</v>
-      </c>
-      <c r="MG2" t="n">
-        <v>528.5806884765625</v>
-      </c>
-      <c r="MH2" t="n">
-        <v>531.108154296875</v>
-      </c>
-      <c r="MI2" t="n">
-        <v>530.37890625</v>
-      </c>
-      <c r="MJ2" t="n">
-        <v>525.2593994140625</v>
-      </c>
-      <c r="MK2" t="n">
-        <v>527.0858154296875</v>
-      </c>
-      <c r="ML2" t="n">
-        <v>508.4940185546875</v>
-      </c>
-      <c r="MM2" t="n">
-        <v>503.728271484375</v>
-      </c>
-      <c r="MN2" t="n">
-        <v>522.9893188476562</v>
-      </c>
-      <c r="MO2" t="n">
-        <v>513.6917724609375</v>
-      </c>
-      <c r="MP2" t="n">
-        <v>539.4310913085938</v>
-      </c>
-      <c r="MQ2" t="n">
-        <v>556.7899780273438</v>
-      </c>
-      <c r="MR2" t="n">
-        <v>530.7836303710938</v>
-      </c>
-      <c r="MS2" t="n">
-        <v>444.38818359375</v>
-      </c>
-      <c r="MT2" t="n">
-        <v>530.8135375976562</v>
-      </c>
-      <c r="MU2" t="n">
-        <v>457.3128051757812</v>
-      </c>
-      <c r="MV2" t="n">
-        <v>521.1346435546875</v>
-      </c>
-      <c r="MW2" t="n">
-        <v>427.2041625976562</v>
-      </c>
-      <c r="MX2" t="n">
-        <v>421.8434448242188</v>
-      </c>
-      <c r="MY2" t="n">
-        <v>424.072998046875</v>
-      </c>
-      <c r="MZ2" t="n">
-        <v>453.4167785644531</v>
-      </c>
-      <c r="NA2" t="n">
-        <v>463.2521362304688</v>
-      </c>
-      <c r="NB2" t="n">
-        <v>506.4270324707031</v>
-      </c>
-      <c r="NC2" t="n">
-        <v>576.9822998046875</v>
-      </c>
-      <c r="ND2" t="n">
-        <v>599.0546264648438</v>
-      </c>
-      <c r="NE2" t="n">
-        <v>596.5462036132812</v>
-      </c>
-      <c r="NF2" t="n">
-        <v>598.3701171875</v>
-      </c>
-      <c r="NG2" t="n">
-        <v>593.1279296875</v>
-      </c>
-      <c r="NH2" t="n">
-        <v>567.8927001953125</v>
-      </c>
-      <c r="NI2" t="n">
-        <v>512.5101928710938</v>
-      </c>
-      <c r="NJ2" t="n">
-        <v>468.6265869140625</v>
-      </c>
-      <c r="NK2" t="n">
-        <v>487.8729858398438</v>
-      </c>
-      <c r="NL2" t="n">
-        <v>461.445068359375</v>
-      </c>
-      <c r="NM2" t="n">
-        <v>506.4403991699219</v>
+        <v>390.5158081054688</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>364.9517822265625</v>
+        <v>403.1259155273438</v>
       </c>
       <c r="B3" t="n">
-        <v>356.1579284667969</v>
+        <v>390.2150573730469</v>
       </c>
       <c r="C3" t="n">
-        <v>352.5925903320312</v>
+        <v>379.06396484375</v>
       </c>
       <c r="D3" t="n">
-        <v>350.5534057617188</v>
+        <v>377.6786499023438</v>
       </c>
       <c r="E3" t="n">
-        <v>351.1758728027344</v>
+        <v>384.9804077148438</v>
       </c>
       <c r="F3" t="n">
-        <v>349.2298583984375</v>
+        <v>384.2512512207031</v>
       </c>
       <c r="G3" t="n">
-        <v>350.4407958984375</v>
+        <v>386.8040771484375</v>
       </c>
       <c r="H3" t="n">
-        <v>352.3736267089844</v>
+        <v>384.4800415039062</v>
       </c>
       <c r="I3" t="n">
-        <v>352.7742309570312</v>
+        <v>388.598388671875</v>
       </c>
       <c r="J3" t="n">
-        <v>353.7806091308594</v>
+        <v>386.2580871582031</v>
       </c>
       <c r="K3" t="n">
-        <v>358.3218994140625</v>
+        <v>387.04296875</v>
       </c>
       <c r="L3" t="n">
-        <v>361.4941101074219</v>
+        <v>387.6817016601562</v>
       </c>
       <c r="M3" t="n">
-        <v>349.4080505371094</v>
+        <v>387.1492919921875</v>
       </c>
       <c r="N3" t="n">
-        <v>344.4695739746094</v>
+        <v>386.6473693847656</v>
       </c>
       <c r="O3" t="n">
-        <v>342.2073974609375</v>
+        <v>408.2764587402344</v>
       </c>
       <c r="P3" t="n">
-        <v>342.9299621582031</v>
+        <v>406.4331665039062</v>
       </c>
       <c r="Q3" t="n">
-        <v>343.9978942871094</v>
+        <v>402.9214782714844</v>
       </c>
       <c r="R3" t="n">
-        <v>350.7303161621094</v>
+        <v>401.8018188476562</v>
       </c>
       <c r="S3" t="n">
-        <v>354.188720703125</v>
+        <v>400.5705871582031</v>
       </c>
       <c r="T3" t="n">
-        <v>356.16845703125</v>
+        <v>402.4801635742188</v>
       </c>
       <c r="U3" t="n">
-        <v>357.9555969238281</v>
+        <v>400.8289489746094</v>
       </c>
       <c r="V3" t="n">
-        <v>362.4378662109375</v>
+        <v>399.023681640625</v>
       </c>
       <c r="W3" t="n">
-        <v>364.6654357910156</v>
+        <v>397.9407653808594</v>
       </c>
       <c r="X3" t="n">
-        <v>363.8008422851562</v>
+        <v>396.6197204589844</v>
       </c>
       <c r="Y3" t="n">
-        <v>360.6390686035156</v>
+        <v>395.9322204589844</v>
       </c>
       <c r="Z3" t="n">
-        <v>360.5761413574219</v>
+        <v>394.7240905761719</v>
       </c>
       <c r="AA3" t="n">
-        <v>369.7706604003906</v>
+        <v>392.3318786621094</v>
       </c>
       <c r="AB3" t="n">
-        <v>375.8403625488281</v>
+        <v>390.5454711914062</v>
       </c>
       <c r="AC3" t="n">
-        <v>378.5503234863281</v>
+        <v>390.3887939453125</v>
       </c>
       <c r="AD3" t="n">
-        <v>379.9706726074219</v>
+        <v>391.6497497558594</v>
       </c>
       <c r="AE3" t="n">
-        <v>377.9806823730469</v>
+        <v>393.1030578613281</v>
       </c>
       <c r="AF3" t="n">
-        <v>376.3499450683594</v>
+        <v>392.9715270996094</v>
       </c>
       <c r="AG3" t="n">
-        <v>375.4369201660156</v>
+        <v>392.24169921875</v>
       </c>
       <c r="AH3" t="n">
-        <v>371.3003540039062</v>
+        <v>389.9757995605469</v>
       </c>
       <c r="AI3" t="n">
-        <v>364.1439208984375</v>
+        <v>389.7024841308594</v>
       </c>
       <c r="AJ3" t="n">
-        <v>356.953125</v>
+        <v>388.9661865234375</v>
       </c>
       <c r="AK3" t="n">
-        <v>356.4215393066406</v>
+        <v>386.5550842285156</v>
       </c>
       <c r="AL3" t="n">
-        <v>355.5372314453125</v>
+        <v>388.1376647949219</v>
       </c>
       <c r="AM3" t="n">
-        <v>355.0715026855469</v>
+        <v>388.3972778320312</v>
       </c>
       <c r="AN3" t="n">
-        <v>355.7884826660156</v>
+        <v>388.7639465332031</v>
       </c>
       <c r="AO3" t="n">
-        <v>357.6798095703125</v>
+        <v>387.9990844726562</v>
       </c>
       <c r="AP3" t="n">
-        <v>357.9392395019531</v>
+        <v>386.39697265625</v>
       </c>
       <c r="AQ3" t="n">
-        <v>358.4059448242188</v>
+        <v>385.0590515136719</v>
       </c>
       <c r="AR3" t="n">
-        <v>358.3211669921875</v>
+        <v>383.7144470214844</v>
       </c>
       <c r="AS3" t="n">
-        <v>357.6250305175781</v>
+        <v>382.9508666992188</v>
       </c>
       <c r="AT3" t="n">
-        <v>358.0288391113281</v>
+        <v>382.2584228515625</v>
       </c>
       <c r="AU3" t="n">
-        <v>360.1214294433594</v>
+        <v>381.5213317871094</v>
       </c>
       <c r="AV3" t="n">
-        <v>363.4793090820312</v>
+        <v>380.5131530761719</v>
       </c>
       <c r="AW3" t="n">
-        <v>364.9714050292969</v>
+        <v>378.5807495117188</v>
       </c>
       <c r="AX3" t="n">
-        <v>363.8963317871094</v>
+        <v>378.0249328613281</v>
       </c>
       <c r="AY3" t="n">
-        <v>364.9964904785156</v>
+        <v>374.7008361816406</v>
       </c>
       <c r="AZ3" t="n">
-        <v>360.3628845214844</v>
+        <v>361.008056640625</v>
       </c>
       <c r="BA3" t="n">
-        <v>345.7684936523438</v>
+        <v>352.4368896484375</v>
       </c>
       <c r="BB3" t="n">
-        <v>324.9963989257812</v>
+        <v>334.4671325683594</v>
       </c>
       <c r="BC3" t="n">
-        <v>306.6512756347656</v>
+        <v>320.5721740722656</v>
       </c>
       <c r="BD3" t="n">
-        <v>288.3009643554688</v>
+        <v>305.5116882324219</v>
       </c>
       <c r="BE3" t="n">
-        <v>266.4041442871094</v>
+        <v>288.6389465332031</v>
       </c>
       <c r="BF3" t="n">
-        <v>243.5753326416016</v>
+        <v>272.9852294921875</v>
       </c>
       <c r="BG3" t="n">
-        <v>226.2248687744141</v>
+        <v>258.9383850097656</v>
       </c>
       <c r="BH3" t="n">
-        <v>214.9921264648438</v>
+        <v>248.9433288574219</v>
       </c>
       <c r="BI3" t="n">
-        <v>207.1273956298828</v>
+        <v>242.4252624511719</v>
       </c>
       <c r="BJ3" t="n">
-        <v>203.0993804931641</v>
+        <v>237.1085968017578</v>
       </c>
       <c r="BK3" t="n">
-        <v>198.2088928222656</v>
+        <v>234.5215911865234</v>
       </c>
       <c r="BL3" t="n">
-        <v>196.1415100097656</v>
+        <v>233.7572784423828</v>
       </c>
       <c r="BM3" t="n">
-        <v>194.8009033203125</v>
+        <v>234.0195159912109</v>
       </c>
       <c r="BN3" t="n">
-        <v>192.6244201660156</v>
+        <v>234.3534851074219</v>
       </c>
       <c r="BO3" t="n">
-        <v>186.7250823974609</v>
+        <v>236.7097473144531</v>
       </c>
       <c r="BP3" t="n">
-        <v>184.313232421875</v>
+        <v>240.466064453125</v>
       </c>
       <c r="BQ3" t="n">
-        <v>182.6347503662109</v>
+        <v>241.7345581054688</v>
       </c>
       <c r="BR3" t="n">
-        <v>182.8581085205078</v>
+        <v>242.5536651611328</v>
       </c>
       <c r="BS3" t="n">
-        <v>182.353759765625</v>
+        <v>242.8611907958984</v>
       </c>
       <c r="BT3" t="n">
-        <v>182.5661468505859</v>
+        <v>243.8251342773438</v>
       </c>
       <c r="BU3" t="n">
-        <v>182.2897491455078</v>
+        <v>245.5168304443359</v>
       </c>
       <c r="BV3" t="n">
-        <v>181.6048431396484</v>
+        <v>247.8903045654297</v>
       </c>
       <c r="BW3" t="n">
-        <v>180.0860137939453</v>
+        <v>250.9795532226562</v>
       </c>
       <c r="BX3" t="n">
-        <v>177.064208984375</v>
+        <v>253.2418670654297</v>
       </c>
       <c r="BY3" t="n">
-        <v>170.2879333496094</v>
+        <v>256.5736389160156</v>
       </c>
       <c r="BZ3" t="n">
-        <v>168.9093780517578</v>
+        <v>256.3253479003906</v>
       </c>
       <c r="CA3" t="n">
-        <v>167.1248474121094</v>
+        <v>257.67919921875</v>
       </c>
       <c r="CB3" t="n">
-        <v>165.0625610351562</v>
+        <v>259.7157897949219</v>
       </c>
       <c r="CC3" t="n">
-        <v>164.2672271728516</v>
+        <v>260.3435668945312</v>
       </c>
       <c r="CD3" t="n">
-        <v>164.6365966796875</v>
+        <v>262.4146728515625</v>
       </c>
       <c r="CE3" t="n">
-        <v>162.946044921875</v>
+        <v>264.097900390625</v>
       </c>
       <c r="CF3" t="n">
-        <v>161.1452026367188</v>
+        <v>265.4364929199219</v>
       </c>
       <c r="CG3" t="n">
-        <v>160.0944671630859</v>
+        <v>266.3218383789062</v>
       </c>
       <c r="CH3" t="n">
-        <v>158.4612121582031</v>
+        <v>266.493896484375</v>
       </c>
       <c r="CI3" t="n">
-        <v>158.6262817382812</v>
+        <v>266.9021911621094</v>
       </c>
       <c r="CJ3" t="n">
-        <v>157.9241027832031</v>
+        <v>267.1023254394531</v>
       </c>
       <c r="CK3" t="n">
-        <v>159.5289764404297</v>
+        <v>267.1383361816406</v>
       </c>
       <c r="CL3" t="n">
-        <v>163.3618011474609</v>
+        <v>267.2607727050781</v>
       </c>
       <c r="CM3" t="n">
-        <v>174.7832641601562</v>
+        <v>267.4919128417969</v>
       </c>
       <c r="CN3" t="n">
-        <v>193.9939270019531</v>
+        <v>267.5028076171875</v>
       </c>
       <c r="CO3" t="n">
-        <v>196.927001953125</v>
+        <v>267.6075439453125</v>
       </c>
       <c r="CP3" t="n">
-        <v>201.9364471435547</v>
+        <v>267.7719116210938</v>
       </c>
       <c r="CQ3" t="n">
-        <v>215.5138244628906</v>
+        <v>267.9656677246094</v>
       </c>
       <c r="CR3" t="n">
-        <v>233.3415222167969</v>
+        <v>268.1008605957031</v>
       </c>
       <c r="CS3" t="n">
-        <v>294.0701599121094</v>
+        <v>268.4675598144531</v>
       </c>
       <c r="CT3" t="n">
-        <v>335.3366088867188</v>
+        <v>269.6236572265625</v>
       </c>
       <c r="CU3" t="n">
-        <v>355.4457397460938</v>
+        <v>272.8014221191406</v>
       </c>
       <c r="CV3" t="n">
-        <v>367.1460266113281</v>
+        <v>276.4236145019531</v>
       </c>
       <c r="CW3" t="n">
-        <v>370.6508178710938</v>
+        <v>279.7312316894531</v>
       </c>
       <c r="CX3" t="n">
-        <v>377.0903930664062</v>
+        <v>284.1864929199219</v>
       </c>
       <c r="CY3" t="n">
-        <v>378.0170288085938</v>
+        <v>291.7594604492188</v>
       </c>
       <c r="CZ3" t="n">
-        <v>373.8285522460938</v>
+        <v>297.6548156738281</v>
       </c>
       <c r="DA3" t="n">
-        <v>371.765625</v>
+        <v>305.9264526367188</v>
       </c>
       <c r="DB3" t="n">
-        <v>368.6840515136719</v>
+        <v>310.7298278808594</v>
       </c>
       <c r="DC3" t="n">
-        <v>367.5959167480469</v>
+        <v>314.8303833007812</v>
       </c>
       <c r="DD3" t="n">
-        <v>365.3297729492188</v>
+        <v>322.5360717773438</v>
       </c>
       <c r="DE3" t="n">
-        <v>364.4067077636719</v>
+        <v>331.8784790039062</v>
       </c>
       <c r="DF3" t="n">
-        <v>366.2234497070312</v>
+        <v>337.4953918457031</v>
       </c>
       <c r="DG3" t="n">
-        <v>366.6288452148438</v>
+        <v>343.6091003417969</v>
       </c>
       <c r="DH3" t="n">
-        <v>364.64794921875</v>
+        <v>345.7183837890625</v>
       </c>
       <c r="DI3" t="n">
-        <v>362.308837890625</v>
+        <v>352.0276794433594</v>
       </c>
       <c r="DJ3" t="n">
-        <v>359.9674072265625</v>
+        <v>354.5769348144531</v>
       </c>
       <c r="DK3" t="n">
-        <v>360.3935852050781</v>
+        <v>361.2545776367188</v>
       </c>
       <c r="DL3" t="n">
-        <v>360.5249938964844</v>
+        <v>364.705810546875</v>
       </c>
       <c r="DM3" t="n">
-        <v>360.4255981445312</v>
+        <v>366.9235229492188</v>
       </c>
       <c r="DN3" t="n">
-        <v>359.1536865234375</v>
+        <v>375.1254272460938</v>
       </c>
       <c r="DO3" t="n">
-        <v>358.7691040039062</v>
+        <v>381.4163208007812</v>
       </c>
       <c r="DP3" t="n">
-        <v>357.6709289550781</v>
+        <v>380.1994934082031</v>
       </c>
       <c r="DQ3" t="n">
-        <v>356.7957763671875</v>
+        <v>379.9677429199219</v>
       </c>
       <c r="DR3" t="n">
-        <v>355.9640808105469</v>
+        <v>376.5978088378906</v>
       </c>
       <c r="DS3" t="n">
-        <v>353.9117126464844</v>
+        <v>367.5794677734375</v>
       </c>
       <c r="DT3" t="n">
-        <v>351.472900390625</v>
+        <v>352.3265380859375</v>
       </c>
       <c r="DU3" t="n">
-        <v>350.569091796875</v>
+        <v>349.7054748535156</v>
       </c>
       <c r="DV3" t="n">
-        <v>350.13037109375</v>
+        <v>349.6423645019531</v>
       </c>
       <c r="DW3" t="n">
-        <v>351.8070068359375</v>
+        <v>349.7152099609375</v>
       </c>
       <c r="DX3" t="n">
-        <v>353.9024353027344</v>
+        <v>350.1301879882812</v>
       </c>
       <c r="DY3" t="n">
-        <v>358.2293090820312</v>
+        <v>360.6440734863281</v>
       </c>
       <c r="DZ3" t="n">
-        <v>366.3047485351562</v>
+        <v>375.4343872070312</v>
       </c>
       <c r="EA3" t="n">
-        <v>366.5531921386719</v>
+        <v>377.9805297851562</v>
       </c>
       <c r="EB3" t="n">
-        <v>370.2506408691406</v>
+        <v>376.8641357421875</v>
       </c>
       <c r="EC3" t="n">
-        <v>373.771484375</v>
+        <v>375.7147521972656</v>
       </c>
       <c r="ED3" t="n">
-        <v>374.8339538574219</v>
+        <v>368.5535278320312</v>
       </c>
       <c r="EE3" t="n">
-        <v>373.0898742675781</v>
+        <v>365.1060791015625</v>
       </c>
       <c r="EF3" t="n">
-        <v>379.5497131347656</v>
+        <v>353.6643676757812</v>
       </c>
       <c r="EG3" t="n">
-        <v>380.9724426269531</v>
+        <v>347.6095886230469</v>
       </c>
       <c r="EH3" t="n">
-        <v>381.4532165527344</v>
+        <v>338.5768432617188</v>
       </c>
       <c r="EI3" t="n">
-        <v>379.0974731445312</v>
+        <v>334.7227783203125</v>
       </c>
       <c r="EJ3" t="n">
-        <v>379.75927734375</v>
+        <v>330.3954467773438</v>
       </c>
       <c r="EK3" t="n">
-        <v>378.6922607421875</v>
+        <v>329.7755737304688</v>
       </c>
       <c r="EL3" t="n">
-        <v>375.7765197753906</v>
+        <v>336.9178161621094</v>
       </c>
       <c r="EM3" t="n">
-        <v>371.2169494628906</v>
+        <v>343.9341735839844</v>
       </c>
       <c r="EN3" t="n">
-        <v>369.0669860839844</v>
+        <v>350.9624633789062</v>
       </c>
       <c r="EO3" t="n">
-        <v>366.2369384765625</v>
+        <v>360.0556945800781</v>
       </c>
       <c r="EP3" t="n">
-        <v>365.2691955566406</v>
+        <v>363.3902893066406</v>
       </c>
       <c r="EQ3" t="n">
-        <v>369.5726623535156</v>
+        <v>374.5884094238281</v>
       </c>
       <c r="ER3" t="n">
-        <v>369.0313110351562</v>
+        <v>382.906005859375</v>
       </c>
       <c r="ES3" t="n">
-        <v>367.9827880859375</v>
+        <v>384.637939453125</v>
       </c>
       <c r="ET3" t="n">
-        <v>373.9069213867188</v>
+        <v>385.9674987792969</v>
       </c>
       <c r="EU3" t="n">
-        <v>375.6383056640625</v>
+        <v>384.2020568847656</v>
       </c>
       <c r="EV3" t="n">
-        <v>371.9090576171875</v>
+        <v>382.5944519042969</v>
       </c>
       <c r="EW3" t="n">
-        <v>365.263916015625</v>
+        <v>382.0313110351562</v>
       </c>
       <c r="EX3" t="n">
-        <v>363.0778503417969</v>
+        <v>380.5200500488281</v>
       </c>
       <c r="EY3" t="n">
-        <v>361.2332763671875</v>
+        <v>380.3826904296875</v>
       </c>
       <c r="EZ3" t="n">
-        <v>360.9363403320312</v>
+        <v>384.0257568359375</v>
       </c>
       <c r="FA3" t="n">
-        <v>362.2020874023438</v>
+        <v>385.7224426269531</v>
       </c>
       <c r="FB3" t="n">
-        <v>364.6249084472656</v>
+        <v>387.7814331054688</v>
       </c>
       <c r="FC3" t="n">
-        <v>364.6736450195312</v>
+        <v>391.107421875</v>
       </c>
       <c r="FD3" t="n">
-        <v>365.3389587402344</v>
+        <v>394.5040283203125</v>
       </c>
       <c r="FE3" t="n">
-        <v>365.9966735839844</v>
+        <v>395.3790283203125</v>
       </c>
       <c r="FF3" t="n">
-        <v>362.6321411132812</v>
+        <v>397.3829345703125</v>
       </c>
       <c r="FG3" t="n">
-        <v>356.0339660644531</v>
+        <v>395.8088684082031</v>
       </c>
       <c r="FH3" t="n">
-        <v>354.0527954101562</v>
+        <v>393.2438354492188</v>
       </c>
       <c r="FI3" t="n">
-        <v>347.7089538574219</v>
+        <v>391.4695739746094</v>
       </c>
       <c r="FJ3" t="n">
-        <v>345.3402404785156</v>
+        <v>386.6085205078125</v>
       </c>
       <c r="FK3" t="n">
-        <v>348.0383605957031</v>
+        <v>386.4791870117188</v>
       </c>
       <c r="FL3" t="n">
-        <v>348.8880310058594</v>
+        <v>387.3675231933594</v>
       </c>
       <c r="FM3" t="n">
-        <v>338.9075317382812</v>
+        <v>383.6028137207031</v>
       </c>
       <c r="FN3" t="n">
-        <v>345.9085388183594</v>
+        <v>380.1754760742188</v>
       </c>
       <c r="FO3" t="n">
-        <v>346.7991333007812</v>
+        <v>373.5683288574219</v>
       </c>
       <c r="FP3" t="n">
-        <v>349.5097351074219</v>
+        <v>370.6807556152344</v>
       </c>
       <c r="FQ3" t="n">
-        <v>357.2248840332031</v>
+        <v>365.774658203125</v>
       </c>
       <c r="FR3" t="n">
-        <v>359.1714782714844</v>
+        <v>354.4485168457031</v>
       </c>
       <c r="FS3" t="n">
-        <v>363.1028747558594</v>
+        <v>348.4865417480469</v>
       </c>
       <c r="FT3" t="n">
-        <v>362.9637145996094</v>
+        <v>340.1983947753906</v>
       </c>
       <c r="FU3" t="n">
-        <v>363.1058044433594</v>
+        <v>324.447021484375</v>
       </c>
       <c r="FV3" t="n">
-        <v>362.5220947265625</v>
+        <v>305.7999877929688</v>
       </c>
       <c r="FW3" t="n">
-        <v>361.220458984375</v>
+        <v>285.6454467773438</v>
       </c>
       <c r="FX3" t="n">
-        <v>360.5496215820312</v>
+        <v>282.043701171875</v>
       </c>
       <c r="FY3" t="n">
-        <v>359.094482421875</v>
+        <v>276.2149963378906</v>
       </c>
       <c r="FZ3" t="n">
-        <v>356.0967712402344</v>
+        <v>276.1151733398438</v>
       </c>
       <c r="GA3" t="n">
-        <v>353.7284851074219</v>
+        <v>280.9153747558594</v>
       </c>
       <c r="GB3" t="n">
-        <v>356.4621887207031</v>
+        <v>288.8367309570312</v>
       </c>
       <c r="GC3" t="n">
-        <v>356.8994750976562</v>
+        <v>310.6246643066406</v>
       </c>
       <c r="GD3" t="n">
-        <v>358.3605041503906</v>
+        <v>320.5477905273438</v>
       </c>
       <c r="GE3" t="n">
-        <v>358.4986877441406</v>
+        <v>332.8453063964844</v>
       </c>
       <c r="GF3" t="n">
-        <v>358.6261901855469</v>
+        <v>336.1326904296875</v>
       </c>
       <c r="GG3" t="n">
-        <v>360.7643737792969</v>
+        <v>337.6883239746094</v>
       </c>
       <c r="GH3" t="n">
-        <v>361.5135192871094</v>
+        <v>340.1592102050781</v>
       </c>
       <c r="GI3" t="n">
-        <v>361.7455749511719</v>
+        <v>325.9259033203125</v>
       </c>
       <c r="GJ3" t="n">
-        <v>364.5049438476562</v>
+        <v>325.14697265625</v>
       </c>
       <c r="GK3" t="n">
-        <v>361.9464721679688</v>
+        <v>329.2936096191406</v>
       </c>
       <c r="GL3" t="n">
-        <v>358.5965576171875</v>
+        <v>345.6114807128906</v>
       </c>
       <c r="GM3" t="n">
-        <v>358.355712890625</v>
+        <v>378.3977355957031</v>
       </c>
       <c r="GN3" t="n">
-        <v>358.6174926757812</v>
+        <v>401.213623046875</v>
       </c>
       <c r="GO3" t="n">
-        <v>358.2796325683594</v>
+        <v>434.0896301269531</v>
       </c>
       <c r="GP3" t="n">
-        <v>359.2737121582031</v>
+        <v>448.8050231933594</v>
       </c>
       <c r="GQ3" t="n">
-        <v>356.9555969238281</v>
+        <v>452.8544921875</v>
       </c>
       <c r="GR3" t="n">
-        <v>356.7442932128906</v>
+        <v>457.7306213378906</v>
       </c>
       <c r="GS3" t="n">
-        <v>353.9075622558594</v>
+        <v>464.2375183105469</v>
       </c>
       <c r="GT3" t="n">
-        <v>352.5104370117188</v>
+        <v>468.5255432128906</v>
       </c>
       <c r="GU3" t="n">
-        <v>346.0327758789062</v>
+        <v>470.9957275390625</v>
       </c>
       <c r="GV3" t="n">
-        <v>349.6239624023438</v>
+        <v>470.1335754394531</v>
       </c>
       <c r="GW3" t="n">
-        <v>351.4128723144531</v>
+        <v>464.2076110839844</v>
       </c>
       <c r="GX3" t="n">
-        <v>348.1758728027344</v>
+        <v>452.7359008789062</v>
       </c>
       <c r="GY3" t="n">
-        <v>347.2144165039062</v>
+        <v>442.8218994140625</v>
       </c>
       <c r="GZ3" t="n">
-        <v>346.8243408203125</v>
+        <v>434.5866088867188</v>
       </c>
       <c r="HA3" t="n">
-        <v>346.5928039550781</v>
+        <v>439.9754028320312</v>
       </c>
       <c r="HB3" t="n">
-        <v>347.12109375</v>
+        <v>439.7719421386719</v>
       </c>
       <c r="HC3" t="n">
-        <v>342.0972900390625</v>
+        <v>423.0245666503906</v>
       </c>
       <c r="HD3" t="n">
-        <v>335.8314819335938</v>
+        <v>424.5973205566406</v>
       </c>
       <c r="HE3" t="n">
-        <v>338.5852355957031</v>
+        <v>426.1859130859375</v>
       </c>
       <c r="HF3" t="n">
-        <v>339.4243469238281</v>
+        <v>434.7623596191406</v>
       </c>
       <c r="HG3" t="n">
-        <v>255.1201019287109</v>
+        <v>451.0975341796875</v>
       </c>
       <c r="HH3" t="n">
-        <v>336.6107177734375</v>
+        <v>458.5695190429688</v>
       </c>
       <c r="HI3" t="n">
-        <v>348.0801086425781</v>
+        <v>479.5753479003906</v>
       </c>
       <c r="HJ3" t="n">
-        <v>349.45849609375</v>
+        <v>496.0238037109375</v>
       </c>
       <c r="HK3" t="n">
-        <v>349.3466186523438</v>
+        <v>510.9789733886719</v>
       </c>
       <c r="HL3" t="n">
-        <v>348.24560546875</v>
+        <v>509.0131225585938</v>
       </c>
       <c r="HM3" t="n">
-        <v>349.5411071777344</v>
+        <v>501.1434326171875</v>
       </c>
       <c r="HN3" t="n">
-        <v>356.9788513183594</v>
+        <v>493.9596862792969</v>
       </c>
       <c r="HO3" t="n">
-        <v>358.0945434570312</v>
+        <v>469.5635375976562</v>
       </c>
       <c r="HP3" t="n">
-        <v>359.3387145996094</v>
+        <v>464.1219177246094</v>
       </c>
       <c r="HQ3" t="n">
-        <v>358.6828308105469</v>
+        <v>461.0748596191406</v>
       </c>
       <c r="HR3" t="n">
-        <v>359.1165771484375</v>
+        <v>465.0345458984375</v>
       </c>
       <c r="HS3" t="n">
-        <v>358.4644775390625</v>
+        <v>479.6343994140625</v>
       </c>
       <c r="HT3" t="n">
-        <v>357.7117614746094</v>
+        <v>490.4211120605469</v>
       </c>
       <c r="HU3" t="n">
-        <v>358.4116821289062</v>
+        <v>489.0537109375</v>
       </c>
       <c r="HV3" t="n">
-        <v>356.6926879882812</v>
+        <v>504.7623291015625</v>
       </c>
       <c r="HW3" t="n">
-        <v>358.5253601074219</v>
+        <v>528.021728515625</v>
       </c>
       <c r="HX3" t="n">
-        <v>362.1804504394531</v>
+        <v>559.8513793945312</v>
       </c>
       <c r="HY3" t="n">
-        <v>364.9714965820312</v>
+        <v>536.5109252929688</v>
       </c>
       <c r="HZ3" t="n">
-        <v>369.5596313476562</v>
+        <v>557.57373046875</v>
       </c>
       <c r="IA3" t="n">
-        <v>368.8806762695312</v>
+        <v>545.2115478515625</v>
       </c>
       <c r="IB3" t="n">
-        <v>369.31640625</v>
+        <v>526.8147583007812</v>
       </c>
       <c r="IC3" t="n">
-        <v>369.7247314453125</v>
+        <v>516.1466674804688</v>
       </c>
       <c r="ID3" t="n">
-        <v>371.5053100585938</v>
+        <v>496.7880859375</v>
       </c>
       <c r="IE3" t="n">
-        <v>370.7034301757812</v>
+        <v>478.4113159179688</v>
       </c>
       <c r="IF3" t="n">
-        <v>369.4942016601562</v>
+        <v>457.1979675292969</v>
       </c>
       <c r="IG3" t="n">
-        <v>370.3929748535156</v>
+        <v>453.6562194824219</v>
       </c>
       <c r="IH3" t="n">
-        <v>369.3516235351562</v>
+        <v>451.6167602539062</v>
       </c>
       <c r="II3" t="n">
-        <v>369.7254943847656</v>
+        <v>451.5569763183594</v>
       </c>
       <c r="IJ3" t="n">
-        <v>368.8447570800781</v>
+        <v>457.4585266113281</v>
       </c>
       <c r="IK3" t="n">
-        <v>368.3656311035156</v>
+        <v>455.0977783203125</v>
       </c>
       <c r="IL3" t="n">
-        <v>366.8683776855469</v>
+        <v>447.9529724121094</v>
       </c>
       <c r="IM3" t="n">
-        <v>366.376708984375</v>
+        <v>446.301025390625</v>
       </c>
       <c r="IN3" t="n">
-        <v>367.7882385253906</v>
+        <v>373.4105834960938</v>
       </c>
       <c r="IO3" t="n">
-        <v>365.9602966308594</v>
+        <v>360.1705017089844</v>
       </c>
       <c r="IP3" t="n">
-        <v>365.4551391601562</v>
+        <v>405.7129821777344</v>
       </c>
       <c r="IQ3" t="n">
-        <v>362.7516479492188</v>
+        <v>363.2005920410156</v>
       </c>
       <c r="IR3" t="n">
-        <v>358.3792419433594</v>
+        <v>350.544677734375</v>
       </c>
       <c r="IS3" t="n">
-        <v>357.7489929199219</v>
+        <v>348.1078491210938</v>
       </c>
       <c r="IT3" t="n">
-        <v>354.1210327148438</v>
+        <v>387.3812561035156</v>
       </c>
       <c r="IU3" t="n">
-        <v>354.2868347167969</v>
+        <v>425.1314697265625</v>
       </c>
       <c r="IV3" t="n">
-        <v>353.0391540527344</v>
+        <v>429.8854370117188</v>
       </c>
       <c r="IW3" t="n">
-        <v>352.4305725097656</v>
+        <v>436.6768493652344</v>
       </c>
       <c r="IX3" t="n">
-        <v>349.9009704589844</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>347.0569152832031</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>346.0350341796875</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>345.5787353515625</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>347.3976135253906</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>351.7313537597656</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>352.0240783691406</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>351.0530700683594</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>349.8003234863281</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>354.9971923828125</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>359.3991088867188</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>356.1785278320312</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>357.5592346191406</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>356.3485717773438</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>350.632568359375</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>356.3030395507812</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>357.1372985839844</v>
-      </c>
-      <c r="JO3" t="n">
-        <v>358.0018615722656</v>
-      </c>
-      <c r="JP3" t="n">
-        <v>358.2283935546875</v>
-      </c>
-      <c r="JQ3" t="n">
-        <v>357.670166015625</v>
-      </c>
-      <c r="JR3" t="n">
-        <v>359.140380859375</v>
-      </c>
-      <c r="JS3" t="n">
-        <v>360.1569519042969</v>
-      </c>
-      <c r="JT3" t="n">
-        <v>360.4176330566406</v>
-      </c>
-      <c r="JU3" t="n">
-        <v>360.9194946289062</v>
-      </c>
-      <c r="JV3" t="n">
-        <v>361.4847717285156</v>
-      </c>
-      <c r="JW3" t="n">
-        <v>362.5857849121094</v>
-      </c>
-      <c r="JX3" t="n">
-        <v>363.6310729980469</v>
-      </c>
-      <c r="JY3" t="n">
-        <v>364.1909484863281</v>
-      </c>
-      <c r="JZ3" t="n">
-        <v>364.0108947753906</v>
-      </c>
-      <c r="KA3" t="n">
-        <v>361.0874328613281</v>
-      </c>
-      <c r="KB3" t="n">
-        <v>352.6120910644531</v>
-      </c>
-      <c r="KC3" t="n">
-        <v>332.6201171875</v>
-      </c>
-      <c r="KD3" t="n">
-        <v>309.0349426269531</v>
-      </c>
-      <c r="KE3" t="n">
-        <v>269.2727661132812</v>
-      </c>
-      <c r="KF3" t="n">
-        <v>255.3951873779297</v>
-      </c>
-      <c r="KG3" t="n">
-        <v>239.2039947509766</v>
-      </c>
-      <c r="KH3" t="n">
-        <v>233.1513366699219</v>
-      </c>
-      <c r="KI3" t="n">
-        <v>234.3516540527344</v>
-      </c>
-      <c r="KJ3" t="n">
-        <v>247.3842163085938</v>
-      </c>
-      <c r="KK3" t="n">
-        <v>257.9190063476562</v>
-      </c>
-      <c r="KL3" t="n">
-        <v>270.2536926269531</v>
-      </c>
-      <c r="KM3" t="n">
-        <v>284.3200378417969</v>
-      </c>
-      <c r="KN3" t="n">
-        <v>300.6094665527344</v>
-      </c>
-      <c r="KO3" t="n">
-        <v>314.5357971191406</v>
-      </c>
-      <c r="KP3" t="n">
-        <v>336.6064758300781</v>
-      </c>
-      <c r="KQ3" t="n">
-        <v>355.2319641113281</v>
-      </c>
-      <c r="KR3" t="n">
-        <v>359.3706359863281</v>
-      </c>
-      <c r="KS3" t="n">
-        <v>361.9925537109375</v>
-      </c>
-      <c r="KT3" t="n">
-        <v>363.0494384765625</v>
-      </c>
-      <c r="KU3" t="n">
-        <v>362.0753479003906</v>
-      </c>
-      <c r="KV3" t="n">
-        <v>362.7115478515625</v>
-      </c>
-      <c r="KW3" t="n">
-        <v>362.5566711425781</v>
-      </c>
-      <c r="KX3" t="n">
-        <v>361.5306701660156</v>
-      </c>
-      <c r="KY3" t="n">
-        <v>362.7754211425781</v>
-      </c>
-      <c r="KZ3" t="n">
-        <v>360.0810241699219</v>
-      </c>
-      <c r="LA3" t="n">
-        <v>361.0801086425781</v>
-      </c>
-      <c r="LB3" t="n">
-        <v>360.6067504882812</v>
-      </c>
-      <c r="LC3" t="n">
-        <v>361.1666564941406</v>
-      </c>
-      <c r="LD3" t="n">
-        <v>362.1095581054688</v>
-      </c>
-      <c r="LE3" t="n">
-        <v>362.0409851074219</v>
-      </c>
-      <c r="LF3" t="n">
-        <v>365.4274597167969</v>
-      </c>
-      <c r="LG3" t="n">
-        <v>367.9004821777344</v>
-      </c>
-      <c r="LH3" t="n">
-        <v>368.6450805664062</v>
-      </c>
-      <c r="LI3" t="n">
-        <v>368.9951171875</v>
-      </c>
-      <c r="LJ3" t="n">
-        <v>370.2693176269531</v>
-      </c>
-      <c r="LK3" t="n">
-        <v>369.5445556640625</v>
-      </c>
-      <c r="LL3" t="n">
-        <v>369.5425720214844</v>
-      </c>
-      <c r="LM3" t="n">
-        <v>368.8350524902344</v>
-      </c>
-      <c r="LN3" t="n">
-        <v>367.4998474121094</v>
-      </c>
-      <c r="LO3" t="n">
-        <v>369.9034423828125</v>
-      </c>
-      <c r="LP3" t="n">
-        <v>374.0366821289062</v>
-      </c>
-      <c r="LQ3" t="n">
-        <v>383.1828308105469</v>
-      </c>
-      <c r="LR3" t="n">
-        <v>398.5277709960938</v>
-      </c>
-      <c r="LS3" t="n">
-        <v>407.99609375</v>
-      </c>
-      <c r="LT3" t="n">
-        <v>394.4841003417969</v>
-      </c>
-      <c r="LU3" t="n">
-        <v>397.2386169433594</v>
-      </c>
-      <c r="LV3" t="n">
-        <v>428.4511413574219</v>
-      </c>
-      <c r="LW3" t="n">
-        <v>411.2490234375</v>
-      </c>
-      <c r="LX3" t="n">
-        <v>442.7401123046875</v>
-      </c>
-      <c r="LY3" t="n">
-        <v>453.7603454589844</v>
-      </c>
-      <c r="LZ3" t="n">
-        <v>444.5311279296875</v>
-      </c>
-      <c r="MA3" t="n">
-        <v>444.3988342285156</v>
-      </c>
-      <c r="MB3" t="n">
-        <v>443.4739074707031</v>
-      </c>
-      <c r="MC3" t="n">
-        <v>445.1842651367188</v>
-      </c>
-      <c r="MD3" t="n">
-        <v>433.7827453613281</v>
-      </c>
-      <c r="ME3" t="n">
-        <v>422.1691589355469</v>
-      </c>
-      <c r="MF3" t="n">
-        <v>417.0494995117188</v>
-      </c>
-      <c r="MG3" t="n">
-        <v>437.04541015625</v>
-      </c>
-      <c r="MH3" t="n">
-        <v>454.83740234375</v>
-      </c>
-      <c r="MI3" t="n">
-        <v>460.9823913574219</v>
-      </c>
-      <c r="MJ3" t="n">
-        <v>474.2619934082031</v>
-      </c>
-      <c r="MK3" t="n">
-        <v>463.0042419433594</v>
-      </c>
-      <c r="ML3" t="n">
-        <v>439.9802551269531</v>
-      </c>
-      <c r="MM3" t="n">
-        <v>363.8619079589844</v>
-      </c>
-      <c r="MN3" t="n">
-        <v>381.8605041503906</v>
-      </c>
-      <c r="MO3" t="n">
-        <v>401.5109252929688</v>
-      </c>
-      <c r="MP3" t="n">
-        <v>486.2822265625</v>
-      </c>
-      <c r="MQ3" t="n">
-        <v>492.2218933105469</v>
-      </c>
-      <c r="MR3" t="n">
-        <v>374.2441101074219</v>
-      </c>
-      <c r="MS3" t="n">
-        <v>279.0672912597656</v>
-      </c>
-      <c r="MT3" t="n">
-        <v>698.3303833007812</v>
-      </c>
-      <c r="MU3" t="n">
-        <v>375.7589721679688</v>
-      </c>
-      <c r="MV3" t="n">
-        <v>327.8240661621094</v>
-      </c>
-      <c r="MW3" t="n">
-        <v>285.9134521484375</v>
-      </c>
-      <c r="MX3" t="n">
-        <v>225.1432647705078</v>
-      </c>
-      <c r="MY3" t="n">
-        <v>276.0995483398438</v>
-      </c>
-      <c r="MZ3" t="n">
-        <v>332.6570739746094</v>
-      </c>
-      <c r="NA3" t="n">
-        <v>352.4579467773438</v>
-      </c>
-      <c r="NB3" t="n">
-        <v>421.7674865722656</v>
-      </c>
-      <c r="NC3" t="n">
-        <v>562.6409301757812</v>
-      </c>
-      <c r="ND3" t="n">
-        <v>619.474365234375</v>
-      </c>
-      <c r="NE3" t="n">
-        <v>626.4850463867188</v>
-      </c>
-      <c r="NF3" t="n">
-        <v>623.0558471679688</v>
-      </c>
-      <c r="NG3" t="n">
-        <v>623.0634765625</v>
-      </c>
-      <c r="NH3" t="n">
-        <v>585.8621826171875</v>
-      </c>
-      <c r="NI3" t="n">
-        <v>526.4439697265625</v>
-      </c>
-      <c r="NJ3" t="n">
-        <v>461.7834167480469</v>
-      </c>
-      <c r="NK3" t="n">
-        <v>457.2069702148438</v>
-      </c>
-      <c r="NL3" t="n">
-        <v>438.2623291015625</v>
-      </c>
-      <c r="NM3" t="n">
-        <v>471.8317260742188</v>
+        <v>460.4789733886719</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>997.808837890625</v>
+        <v>980.9432983398438</v>
       </c>
       <c r="B4" t="n">
-        <v>1020.5283203125</v>
+        <v>1007.158264160156</v>
       </c>
       <c r="C4" t="n">
-        <v>1031.765869140625</v>
+        <v>1029.452514648438</v>
       </c>
       <c r="D4" t="n">
-        <v>1032.4267578125</v>
+        <v>1039.492919921875</v>
       </c>
       <c r="E4" t="n">
-        <v>1025.263916015625</v>
+        <v>1032.790283203125</v>
       </c>
       <c r="F4" t="n">
-        <v>1010.829345703125</v>
+        <v>1039.98974609375</v>
       </c>
       <c r="G4" t="n">
-        <v>1005.67041015625</v>
+        <v>1055.368530273438</v>
       </c>
       <c r="H4" t="n">
-        <v>1008.569580078125</v>
+        <v>1066.473266601562</v>
       </c>
       <c r="I4" t="n">
-        <v>1010.093566894531</v>
+        <v>1061.8369140625</v>
       </c>
       <c r="J4" t="n">
-        <v>1007.075622558594</v>
+        <v>1064.705444335938</v>
       </c>
       <c r="K4" t="n">
-        <v>999.0570068359375</v>
+        <v>1065.891967773438</v>
       </c>
       <c r="L4" t="n">
-        <v>992.1766967773438</v>
+        <v>1067.466796875</v>
       </c>
       <c r="M4" t="n">
-        <v>996.3233642578125</v>
+        <v>1073.516967773438</v>
       </c>
       <c r="N4" t="n">
-        <v>1001.32861328125</v>
+        <v>1090.23291015625</v>
       </c>
       <c r="O4" t="n">
-        <v>1033.472412109375</v>
+        <v>1358.551147460938</v>
       </c>
       <c r="P4" t="n">
-        <v>1049.936401367188</v>
+        <v>1386.965209960938</v>
       </c>
       <c r="Q4" t="n">
-        <v>1067.138793945312</v>
+        <v>1418.931396484375</v>
       </c>
       <c r="R4" t="n">
-        <v>1084.883544921875</v>
+        <v>1438.31201171875</v>
       </c>
       <c r="S4" t="n">
-        <v>1101.820434570312</v>
+        <v>1460.841918945312</v>
       </c>
       <c r="T4" t="n">
-        <v>1123.9296875</v>
+        <v>1477.773071289062</v>
       </c>
       <c r="U4" t="n">
-        <v>1132.163452148438</v>
+        <v>1499.83935546875</v>
       </c>
       <c r="V4" t="n">
-        <v>1118.528564453125</v>
+        <v>1510.687377929688</v>
       </c>
       <c r="W4" t="n">
-        <v>1102.857055664062</v>
+        <v>1520.845092773438</v>
       </c>
       <c r="X4" t="n">
-        <v>1092.563110351562</v>
+        <v>1537.799560546875</v>
       </c>
       <c r="Y4" t="n">
-        <v>1079.8125</v>
+        <v>1568.367431640625</v>
       </c>
       <c r="Z4" t="n">
-        <v>1080.741455078125</v>
+        <v>1591.85107421875</v>
       </c>
       <c r="AA4" t="n">
-        <v>1085.8974609375</v>
+        <v>1611.55517578125</v>
       </c>
       <c r="AB4" t="n">
-        <v>1104.196044921875</v>
+        <v>1632.098388671875</v>
       </c>
       <c r="AC4" t="n">
-        <v>1121.681640625</v>
+        <v>1655.264404296875</v>
       </c>
       <c r="AD4" t="n">
-        <v>1145.416748046875</v>
+        <v>1671.109252929688</v>
       </c>
       <c r="AE4" t="n">
-        <v>1172.961181640625</v>
+        <v>1686.423095703125</v>
       </c>
       <c r="AF4" t="n">
-        <v>1199.837768554688</v>
+        <v>1714.729614257812</v>
       </c>
       <c r="AG4" t="n">
-        <v>1219.862915039062</v>
+        <v>1733.709838867188</v>
       </c>
       <c r="AH4" t="n">
-        <v>1252.963134765625</v>
+        <v>1752.441528320312</v>
       </c>
       <c r="AI4" t="n">
-        <v>1276.219360351562</v>
+        <v>1775.69580078125</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1283.592529296875</v>
+        <v>1793.36572265625</v>
       </c>
       <c r="AK4" t="n">
-        <v>1293.167846679688</v>
+        <v>1810.726928710938</v>
       </c>
       <c r="AL4" t="n">
-        <v>1304.757446289062</v>
+        <v>1812.5751953125</v>
       </c>
       <c r="AM4" t="n">
-        <v>1302.195190429688</v>
+        <v>1812.341064453125</v>
       </c>
       <c r="AN4" t="n">
-        <v>1312.236206054688</v>
+        <v>1814.814819335938</v>
       </c>
       <c r="AO4" t="n">
-        <v>1331.159301757812</v>
+        <v>1827.613037109375</v>
       </c>
       <c r="AP4" t="n">
-        <v>1338.621337890625</v>
+        <v>1838.33154296875</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1349.841552734375</v>
+        <v>1843.688598632812</v>
       </c>
       <c r="AR4" t="n">
-        <v>1361.340087890625</v>
+        <v>1849.178588867188</v>
       </c>
       <c r="AS4" t="n">
-        <v>1366.359375</v>
+        <v>1849.03759765625</v>
       </c>
       <c r="AT4" t="n">
-        <v>1363.2666015625</v>
+        <v>1849.379760742188</v>
       </c>
       <c r="AU4" t="n">
-        <v>1353.578735351562</v>
+        <v>1845.361694335938</v>
       </c>
       <c r="AV4" t="n">
-        <v>1316.85498046875</v>
+        <v>1837.247802734375</v>
       </c>
       <c r="AW4" t="n">
-        <v>1277.630737304688</v>
+        <v>1821.177734375</v>
       </c>
       <c r="AX4" t="n">
-        <v>1246.074340820312</v>
+        <v>1809.2861328125</v>
       </c>
       <c r="AY4" t="n">
-        <v>1219.453002929688</v>
+        <v>1799.21337890625</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1177.397338867188</v>
+        <v>1793.896118164062</v>
       </c>
       <c r="BA4" t="n">
-        <v>1141.293090820312</v>
+        <v>1826.787353515625</v>
       </c>
       <c r="BB4" t="n">
-        <v>1117.2783203125</v>
+        <v>1832.353149414062</v>
       </c>
       <c r="BC4" t="n">
-        <v>1104.549072265625</v>
+        <v>1856.3203125</v>
       </c>
       <c r="BD4" t="n">
-        <v>1095.80908203125</v>
+        <v>1937.45849609375</v>
       </c>
       <c r="BE4" t="n">
-        <v>1087.756713867188</v>
+        <v>1945.92822265625</v>
       </c>
       <c r="BF4" t="n">
-        <v>1077.70458984375</v>
+        <v>1913.320068359375</v>
       </c>
       <c r="BG4" t="n">
-        <v>1078.3857421875</v>
+        <v>1957.9404296875</v>
       </c>
       <c r="BH4" t="n">
-        <v>1078.57470703125</v>
+        <v>1953.053588867188</v>
       </c>
       <c r="BI4" t="n">
-        <v>1071.49169921875</v>
+        <v>1927.032836914062</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1065.563720703125</v>
+        <v>1948.434814453125</v>
       </c>
       <c r="BK4" t="n">
-        <v>1067.538330078125</v>
+        <v>1944.360229492188</v>
       </c>
       <c r="BL4" t="n">
-        <v>1073.85986328125</v>
+        <v>1943.476196289062</v>
       </c>
       <c r="BM4" t="n">
-        <v>1083.50634765625</v>
+        <v>1944.762451171875</v>
       </c>
       <c r="BN4" t="n">
-        <v>1085.043701171875</v>
+        <v>1944.64208984375</v>
       </c>
       <c r="BO4" t="n">
-        <v>1076.29833984375</v>
+        <v>1944.2822265625</v>
       </c>
       <c r="BP4" t="n">
-        <v>1071.0234375</v>
+        <v>1939.707885742188</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1069.74365234375</v>
+        <v>1938.195068359375</v>
       </c>
       <c r="BR4" t="n">
-        <v>1069.673828125</v>
+        <v>1937.394775390625</v>
       </c>
       <c r="BS4" t="n">
-        <v>1067.8154296875</v>
+        <v>1938.662475585938</v>
       </c>
       <c r="BT4" t="n">
-        <v>1069.310791015625</v>
+        <v>1943.147705078125</v>
       </c>
       <c r="BU4" t="n">
-        <v>1070.386962890625</v>
+        <v>1942.71142578125</v>
       </c>
       <c r="BV4" t="n">
-        <v>1071.405517578125</v>
+        <v>1928.099365234375</v>
       </c>
       <c r="BW4" t="n">
-        <v>1071.763916015625</v>
+        <v>1909.303955078125</v>
       </c>
       <c r="BX4" t="n">
-        <v>1072.223022460938</v>
+        <v>1904.658813476562</v>
       </c>
       <c r="BY4" t="n">
-        <v>1072.4248046875</v>
+        <v>1908.71484375</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1070.704711914062</v>
+        <v>1917.493286132812</v>
       </c>
       <c r="CA4" t="n">
-        <v>1068.093994140625</v>
+        <v>1910.7265625</v>
       </c>
       <c r="CB4" t="n">
-        <v>1065.630981445312</v>
+        <v>1884.082763671875</v>
       </c>
       <c r="CC4" t="n">
-        <v>1062.869995117188</v>
+        <v>1885.097045898438</v>
       </c>
       <c r="CD4" t="n">
-        <v>1065.095825195312</v>
+        <v>1885.994750976562</v>
       </c>
       <c r="CE4" t="n">
-        <v>1060.902587890625</v>
+        <v>1882.775634765625</v>
       </c>
       <c r="CF4" t="n">
-        <v>1054.891845703125</v>
+        <v>1878.150634765625</v>
       </c>
       <c r="CG4" t="n">
-        <v>1051.729614257812</v>
+        <v>1875.806518554688</v>
       </c>
       <c r="CH4" t="n">
-        <v>1048.06396484375</v>
+        <v>1874.300903320312</v>
       </c>
       <c r="CI4" t="n">
-        <v>1047.781005859375</v>
+        <v>1873.3798828125</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1044.421630859375</v>
+        <v>1871.91943359375</v>
       </c>
       <c r="CK4" t="n">
-        <v>1043.894287109375</v>
+        <v>1870.287109375</v>
       </c>
       <c r="CL4" t="n">
-        <v>1037.793701171875</v>
+        <v>1868.008666992188</v>
       </c>
       <c r="CM4" t="n">
-        <v>1029.522216796875</v>
+        <v>1864.07568359375</v>
       </c>
       <c r="CN4" t="n">
-        <v>1021.237060546875</v>
+        <v>1863.7705078125</v>
       </c>
       <c r="CO4" t="n">
-        <v>1010.683471679688</v>
+        <v>1861.658935546875</v>
       </c>
       <c r="CP4" t="n">
-        <v>983.402099609375</v>
+        <v>1858.872802734375</v>
       </c>
       <c r="CQ4" t="n">
-        <v>961.10693359375</v>
+        <v>1856.2001953125</v>
       </c>
       <c r="CR4" t="n">
-        <v>949.7673950195312</v>
+        <v>1855.280639648438</v>
       </c>
       <c r="CS4" t="n">
-        <v>932.4855346679688</v>
+        <v>1857.277587890625</v>
       </c>
       <c r="CT4" t="n">
-        <v>925.8244018554688</v>
+        <v>1859.086181640625</v>
       </c>
       <c r="CU4" t="n">
-        <v>940.07568359375</v>
+        <v>1861.052001953125</v>
       </c>
       <c r="CV4" t="n">
-        <v>950.3599853515625</v>
+        <v>1859.314208984375</v>
       </c>
       <c r="CW4" t="n">
-        <v>970.3463745117188</v>
+        <v>1860.157470703125</v>
       </c>
       <c r="CX4" t="n">
-        <v>1020.405029296875</v>
+        <v>1863.180786132812</v>
       </c>
       <c r="CY4" t="n">
-        <v>1035.059936523438</v>
+        <v>1876.838012695312</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1075.421142578125</v>
+        <v>1874.6298828125</v>
       </c>
       <c r="DA4" t="n">
-        <v>1093.83984375</v>
+        <v>1872.362670898438</v>
       </c>
       <c r="DB4" t="n">
-        <v>1108.744384765625</v>
+        <v>1875.065795898438</v>
       </c>
       <c r="DC4" t="n">
-        <v>1117.655883789062</v>
+        <v>1858.82275390625</v>
       </c>
       <c r="DD4" t="n">
-        <v>1133.852905273438</v>
+        <v>1859.89404296875</v>
       </c>
       <c r="DE4" t="n">
-        <v>1144.328125</v>
+        <v>1855.755249023438</v>
       </c>
       <c r="DF4" t="n">
-        <v>1142.284545898438</v>
+        <v>1862.244873046875</v>
       </c>
       <c r="DG4" t="n">
-        <v>1138.489624023438</v>
+        <v>1864.961791992188</v>
       </c>
       <c r="DH4" t="n">
-        <v>1114.632446289062</v>
+        <v>1829.227294921875</v>
       </c>
       <c r="DI4" t="n">
-        <v>1108.537353515625</v>
+        <v>1837.2919921875</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1101.583251953125</v>
+        <v>1845.463989257812</v>
       </c>
       <c r="DK4" t="n">
-        <v>1098.726440429688</v>
+        <v>1828.34033203125</v>
       </c>
       <c r="DL4" t="n">
-        <v>1098.8310546875</v>
+        <v>1822.514770507812</v>
       </c>
       <c r="DM4" t="n">
-        <v>1102.252319335938</v>
+        <v>1809.611328125</v>
       </c>
       <c r="DN4" t="n">
-        <v>1101.799194335938</v>
+        <v>1808.393310546875</v>
       </c>
       <c r="DO4" t="n">
-        <v>1096.912841796875</v>
+        <v>1806.074096679688</v>
       </c>
       <c r="DP4" t="n">
-        <v>1091.695556640625</v>
+        <v>1787.050048828125</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1082.724487304688</v>
+        <v>1760.550537109375</v>
       </c>
       <c r="DR4" t="n">
-        <v>1078.417358398438</v>
+        <v>1767.521728515625</v>
       </c>
       <c r="DS4" t="n">
-        <v>1077.145874023438</v>
+        <v>1771.653930664062</v>
       </c>
       <c r="DT4" t="n">
-        <v>1067.273559570312</v>
+        <v>1755.843994140625</v>
       </c>
       <c r="DU4" t="n">
-        <v>1056.30615234375</v>
+        <v>1751.157348632812</v>
       </c>
       <c r="DV4" t="n">
-        <v>1056.125610351562</v>
+        <v>1749.845825195312</v>
       </c>
       <c r="DW4" t="n">
-        <v>1054.289672851562</v>
+        <v>1750.024658203125</v>
       </c>
       <c r="DX4" t="n">
-        <v>1054.765502929688</v>
+        <v>1749.26513671875</v>
       </c>
       <c r="DY4" t="n">
-        <v>1058.826293945312</v>
+        <v>1740.819946289062</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1072.489379882812</v>
+        <v>1758.147338867188</v>
       </c>
       <c r="EA4" t="n">
-        <v>1077.250732421875</v>
+        <v>1760.932006835938</v>
       </c>
       <c r="EB4" t="n">
-        <v>1080.029296875</v>
+        <v>1778.982299804688</v>
       </c>
       <c r="EC4" t="n">
-        <v>1078.571533203125</v>
+        <v>1802.096923828125</v>
       </c>
       <c r="ED4" t="n">
-        <v>1082.771606445312</v>
+        <v>1851.123779296875</v>
       </c>
       <c r="EE4" t="n">
-        <v>1107.348388671875</v>
+        <v>1895.481323242188</v>
       </c>
       <c r="EF4" t="n">
-        <v>1115.966430664062</v>
+        <v>1960.669067382812</v>
       </c>
       <c r="EG4" t="n">
-        <v>1141.008911132812</v>
+        <v>1972.979370117188</v>
       </c>
       <c r="EH4" t="n">
-        <v>1161.33251953125</v>
+        <v>1996.354858398438</v>
       </c>
       <c r="EI4" t="n">
-        <v>1185.408813476562</v>
+        <v>1988.87841796875</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1198.6474609375</v>
+        <v>1989.62646484375</v>
       </c>
       <c r="EK4" t="n">
-        <v>1220.832275390625</v>
+        <v>1985.274291992188</v>
       </c>
       <c r="EL4" t="n">
-        <v>1237.861328125</v>
+        <v>1949.683471679688</v>
       </c>
       <c r="EM4" t="n">
-        <v>1263.1357421875</v>
+        <v>1940.447143554688</v>
       </c>
       <c r="EN4" t="n">
-        <v>1274.59521484375</v>
+        <v>1931.420776367188</v>
       </c>
       <c r="EO4" t="n">
-        <v>1296.009765625</v>
+        <v>1889.278198242188</v>
       </c>
       <c r="EP4" t="n">
-        <v>1308.969604492188</v>
+        <v>1876.942626953125</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1349.5263671875</v>
+        <v>1854.108032226562</v>
       </c>
       <c r="ER4" t="n">
-        <v>1376.65283203125</v>
+        <v>1836.455810546875</v>
       </c>
       <c r="ES4" t="n">
-        <v>1424.389038085938</v>
+        <v>1835.551147460938</v>
       </c>
       <c r="ET4" t="n">
-        <v>1454.796264648438</v>
+        <v>1834.932739257812</v>
       </c>
       <c r="EU4" t="n">
-        <v>1470.474487304688</v>
+        <v>1837.484985351562</v>
       </c>
       <c r="EV4" t="n">
-        <v>1516.816162109375</v>
+        <v>1870.979125976562</v>
       </c>
       <c r="EW4" t="n">
-        <v>1604.20166015625</v>
+        <v>1875.426147460938</v>
       </c>
       <c r="EX4" t="n">
-        <v>1651.399780273438</v>
+        <v>1875.366821289062</v>
       </c>
       <c r="EY4" t="n">
-        <v>1684.415649414062</v>
+        <v>1876.0888671875</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1696.236083984375</v>
+        <v>1864.115600585938</v>
       </c>
       <c r="FA4" t="n">
-        <v>1720.505615234375</v>
+        <v>1853.344604492188</v>
       </c>
       <c r="FB4" t="n">
-        <v>1726.997924804688</v>
+        <v>1823.55712890625</v>
       </c>
       <c r="FC4" t="n">
-        <v>1729.824951171875</v>
+        <v>1757.535278320312</v>
       </c>
       <c r="FD4" t="n">
-        <v>1746.13623046875</v>
+        <v>1690.324340820312</v>
       </c>
       <c r="FE4" t="n">
-        <v>1751.282470703125</v>
+        <v>1664.002563476562</v>
       </c>
       <c r="FF4" t="n">
-        <v>1761.011474609375</v>
+        <v>1580.581909179688</v>
       </c>
       <c r="FG4" t="n">
-        <v>1772.022827148438</v>
+        <v>1549.226196289062</v>
       </c>
       <c r="FH4" t="n">
-        <v>1779.35009765625</v>
+        <v>1485.878784179688</v>
       </c>
       <c r="FI4" t="n">
-        <v>1789.948486328125</v>
+        <v>1457.215576171875</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1793.581787109375</v>
+        <v>1411.986572265625</v>
       </c>
       <c r="FK4" t="n">
-        <v>1833.361328125</v>
+        <v>1378.913330078125</v>
       </c>
       <c r="FL4" t="n">
-        <v>1863.429077148438</v>
+        <v>1366.356201171875</v>
       </c>
       <c r="FM4" t="n">
-        <v>1925.416015625</v>
+        <v>1340.186889648438</v>
       </c>
       <c r="FN4" t="n">
-        <v>1960.986450195312</v>
+        <v>1329.257202148438</v>
       </c>
       <c r="FO4" t="n">
-        <v>1981.565185546875</v>
+        <v>1314.582153320312</v>
       </c>
       <c r="FP4" t="n">
-        <v>2069.723876953125</v>
+        <v>1306.993286132812</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2074.48828125</v>
+        <v>1302.019775390625</v>
       </c>
       <c r="FR4" t="n">
-        <v>2114.931396484375</v>
+        <v>1272.586181640625</v>
       </c>
       <c r="FS4" t="n">
-        <v>2148.90478515625</v>
+        <v>1256.779541015625</v>
       </c>
       <c r="FT4" t="n">
-        <v>2163.235595703125</v>
+        <v>1234.195068359375</v>
       </c>
       <c r="FU4" t="n">
-        <v>2153.40478515625</v>
+        <v>1212.154418945312</v>
       </c>
       <c r="FV4" t="n">
-        <v>2151.092041015625</v>
+        <v>1191.682983398438</v>
       </c>
       <c r="FW4" t="n">
-        <v>2132.51708984375</v>
+        <v>1151.078857421875</v>
       </c>
       <c r="FX4" t="n">
-        <v>2132.54638671875</v>
+        <v>1142.137084960938</v>
       </c>
       <c r="FY4" t="n">
-        <v>2127.5634765625</v>
+        <v>1106.442626953125</v>
       </c>
       <c r="FZ4" t="n">
-        <v>2126.296142578125</v>
+        <v>1090.639892578125</v>
       </c>
       <c r="GA4" t="n">
-        <v>2127.106689453125</v>
+        <v>1055.493408203125</v>
       </c>
       <c r="GB4" t="n">
-        <v>2118.9296875</v>
+        <v>1038.36181640625</v>
       </c>
       <c r="GC4" t="n">
-        <v>2124.25439453125</v>
+        <v>999.9389038085938</v>
       </c>
       <c r="GD4" t="n">
-        <v>2132.06103515625</v>
+        <v>983.4791259765625</v>
       </c>
       <c r="GE4" t="n">
-        <v>2135.020263671875</v>
+        <v>958.9557495117188</v>
       </c>
       <c r="GF4" t="n">
-        <v>2136.438232421875</v>
+        <v>924.9617919921875</v>
       </c>
       <c r="GG4" t="n">
-        <v>2133.3740234375</v>
+        <v>907.17822265625</v>
       </c>
       <c r="GH4" t="n">
-        <v>2156.49951171875</v>
+        <v>865.89990234375</v>
       </c>
       <c r="GI4" t="n">
-        <v>2169.96630859375</v>
+        <v>828.73193359375</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2167.197998046875</v>
+        <v>804.9282836914062</v>
       </c>
       <c r="GK4" t="n">
-        <v>2177.350830078125</v>
+        <v>760.9202880859375</v>
       </c>
       <c r="GL4" t="n">
-        <v>2186.616455078125</v>
+        <v>721.325927734375</v>
       </c>
       <c r="GM4" t="n">
-        <v>2189.360107421875</v>
+        <v>683.69482421875</v>
       </c>
       <c r="GN4" t="n">
-        <v>2190.1953125</v>
+        <v>669.6799926757812</v>
       </c>
       <c r="GO4" t="n">
-        <v>2189.484619140625</v>
+        <v>675.47021484375</v>
       </c>
       <c r="GP4" t="n">
-        <v>2187.356201171875</v>
+        <v>681.1475219726562</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2195.65966796875</v>
+        <v>688.4896850585938</v>
       </c>
       <c r="GR4" t="n">
-        <v>2196.017822265625</v>
+        <v>697.0309448242188</v>
       </c>
       <c r="GS4" t="n">
-        <v>2198.26806640625</v>
+        <v>698.8937377929688</v>
       </c>
       <c r="GT4" t="n">
-        <v>2195.085693359375</v>
+        <v>705.6398315429688</v>
       </c>
       <c r="GU4" t="n">
-        <v>2191.528564453125</v>
+        <v>720.4569091796875</v>
       </c>
       <c r="GV4" t="n">
-        <v>2177.629150390625</v>
+        <v>751.2860107421875</v>
       </c>
       <c r="GW4" t="n">
-        <v>2188.60400390625</v>
+        <v>779.00537109375</v>
       </c>
       <c r="GX4" t="n">
-        <v>2179.218017578125</v>
+        <v>819.5054931640625</v>
       </c>
       <c r="GY4" t="n">
-        <v>2153.564208984375</v>
+        <v>865.2261962890625</v>
       </c>
       <c r="GZ4" t="n">
-        <v>2159.886962890625</v>
+        <v>899.31982421875</v>
       </c>
       <c r="HA4" t="n">
-        <v>2168.303466796875</v>
+        <v>915.71875</v>
       </c>
       <c r="HB4" t="n">
-        <v>2174.63134765625</v>
+        <v>922.0174560546875</v>
       </c>
       <c r="HC4" t="n">
-        <v>2181.48828125</v>
+        <v>974.54345703125</v>
       </c>
       <c r="HD4" t="n">
-        <v>2181.351806640625</v>
+        <v>986.7619018554688</v>
       </c>
       <c r="HE4" t="n">
-        <v>2190.213134765625</v>
+        <v>979.3655395507812</v>
       </c>
       <c r="HF4" t="n">
-        <v>2219.23291015625</v>
+        <v>944.262451171875</v>
       </c>
       <c r="HG4" t="n">
-        <v>2352.77099609375</v>
+        <v>903.7044677734375</v>
       </c>
       <c r="HH4" t="n">
-        <v>2513.7138671875</v>
+        <v>896.8416137695312</v>
       </c>
       <c r="HI4" t="n">
-        <v>2381.4248046875</v>
+        <v>880.84326171875</v>
       </c>
       <c r="HJ4" t="n">
-        <v>2358.708251953125</v>
+        <v>844.8609008789062</v>
       </c>
       <c r="HK4" t="n">
-        <v>2159.825927734375</v>
+        <v>798.14794921875</v>
       </c>
       <c r="HL4" t="n">
-        <v>2123.269775390625</v>
+        <v>775.1596069335938</v>
       </c>
       <c r="HM4" t="n">
-        <v>2100.09130859375</v>
+        <v>769.41259765625</v>
       </c>
       <c r="HN4" t="n">
-        <v>2051.3916015625</v>
+        <v>766.1712646484375</v>
       </c>
       <c r="HO4" t="n">
-        <v>2041.496459960938</v>
+        <v>835.873291015625</v>
       </c>
       <c r="HP4" t="n">
-        <v>2039.290771484375</v>
+        <v>849.924560546875</v>
       </c>
       <c r="HQ4" t="n">
-        <v>2006.167358398438</v>
+        <v>844.3199462890625</v>
       </c>
       <c r="HR4" t="n">
-        <v>2000.850463867188</v>
+        <v>829.8251342773438</v>
       </c>
       <c r="HS4" t="n">
-        <v>2008.404174804688</v>
+        <v>813.504150390625</v>
       </c>
       <c r="HT4" t="n">
-        <v>2006.08056640625</v>
+        <v>796.354736328125</v>
       </c>
       <c r="HU4" t="n">
-        <v>2004.224487304688</v>
+        <v>790.8743896484375</v>
       </c>
       <c r="HV4" t="n">
-        <v>2008.372680664062</v>
+        <v>788.0758056640625</v>
       </c>
       <c r="HW4" t="n">
-        <v>2008.62255859375</v>
+        <v>776.2877197265625</v>
       </c>
       <c r="HX4" t="n">
-        <v>2030.813842773438</v>
+        <v>708.0048217773438</v>
       </c>
       <c r="HY4" t="n">
-        <v>2051.77587890625</v>
+        <v>678.95556640625</v>
       </c>
       <c r="HZ4" t="n">
-        <v>2078.572509765625</v>
+        <v>594.177490234375</v>
       </c>
       <c r="IA4" t="n">
-        <v>2069.610107421875</v>
+        <v>608.8690185546875</v>
       </c>
       <c r="IB4" t="n">
-        <v>2069.73193359375</v>
+        <v>607.45849609375</v>
       </c>
       <c r="IC4" t="n">
-        <v>2070.18359375</v>
+        <v>599.6416015625</v>
       </c>
       <c r="ID4" t="n">
-        <v>2067.276611328125</v>
+        <v>591.9902954101562</v>
       </c>
       <c r="IE4" t="n">
-        <v>2066.935302734375</v>
+        <v>596.748046875</v>
       </c>
       <c r="IF4" t="n">
-        <v>2048.933837890625</v>
+        <v>628.344970703125</v>
       </c>
       <c r="IG4" t="n">
-        <v>2034.307373046875</v>
+        <v>633.2076416015625</v>
       </c>
       <c r="IH4" t="n">
-        <v>2040.60498046875</v>
+        <v>630.3538818359375</v>
       </c>
       <c r="II4" t="n">
-        <v>2039.793212890625</v>
+        <v>618.2865600585938</v>
       </c>
       <c r="IJ4" t="n">
-        <v>2049.02880859375</v>
+        <v>579.6177978515625</v>
       </c>
       <c r="IK4" t="n">
-        <v>2053.06396484375</v>
+        <v>553.97900390625</v>
       </c>
       <c r="IL4" t="n">
-        <v>2066.35498046875</v>
+        <v>522.5511474609375</v>
       </c>
       <c r="IM4" t="n">
-        <v>2068.200927734375</v>
+        <v>472.232421875</v>
       </c>
       <c r="IN4" t="n">
-        <v>2073.36328125</v>
+        <v>438.9500427246094</v>
       </c>
       <c r="IO4" t="n">
-        <v>2135.953369140625</v>
+        <v>355.710205078125</v>
       </c>
       <c r="IP4" t="n">
-        <v>2113.411865234375</v>
+        <v>291.010986328125</v>
       </c>
       <c r="IQ4" t="n">
-        <v>2144.647705078125</v>
+        <v>325.2631225585938</v>
       </c>
       <c r="IR4" t="n">
-        <v>2153.393798828125</v>
+        <v>323.0306091308594</v>
       </c>
       <c r="IS4" t="n">
-        <v>2145.39599609375</v>
+        <v>304.6140441894531</v>
       </c>
       <c r="IT4" t="n">
-        <v>2096.554931640625</v>
+        <v>273.4033813476562</v>
       </c>
       <c r="IU4" t="n">
-        <v>2072.82958984375</v>
+        <v>264.2294616699219</v>
       </c>
       <c r="IV4" t="n">
-        <v>2062.377197265625</v>
+        <v>261.6795043945312</v>
       </c>
       <c r="IW4" t="n">
-        <v>2065.54931640625</v>
+        <v>245.0037841796875</v>
       </c>
       <c r="IX4" t="n">
-        <v>2059.620849609375</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>2054.7119140625</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>2059.6083984375</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>2056.169677734375</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>2045.673950195312</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>2029.594848632812</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>2029.085571289062</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>2032.622192382812</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>2037.171875</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>2020.06689453125</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>2010.763427734375</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>2029.834228515625</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>2016.809448242188</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>2009.39404296875</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>2010.720947265625</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>2007.045776367188</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>2006.572021484375</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>2010.643676757812</v>
-      </c>
-      <c r="JP4" t="n">
-        <v>2011.156005859375</v>
-      </c>
-      <c r="JQ4" t="n">
-        <v>2004.391357421875</v>
-      </c>
-      <c r="JR4" t="n">
-        <v>1999.904541015625</v>
-      </c>
-      <c r="JS4" t="n">
-        <v>2002.765625</v>
-      </c>
-      <c r="JT4" t="n">
-        <v>2002.720458984375</v>
-      </c>
-      <c r="JU4" t="n">
-        <v>2001.1943359375</v>
-      </c>
-      <c r="JV4" t="n">
-        <v>1998.981689453125</v>
-      </c>
-      <c r="JW4" t="n">
-        <v>1993.6259765625</v>
-      </c>
-      <c r="JX4" t="n">
-        <v>1988.5693359375</v>
-      </c>
-      <c r="JY4" t="n">
-        <v>1983.629638671875</v>
-      </c>
-      <c r="JZ4" t="n">
-        <v>1974.868774414062</v>
-      </c>
-      <c r="KA4" t="n">
-        <v>1950.885131835938</v>
-      </c>
-      <c r="KB4" t="n">
-        <v>1914.285278320312</v>
-      </c>
-      <c r="KC4" t="n">
-        <v>1893.43115234375</v>
-      </c>
-      <c r="KD4" t="n">
-        <v>1998.768310546875</v>
-      </c>
-      <c r="KE4" t="n">
-        <v>1924.830810546875</v>
-      </c>
-      <c r="KF4" t="n">
-        <v>1982.881591796875</v>
-      </c>
-      <c r="KG4" t="n">
-        <v>1981.7724609375</v>
-      </c>
-      <c r="KH4" t="n">
-        <v>1989.378173828125</v>
-      </c>
-      <c r="KI4" t="n">
-        <v>1991.8662109375</v>
-      </c>
-      <c r="KJ4" t="n">
-        <v>1956.0869140625</v>
-      </c>
-      <c r="KK4" t="n">
-        <v>1935.194091796875</v>
-      </c>
-      <c r="KL4" t="n">
-        <v>1955.89697265625</v>
-      </c>
-      <c r="KM4" t="n">
-        <v>1947.99755859375</v>
-      </c>
-      <c r="KN4" t="n">
-        <v>1940.193725585938</v>
-      </c>
-      <c r="KO4" t="n">
-        <v>1926.269287109375</v>
-      </c>
-      <c r="KP4" t="n">
-        <v>1964.11474609375</v>
-      </c>
-      <c r="KQ4" t="n">
-        <v>1997.431762695312</v>
-      </c>
-      <c r="KR4" t="n">
-        <v>2014.828125</v>
-      </c>
-      <c r="KS4" t="n">
-        <v>2060.004150390625</v>
-      </c>
-      <c r="KT4" t="n">
-        <v>2061.505615234375</v>
-      </c>
-      <c r="KU4" t="n">
-        <v>2059.572998046875</v>
-      </c>
-      <c r="KV4" t="n">
-        <v>2056.732666015625</v>
-      </c>
-      <c r="KW4" t="n">
-        <v>2056.6015625</v>
-      </c>
-      <c r="KX4" t="n">
-        <v>2048.70458984375</v>
-      </c>
-      <c r="KY4" t="n">
-        <v>2031.667114257812</v>
-      </c>
-      <c r="KZ4" t="n">
-        <v>1999.444580078125</v>
-      </c>
-      <c r="LA4" t="n">
-        <v>1995.849975585938</v>
-      </c>
-      <c r="LB4" t="n">
-        <v>1999.395629882812</v>
-      </c>
-      <c r="LC4" t="n">
-        <v>1999.134399414062</v>
-      </c>
-      <c r="LD4" t="n">
-        <v>2001.213745117188</v>
-      </c>
-      <c r="LE4" t="n">
-        <v>2015.517578125</v>
-      </c>
-      <c r="LF4" t="n">
-        <v>2028.810180664062</v>
-      </c>
-      <c r="LG4" t="n">
-        <v>2016.705444335938</v>
-      </c>
-      <c r="LH4" t="n">
-        <v>1983.570434570312</v>
-      </c>
-      <c r="LI4" t="n">
-        <v>1913.588623046875</v>
-      </c>
-      <c r="LJ4" t="n">
-        <v>1792.625244140625</v>
-      </c>
-      <c r="LK4" t="n">
-        <v>1656.230590820312</v>
-      </c>
-      <c r="LL4" t="n">
-        <v>1572.841796875</v>
-      </c>
-      <c r="LM4" t="n">
-        <v>1472.971801757812</v>
-      </c>
-      <c r="LN4" t="n">
-        <v>1354.941162109375</v>
-      </c>
-      <c r="LO4" t="n">
-        <v>1293.118408203125</v>
-      </c>
-      <c r="LP4" t="n">
-        <v>1196.6728515625</v>
-      </c>
-      <c r="LQ4" t="n">
-        <v>1093.441650390625</v>
-      </c>
-      <c r="LR4" t="n">
-        <v>1013.018188476562</v>
-      </c>
-      <c r="LS4" t="n">
-        <v>936.3843994140625</v>
-      </c>
-      <c r="LT4" t="n">
-        <v>816.6790161132812</v>
-      </c>
-      <c r="LU4" t="n">
-        <v>750.0968627929688</v>
-      </c>
-      <c r="LV4" t="n">
-        <v>670.6449584960938</v>
-      </c>
-      <c r="LW4" t="n">
-        <v>627.4959716796875</v>
-      </c>
-      <c r="LX4" t="n">
-        <v>571.185302734375</v>
-      </c>
-      <c r="LY4" t="n">
-        <v>544.4472045898438</v>
-      </c>
-      <c r="LZ4" t="n">
-        <v>545.5059814453125</v>
-      </c>
-      <c r="MA4" t="n">
-        <v>598.4932250976562</v>
-      </c>
-      <c r="MB4" t="n">
-        <v>641.333740234375</v>
-      </c>
-      <c r="MC4" t="n">
-        <v>673.2305297851562</v>
-      </c>
-      <c r="MD4" t="n">
-        <v>703.5023803710938</v>
-      </c>
-      <c r="ME4" t="n">
-        <v>715.1060791015625</v>
-      </c>
-      <c r="MF4" t="n">
-        <v>719.0108032226562</v>
-      </c>
-      <c r="MG4" t="n">
-        <v>720.111328125</v>
-      </c>
-      <c r="MH4" t="n">
-        <v>728.3674926757812</v>
-      </c>
-      <c r="MI4" t="n">
-        <v>740.118408203125</v>
-      </c>
-      <c r="MJ4" t="n">
-        <v>761.7464599609375</v>
-      </c>
-      <c r="MK4" t="n">
-        <v>772.8993530273438</v>
-      </c>
-      <c r="ML4" t="n">
-        <v>777.6201171875</v>
-      </c>
-      <c r="MM4" t="n">
-        <v>748.3036499023438</v>
-      </c>
-      <c r="MN4" t="n">
-        <v>762.6118774414062</v>
-      </c>
-      <c r="MO4" t="n">
-        <v>786.2528076171875</v>
-      </c>
-      <c r="MP4" t="n">
-        <v>764.55859375</v>
-      </c>
-      <c r="MQ4" t="n">
-        <v>700.9107666015625</v>
-      </c>
-      <c r="MR4" t="n">
-        <v>631.1360473632812</v>
-      </c>
-      <c r="MS4" t="n">
-        <v>748.71337890625</v>
-      </c>
-      <c r="MT4" t="n">
-        <v>586.6493530273438</v>
-      </c>
-      <c r="MU4" t="n">
-        <v>653.5296020507812</v>
-      </c>
-      <c r="MV4" t="n">
-        <v>1186.6826171875</v>
-      </c>
-      <c r="MW4" t="n">
-        <v>820.5664672851562</v>
-      </c>
-      <c r="MX4" t="n">
-        <v>412.5943603515625</v>
-      </c>
-      <c r="MY4" t="n">
-        <v>339.1699829101562</v>
-      </c>
-      <c r="MZ4" t="n">
-        <v>296.9896850585938</v>
-      </c>
-      <c r="NA4" t="n">
-        <v>292.6205749511719</v>
-      </c>
-      <c r="NB4" t="n">
-        <v>264.5665893554688</v>
-      </c>
-      <c r="NC4" t="n">
-        <v>234.9856567382812</v>
-      </c>
-      <c r="ND4" t="n">
-        <v>227.2273559570312</v>
-      </c>
-      <c r="NE4" t="n">
-        <v>223.0671081542969</v>
-      </c>
-      <c r="NF4" t="n">
-        <v>220.4787902832031</v>
-      </c>
-      <c r="NG4" t="n">
-        <v>220.1548156738281</v>
-      </c>
-      <c r="NH4" t="n">
-        <v>234.07275390625</v>
-      </c>
-      <c r="NI4" t="n">
-        <v>258.7862854003906</v>
-      </c>
-      <c r="NJ4" t="n">
-        <v>281.1494140625</v>
-      </c>
-      <c r="NK4" t="n">
-        <v>279.6122436523438</v>
-      </c>
-      <c r="NL4" t="n">
-        <v>245.8640747070312</v>
-      </c>
-      <c r="NM4" t="n">
-        <v>235.0391845703125</v>
+        <v>227.1452941894531</v>
       </c>
     </row>
   </sheetData>
